--- a/WSI-PageLoadPerformance.xlsx
+++ b/WSI-PageLoadPerformance.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="44">
   <si>
     <t>Test</t>
   </si>
@@ -161,8 +161,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -174,9 +174,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,27 +189,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,8 +213,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,6 +229,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -252,9 +244,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,14 +273,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -296,9 +280,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,12 +295,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -327,19 +327,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,6 +357,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -369,13 +453,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,19 +483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,103 +495,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,16 +522,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,27 +570,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,6 +601,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -623,58 +623,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -683,88 +683,88 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2172,10 +2172,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
@@ -2219,837 +2219,419 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B4">
-        <v>779</v>
+        <v>518</v>
       </c>
       <c r="C4">
-        <v>12480</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="C5">
-        <v>3481</v>
+        <v>6518</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>1172</v>
+        <v>612</v>
       </c>
       <c r="C6">
-        <v>7269</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>505</v>
+        <v>563</v>
       </c>
       <c r="C7">
-        <v>6518</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="C8">
-        <v>10868</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>612</v>
+        <v>691</v>
       </c>
       <c r="C9">
-        <v>2922</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B10">
-        <v>926</v>
+        <v>666</v>
       </c>
       <c r="C10">
-        <v>8109</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>563</v>
+        <v>601</v>
       </c>
       <c r="C11">
-        <v>3234</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>1001</v>
+        <v>871</v>
       </c>
       <c r="C12">
-        <v>11423</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>574</v>
+        <v>508</v>
       </c>
       <c r="C13">
-        <v>3812</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>944</v>
+        <v>571</v>
       </c>
       <c r="C14">
-        <v>8709</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>691</v>
+        <v>541</v>
       </c>
       <c r="C15">
-        <v>3019</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B16">
-        <v>985</v>
+        <v>526</v>
       </c>
       <c r="C16">
-        <v>7154</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>666</v>
+        <v>525</v>
       </c>
       <c r="C17">
-        <v>4101</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>948</v>
+        <v>599</v>
       </c>
       <c r="C18">
-        <v>7129</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>601</v>
+        <v>527</v>
       </c>
       <c r="C19">
-        <v>3029</v>
+        <v>10343</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>946</v>
+        <v>580</v>
       </c>
       <c r="C20">
-        <v>8326</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>871</v>
+        <v>4980</v>
       </c>
       <c r="C21">
-        <v>3235</v>
+        <v>7396</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>1016</v>
+        <v>611</v>
       </c>
       <c r="C22">
-        <v>7955</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>508</v>
+        <v>579</v>
       </c>
       <c r="C23">
-        <v>3014</v>
+        <v>7095</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>942</v>
+        <v>10540</v>
       </c>
       <c r="C24">
-        <v>7303</v>
+        <v>16142</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>571</v>
+        <v>645</v>
       </c>
       <c r="C25">
-        <v>3224</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>927</v>
+        <v>1137</v>
       </c>
       <c r="C26">
-        <v>6955</v>
+        <v>6835</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>541</v>
+        <v>722</v>
       </c>
       <c r="C27">
-        <v>4530</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>956</v>
+        <v>546</v>
       </c>
       <c r="C28">
-        <v>7423</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>526</v>
+        <v>670</v>
       </c>
       <c r="C29">
-        <v>3210</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>934</v>
+        <v>730</v>
       </c>
       <c r="C30">
-        <v>7101</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>525</v>
+        <v>611</v>
       </c>
       <c r="C31">
-        <v>2552</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>946</v>
+        <v>624</v>
       </c>
       <c r="C32">
-        <v>8026</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>599</v>
+        <v>1470</v>
       </c>
       <c r="C33">
-        <v>3864</v>
+        <v>17225</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B34">
-        <v>965</v>
+        <v>636</v>
       </c>
       <c r="C34">
-        <v>6843</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="C35">
-        <v>10343</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B36">
-        <v>940</v>
+        <v>544</v>
       </c>
       <c r="C36">
-        <v>7420</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B37">
-        <v>580</v>
+        <v>523</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B38">
-        <v>1306</v>
+        <v>5627</v>
       </c>
       <c r="C38">
-        <v>11937</v>
+        <v>20232</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>4980</v>
+        <v>484</v>
       </c>
       <c r="C39">
-        <v>7396</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B40">
-        <v>998</v>
+        <v>799</v>
       </c>
       <c r="C40">
-        <v>13644</v>
+        <v>22759</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B41">
-        <v>611</v>
+        <v>471</v>
       </c>
       <c r="C41">
-        <v>3908</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42">
-        <v>893</v>
-      </c>
-      <c r="C42">
-        <v>9062</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43">
-        <v>579</v>
-      </c>
-      <c r="C43">
-        <v>7095</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44">
-        <v>998</v>
-      </c>
-      <c r="C44">
-        <v>7047</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45">
-        <v>10540</v>
-      </c>
-      <c r="C45">
-        <v>16142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46">
-        <v>938</v>
-      </c>
-      <c r="C46">
-        <v>7770</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47">
-        <v>645</v>
-      </c>
-      <c r="C47">
-        <v>3423</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48">
-        <v>637</v>
-      </c>
-      <c r="C48">
-        <v>6683</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49">
-        <v>1137</v>
-      </c>
-      <c r="C49">
-        <v>6835</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50">
-        <v>961</v>
-      </c>
-      <c r="C50">
-        <v>7892</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51">
-        <v>722</v>
-      </c>
-      <c r="C51">
-        <v>4536</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52">
-        <v>1166</v>
-      </c>
-      <c r="C52">
-        <v>7758</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>37</v>
-      </c>
-      <c r="B53">
-        <v>546</v>
-      </c>
-      <c r="C53">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54">
-        <v>1125</v>
-      </c>
-      <c r="C54">
-        <v>7953</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55">
-        <v>670</v>
-      </c>
-      <c r="C55">
-        <v>3412</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56">
-        <v>1147</v>
-      </c>
-      <c r="C56">
-        <v>8257</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>28</v>
-      </c>
-      <c r="B57">
-        <v>730</v>
-      </c>
-      <c r="C57">
-        <v>3654</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58">
-        <v>599</v>
-      </c>
-      <c r="C58">
-        <v>6916</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>29</v>
-      </c>
-      <c r="B59">
-        <v>611</v>
-      </c>
-      <c r="C59">
-        <v>3454</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60">
-        <v>940</v>
-      </c>
-      <c r="C60">
-        <v>6896</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>30</v>
-      </c>
-      <c r="B61">
-        <v>624</v>
-      </c>
-      <c r="C61">
-        <v>4460</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62">
-        <v>980</v>
-      </c>
-      <c r="C62">
-        <v>10346</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>41</v>
-      </c>
-      <c r="B63">
-        <v>1470</v>
-      </c>
-      <c r="C63">
-        <v>17225</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64">
-        <v>590</v>
-      </c>
-      <c r="C64">
-        <v>10428</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>31</v>
-      </c>
-      <c r="B65">
-        <v>636</v>
-      </c>
-      <c r="C65">
-        <v>5081</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66">
-        <v>888</v>
-      </c>
-      <c r="C66">
-        <v>8168</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>42</v>
-      </c>
-      <c r="B67">
-        <v>536</v>
-      </c>
-      <c r="C67">
-        <v>3765</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68">
-        <v>1383</v>
-      </c>
-      <c r="C68">
-        <v>11310</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>32</v>
-      </c>
-      <c r="B69">
-        <v>544</v>
-      </c>
-      <c r="C69">
-        <v>4291</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>4</v>
-      </c>
-      <c r="B70">
-        <v>982</v>
-      </c>
-      <c r="C70">
-        <v>6686</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>33</v>
-      </c>
-      <c r="B71">
-        <v>523</v>
-      </c>
-      <c r="C71">
-        <v>4746</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>4</v>
-      </c>
-      <c r="B72">
-        <v>1113</v>
-      </c>
-      <c r="C72">
-        <v>7158</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>34</v>
-      </c>
-      <c r="B73">
-        <v>5627</v>
-      </c>
-      <c r="C73">
-        <v>20232</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74">
-        <v>946</v>
-      </c>
-      <c r="C74">
-        <v>8826</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>43</v>
-      </c>
-      <c r="B75">
-        <v>484</v>
-      </c>
-      <c r="C75">
-        <v>2689</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76">
-        <v>593</v>
-      </c>
-      <c r="C76">
-        <v>6714</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>35</v>
-      </c>
-      <c r="B77">
-        <v>799</v>
-      </c>
-      <c r="C77">
-        <v>22759</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78">
-        <v>1104</v>
-      </c>
-      <c r="C78">
-        <v>10965</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>36</v>
-      </c>
-      <c r="B79">
-        <v>471</v>
-      </c>
-      <c r="C79">
         <v>342</v>
       </c>
     </row>

--- a/WSI-PageLoadPerformance.xlsx
+++ b/WSI-PageLoadPerformance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6840" firstSheet="4" activeTab="7"/>
+    <workbookView windowWidth="18600" windowHeight="6840" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,19 @@
     <sheet name="25Jun2020 22.50.02" sheetId="6" r:id="rId6"/>
     <sheet name="26Jun2020 14.42.21" sheetId="7" r:id="rId7"/>
     <sheet name="26Jun2020 14.46.40" sheetId="8" r:id="rId8"/>
+    <sheet name="29Jun2020 12.41.12" sheetId="9" r:id="rId9"/>
+    <sheet name="29Jun2020 13.36.14" sheetId="10" r:id="rId10"/>
+    <sheet name="30Jun2020 12.31.21" sheetId="11" r:id="rId11"/>
+    <sheet name="30Jun2020 14.07.40" sheetId="12" r:id="rId12"/>
+    <sheet name="30Jun2020 15.58.03" sheetId="13" r:id="rId13"/>
+    <sheet name="30Jun2020 16.13.28" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="47">
   <si>
     <t>Test</t>
   </si>
@@ -154,6 +160,15 @@
   <si>
     <t>User &amp; Role Management Roles</t>
   </si>
+  <si>
+    <t>User &amp; Role Management &gt; Users</t>
+  </si>
+  <si>
+    <t>User &amp; Role Management &gt; Roles</t>
+  </si>
+  <si>
+    <t>User &amp; Role Management &gt; Permissions</t>
+  </si>
 </sst>
 </file>
 
@@ -161,9 +176,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -174,48 +189,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,14 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -267,7 +235,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,9 +248,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,8 +317,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,115 +342,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,7 +378,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,19 +486,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,6 +555,39 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -556,30 +604,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,24 +633,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,136 +653,133 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,6 +1125,2294 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1078</v>
+      </c>
+      <c r="C2">
+        <v>10210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>631</v>
+      </c>
+      <c r="C3">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1120</v>
+      </c>
+      <c r="C4">
+        <v>9655</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>775</v>
+      </c>
+      <c r="C5">
+        <v>4658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1049</v>
+      </c>
+      <c r="C6">
+        <v>7405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1282</v>
+      </c>
+      <c r="C7">
+        <v>8154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>796</v>
+      </c>
+      <c r="C8">
+        <v>8624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>986</v>
+      </c>
+      <c r="C9">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>1068</v>
+      </c>
+      <c r="C10">
+        <v>8656</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1153</v>
+      </c>
+      <c r="C11">
+        <v>5237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>1459</v>
+      </c>
+      <c r="C12">
+        <v>8740</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>1028</v>
+      </c>
+      <c r="C13">
+        <v>14969</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1732</v>
+      </c>
+      <c r="C14">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>779</v>
+      </c>
+      <c r="C15">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>1384</v>
+      </c>
+      <c r="C16">
+        <v>8210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>870</v>
+      </c>
+      <c r="C17">
+        <v>6020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>1281</v>
+      </c>
+      <c r="C18">
+        <v>7823</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>1513</v>
+      </c>
+      <c r="C19">
+        <v>4704</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>1821</v>
+      </c>
+      <c r="C20">
+        <v>9762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>691</v>
+      </c>
+      <c r="C21">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>1585</v>
+      </c>
+      <c r="C22">
+        <v>9539</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>1043</v>
+      </c>
+      <c r="C23">
+        <v>4475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>734</v>
+      </c>
+      <c r="C24">
+        <v>10753</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>936</v>
+      </c>
+      <c r="C25">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1014</v>
+      </c>
+      <c r="C26">
+        <v>7926</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>599</v>
+      </c>
+      <c r="C27">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>1099</v>
+      </c>
+      <c r="C28">
+        <v>8698</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>614</v>
+      </c>
+      <c r="C29">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>1084</v>
+      </c>
+      <c r="C30">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>871</v>
+      </c>
+      <c r="C31">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>1101</v>
+      </c>
+      <c r="C32">
+        <v>8513</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33">
+        <v>1029</v>
+      </c>
+      <c r="C33">
+        <v>5058</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>1085</v>
+      </c>
+      <c r="C34">
+        <v>9176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <v>603</v>
+      </c>
+      <c r="C35">
+        <v>15996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>2484</v>
+      </c>
+      <c r="C36">
+        <v>12684</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37">
+        <v>1137</v>
+      </c>
+      <c r="C37">
+        <v>26956</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>5201</v>
+      </c>
+      <c r="C38">
+        <v>17457</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>639</v>
+      </c>
+      <c r="C39">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>1179</v>
+      </c>
+      <c r="C40">
+        <v>8653</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>1069</v>
+      </c>
+      <c r="C41">
+        <v>8095</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <v>640</v>
+      </c>
+      <c r="C42">
+        <v>6812</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>1311</v>
+      </c>
+      <c r="C43">
+        <v>8976</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44">
+        <v>1063</v>
+      </c>
+      <c r="C44">
+        <v>3952</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>882</v>
+      </c>
+      <c r="C45">
+        <v>8715</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <v>662</v>
+      </c>
+      <c r="C46">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>1151</v>
+      </c>
+      <c r="C47">
+        <v>10534</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48">
+        <v>900</v>
+      </c>
+      <c r="C48">
+        <v>6042</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>1034</v>
+      </c>
+      <c r="C49">
+        <v>11407</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50">
+        <v>646</v>
+      </c>
+      <c r="C50">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>1122</v>
+      </c>
+      <c r="C51">
+        <v>8368</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52">
+        <v>739</v>
+      </c>
+      <c r="C52">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>1539</v>
+      </c>
+      <c r="C53">
+        <v>12232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54">
+        <v>722</v>
+      </c>
+      <c r="C54">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>1067</v>
+      </c>
+      <c r="C55">
+        <v>8467</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56">
+        <v>1297</v>
+      </c>
+      <c r="C56">
+        <v>5738</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>1240</v>
+      </c>
+      <c r="C57">
+        <v>8615</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58">
+        <v>642</v>
+      </c>
+      <c r="C58">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>887</v>
+      </c>
+      <c r="C59">
+        <v>11040</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60">
+        <v>1599</v>
+      </c>
+      <c r="C60">
+        <v>5424</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>5038</v>
+      </c>
+      <c r="C61">
+        <v>11893</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62">
+        <v>930</v>
+      </c>
+      <c r="C62">
+        <v>6227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>1131</v>
+      </c>
+      <c r="C63">
+        <v>7115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64">
+        <v>788</v>
+      </c>
+      <c r="C64">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>1329</v>
+      </c>
+      <c r="C65">
+        <v>10764</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66">
+        <v>605</v>
+      </c>
+      <c r="C66">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>853</v>
+      </c>
+      <c r="C67">
+        <v>10513</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68">
+        <v>756</v>
+      </c>
+      <c r="C68">
+        <v>7348</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>786</v>
+      </c>
+      <c r="C69">
+        <v>7533</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70">
+        <v>761</v>
+      </c>
+      <c r="C70">
+        <v>6065</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <v>1263</v>
+      </c>
+      <c r="C71">
+        <v>8895</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72">
+        <v>901</v>
+      </c>
+      <c r="C72">
+        <v>13208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <v>1068</v>
+      </c>
+      <c r="C73">
+        <v>12992</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74">
+        <v>710</v>
+      </c>
+      <c r="C74">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <v>1712</v>
+      </c>
+      <c r="C75">
+        <v>9823</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76">
+        <v>881</v>
+      </c>
+      <c r="C76">
+        <v>22994</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77">
+        <v>2260</v>
+      </c>
+      <c r="C77">
+        <v>10119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>36</v>
+      </c>
+      <c r="B78">
+        <v>625</v>
+      </c>
+      <c r="C78">
+        <v>1592</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1491</v>
+      </c>
+      <c r="C2">
+        <v>10732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>882</v>
+      </c>
+      <c r="C3">
+        <v>11075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>925</v>
+      </c>
+      <c r="C4">
+        <v>6975</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1551</v>
+      </c>
+      <c r="C5">
+        <v>7385</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1242</v>
+      </c>
+      <c r="C2">
+        <v>10940</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>759</v>
+      </c>
+      <c r="C3">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>985</v>
+      </c>
+      <c r="C4">
+        <v>11240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>1277</v>
+      </c>
+      <c r="C5">
+        <v>4924</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1209</v>
+      </c>
+      <c r="C6">
+        <v>14767</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>619</v>
+      </c>
+      <c r="C7">
+        <v>6913</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>727</v>
+      </c>
+      <c r="C8">
+        <v>7012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>757</v>
+      </c>
+      <c r="C9">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>1149</v>
+      </c>
+      <c r="C10">
+        <v>7626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>834</v>
+      </c>
+      <c r="C11">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>2096</v>
+      </c>
+      <c r="C12">
+        <v>17686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>651</v>
+      </c>
+      <c r="C13">
+        <v>9154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>3601</v>
+      </c>
+      <c r="C14">
+        <v>13901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>692</v>
+      </c>
+      <c r="C15">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>1094</v>
+      </c>
+      <c r="C16">
+        <v>16523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>760</v>
+      </c>
+      <c r="C17">
+        <v>5439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>1113</v>
+      </c>
+      <c r="C18">
+        <v>12496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>785</v>
+      </c>
+      <c r="C19">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>1116</v>
+      </c>
+      <c r="C20">
+        <v>12894</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>904</v>
+      </c>
+      <c r="C21">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>1191</v>
+      </c>
+      <c r="C22">
+        <v>20621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>713</v>
+      </c>
+      <c r="C23">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>1078</v>
+      </c>
+      <c r="C24">
+        <v>9598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>751</v>
+      </c>
+      <c r="C25">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1163</v>
+      </c>
+      <c r="C26">
+        <v>8739</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>1218</v>
+      </c>
+      <c r="C27">
+        <v>4152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>1057</v>
+      </c>
+      <c r="C28">
+        <v>8947</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>1276</v>
+      </c>
+      <c r="C29">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>1172</v>
+      </c>
+      <c r="C30">
+        <v>13944</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>796</v>
+      </c>
+      <c r="C31">
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>1089</v>
+      </c>
+      <c r="C32">
+        <v>8698</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33">
+        <v>692</v>
+      </c>
+      <c r="C33">
+        <v>4819</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>1126</v>
+      </c>
+      <c r="C34">
+        <v>9904</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <v>634</v>
+      </c>
+      <c r="C35">
+        <v>7738</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>700</v>
+      </c>
+      <c r="C36">
+        <v>7221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37">
+        <v>1197</v>
+      </c>
+      <c r="C37">
+        <v>8974</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>798</v>
+      </c>
+      <c r="C38">
+        <v>15484</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>1159</v>
+      </c>
+      <c r="C39">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>1080</v>
+      </c>
+      <c r="C40">
+        <v>12494</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41">
+        <v>738</v>
+      </c>
+      <c r="C41">
+        <v>4663</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>1653</v>
+      </c>
+      <c r="C42">
+        <v>10425</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>994</v>
+      </c>
+      <c r="C43">
+        <v>11011</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>1124</v>
+      </c>
+      <c r="C44">
+        <v>9835</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>693</v>
+      </c>
+      <c r="C45">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>1164</v>
+      </c>
+      <c r="C46">
+        <v>7708</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47">
+        <v>847</v>
+      </c>
+      <c r="C47">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>1078</v>
+      </c>
+      <c r="C48">
+        <v>14894</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49">
+        <v>674</v>
+      </c>
+      <c r="C49">
+        <v>9466</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>1381</v>
+      </c>
+      <c r="C50">
+        <v>8828</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51">
+        <v>913</v>
+      </c>
+      <c r="C51">
+        <v>3973</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>1056</v>
+      </c>
+      <c r="C52">
+        <v>8835</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53">
+        <v>876</v>
+      </c>
+      <c r="C53">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>1089</v>
+      </c>
+      <c r="C54">
+        <v>9523</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55">
+        <v>855</v>
+      </c>
+      <c r="C55">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>1328</v>
+      </c>
+      <c r="C56">
+        <v>8594</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57">
+        <v>1794</v>
+      </c>
+      <c r="C57">
+        <v>5114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>1063</v>
+      </c>
+      <c r="C58">
+        <v>12320</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59">
+        <v>901</v>
+      </c>
+      <c r="C59">
+        <v>5906</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>1138</v>
+      </c>
+      <c r="C60">
+        <v>7905</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61">
+        <v>979</v>
+      </c>
+      <c r="C61">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>779</v>
+      </c>
+      <c r="C62">
+        <v>7693</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>873</v>
+      </c>
+      <c r="C63">
+        <v>8111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>772</v>
+      </c>
+      <c r="C64">
+        <v>13749</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65">
+        <v>901</v>
+      </c>
+      <c r="C65">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>1041</v>
+      </c>
+      <c r="C66">
+        <v>8487</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67">
+        <v>648</v>
+      </c>
+      <c r="C67">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <v>1303</v>
+      </c>
+      <c r="C68">
+        <v>10911</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69">
+        <v>867</v>
+      </c>
+      <c r="C69">
+        <v>7172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <v>1735</v>
+      </c>
+      <c r="C70">
+        <v>9681</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71">
+        <v>9645</v>
+      </c>
+      <c r="C71">
+        <v>38778</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72">
+        <v>1124</v>
+      </c>
+      <c r="C72">
+        <v>8495</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <v>1168</v>
+      </c>
+      <c r="C73">
+        <v>9222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74">
+        <v>1401</v>
+      </c>
+      <c r="C74">
+        <v>10675</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>44</v>
+      </c>
+      <c r="B75">
+        <v>710</v>
+      </c>
+      <c r="C75">
+        <v>404</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="65.2727272727273" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1110</v>
+      </c>
+      <c r="C2">
+        <v>8568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>554</v>
+      </c>
+      <c r="C3">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>688</v>
+      </c>
+      <c r="C4">
+        <v>4449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>633</v>
+      </c>
+      <c r="C5">
+        <v>7010</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>647</v>
+      </c>
+      <c r="C6">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>767</v>
+      </c>
+      <c r="C7">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>670</v>
+      </c>
+      <c r="C8">
+        <v>8143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>604</v>
+      </c>
+      <c r="C9">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>716</v>
+      </c>
+      <c r="C10">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>661</v>
+      </c>
+      <c r="C11">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>620</v>
+      </c>
+      <c r="C12">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>806</v>
+      </c>
+      <c r="C13">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>726</v>
+      </c>
+      <c r="C14">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1043</v>
+      </c>
+      <c r="C15">
+        <v>4659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>804</v>
+      </c>
+      <c r="C16">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>822</v>
+      </c>
+      <c r="C17">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>762</v>
+      </c>
+      <c r="C18">
+        <v>5014</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1063</v>
+      </c>
+      <c r="C19">
+        <v>8637</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1067</v>
+      </c>
+      <c r="C20">
+        <v>10970</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>776</v>
+      </c>
+      <c r="C21">
+        <v>4141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>817</v>
+      </c>
+      <c r="C22">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>875</v>
+      </c>
+      <c r="C23">
+        <v>7035</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>1141</v>
+      </c>
+      <c r="C24">
+        <v>8033</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>679</v>
+      </c>
+      <c r="C25">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>607</v>
+      </c>
+      <c r="C26">
+        <v>6041</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>591</v>
+      </c>
+      <c r="C27">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28">
+        <v>684</v>
+      </c>
+      <c r="C28">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>721</v>
+      </c>
+      <c r="C29">
+        <v>3705</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>1080</v>
+      </c>
+      <c r="C30">
+        <v>8669</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>716</v>
+      </c>
+      <c r="C31">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>728</v>
+      </c>
+      <c r="C32">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>773</v>
+      </c>
+      <c r="C33">
+        <v>5815</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>697</v>
+      </c>
+      <c r="C34">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>999</v>
+      </c>
+      <c r="C35">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>1030</v>
+      </c>
+      <c r="C36">
+        <v>5201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>1059</v>
+      </c>
+      <c r="C37">
+        <v>9002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>731</v>
+      </c>
+      <c r="C38">
+        <v>19326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <v>667</v>
+      </c>
+      <c r="C39">
+        <v>3924</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40">
+        <v>705</v>
+      </c>
+      <c r="C40">
+        <v>27803</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>588</v>
+      </c>
+      <c r="C41">
+        <v>663</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -2174,7 +4477,7 @@
   <sheetPr/>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -2639,4 +4942,483 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1259</v>
+      </c>
+      <c r="C2">
+        <v>9854</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>804</v>
+      </c>
+      <c r="C3">
+        <v>4194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3976</v>
+      </c>
+      <c r="C4">
+        <v>17419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>1074</v>
+      </c>
+      <c r="C5">
+        <v>4533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1135</v>
+      </c>
+      <c r="C6">
+        <v>7575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>825</v>
+      </c>
+      <c r="C7">
+        <v>8566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>2165</v>
+      </c>
+      <c r="C8">
+        <v>12811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1251</v>
+      </c>
+      <c r="C9">
+        <v>6450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>1663</v>
+      </c>
+      <c r="C10">
+        <v>16948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>1167</v>
+      </c>
+      <c r="C11">
+        <v>18733</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>1718</v>
+      </c>
+      <c r="C12">
+        <v>18240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>3942</v>
+      </c>
+      <c r="C13">
+        <v>12544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1296</v>
+      </c>
+      <c r="C14">
+        <v>10605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>1223</v>
+      </c>
+      <c r="C15">
+        <v>9368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>1373</v>
+      </c>
+      <c r="C16">
+        <v>8814</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>1219</v>
+      </c>
+      <c r="C17">
+        <v>23153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>2194</v>
+      </c>
+      <c r="C18">
+        <v>12542</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>1078</v>
+      </c>
+      <c r="C19">
+        <v>8820</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>3208</v>
+      </c>
+      <c r="C20">
+        <v>13504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>8415</v>
+      </c>
+      <c r="C21">
+        <v>27024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>1677</v>
+      </c>
+      <c r="C22">
+        <v>8759</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>4898</v>
+      </c>
+      <c r="C23">
+        <v>20141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>1953</v>
+      </c>
+      <c r="C24">
+        <v>14526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>14538</v>
+      </c>
+      <c r="C25">
+        <v>38412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>2408</v>
+      </c>
+      <c r="C26">
+        <v>11772</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>4572</v>
+      </c>
+      <c r="C27">
+        <v>15175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>6622</v>
+      </c>
+      <c r="C28">
+        <v>20889</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>2128</v>
+      </c>
+      <c r="C29">
+        <v>12421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>1221</v>
+      </c>
+      <c r="C30">
+        <v>8124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>1107</v>
+      </c>
+      <c r="C31">
+        <v>8843</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>5062</v>
+      </c>
+      <c r="C32">
+        <v>27463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>1826</v>
+      </c>
+      <c r="C33">
+        <v>8839</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>5240</v>
+      </c>
+      <c r="C34">
+        <v>25631</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>878</v>
+      </c>
+      <c r="C35">
+        <v>11708</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>1265</v>
+      </c>
+      <c r="C36">
+        <v>15403</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>2000</v>
+      </c>
+      <c r="C37">
+        <v>14349</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>1113</v>
+      </c>
+      <c r="C38">
+        <v>16402</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>704</v>
+      </c>
+      <c r="C39">
+        <v>10885</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>1636</v>
+      </c>
+      <c r="C40">
+        <v>17443</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>1437</v>
+      </c>
+      <c r="C41">
+        <v>13844</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>1063</v>
+      </c>
+      <c r="C42">
+        <v>11229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/WSI-PageLoadPerformance.xlsx
+++ b/WSI-PageLoadPerformance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6840" firstSheet="10" activeTab="11"/>
+    <workbookView windowWidth="19200" windowHeight="7110" firstSheet="40" activeTab="43"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,43 @@
     <sheet name="30Jun2020 14.07.40" sheetId="12" r:id="rId12"/>
     <sheet name="30Jun2020 15.58.03" sheetId="13" r:id="rId13"/>
     <sheet name="30Jun2020 16.13.28" sheetId="14" r:id="rId14"/>
+    <sheet name="01Jul2020 13.31.22" sheetId="15" r:id="rId15"/>
+    <sheet name="02Jul2020 18.37.39" sheetId="16" r:id="rId16"/>
+    <sheet name="02Jul2020 07.00.28" sheetId="17" r:id="rId17"/>
+    <sheet name="02Jul2020 19.33.13" sheetId="18" r:id="rId18"/>
+    <sheet name="02Jul2020 07.04.42" sheetId="19" r:id="rId19"/>
+    <sheet name="02Jul2020 07.13.26" sheetId="20" r:id="rId20"/>
+    <sheet name="02Jul2020 07.27.09" sheetId="21" r:id="rId21"/>
+    <sheet name="02Jul2020 08.11.09" sheetId="22" r:id="rId22"/>
+    <sheet name="02Jul2020 20.54.01" sheetId="23" r:id="rId23"/>
+    <sheet name="02Jul2020 21.00.05" sheetId="24" r:id="rId24"/>
+    <sheet name="02Jul2020 21.13.14" sheetId="25" r:id="rId25"/>
+    <sheet name="02Jul2020 21.14.45" sheetId="26" r:id="rId26"/>
+    <sheet name="02Jul2020 21.22.23" sheetId="27" r:id="rId27"/>
+    <sheet name="02Jul2020 21.29.57" sheetId="28" r:id="rId28"/>
+    <sheet name="03Jul2020 15.36.03" sheetId="29" r:id="rId29"/>
+    <sheet name="03Jul2020 15.38.41" sheetId="30" r:id="rId30"/>
+    <sheet name="03Jul2020 17.33.58" sheetId="31" r:id="rId31"/>
+    <sheet name="03Jul2020 19.53.38" sheetId="32" r:id="rId32"/>
+    <sheet name="03Jul2020 19.56.56" sheetId="33" r:id="rId33"/>
+    <sheet name="03Jul2020 20.58.17" sheetId="34" r:id="rId34"/>
+    <sheet name="03Jul2020 20.59.44" sheetId="35" r:id="rId35"/>
+    <sheet name="03Jul2020 21.05.09" sheetId="36" r:id="rId36"/>
+    <sheet name="03Jul2020 21.11.07" sheetId="37" r:id="rId37"/>
+    <sheet name="04Jul2020 16.02.44" sheetId="38" r:id="rId38"/>
+    <sheet name="04Jul2020 16.06.45" sheetId="39" r:id="rId39"/>
+    <sheet name="06Jul2020 17.34.57" sheetId="40" r:id="rId40"/>
+    <sheet name="06Jul2020 18.05.46" sheetId="41" r:id="rId41"/>
+    <sheet name="07Jul2020 15.59.20" sheetId="42" r:id="rId42"/>
+    <sheet name="07Jul2020 16.39.24" sheetId="43" r:id="rId43"/>
+    <sheet name="07Jul2020 17.39.30" sheetId="44" r:id="rId44"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="49">
   <si>
     <t>Test</t>
   </si>
@@ -169,16 +199,22 @@
   <si>
     <t>User &amp; Role Management &gt; Permissions</t>
   </si>
+  <si>
+    <t>Libraries &gt; Season Collection</t>
+  </si>
+  <si>
+    <t>Type &amp; Attribute Management &gt; Manage Types &gt; Season Collection</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -191,9 +227,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,6 +272,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -235,7 +295,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,75 +303,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,6 +323,51 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -342,13 +378,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,19 +414,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,19 +432,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,25 +462,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,13 +492,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,13 +510,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,7 +540,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,13 +552,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,16 +573,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,6 +591,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -594,42 +656,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,7 +674,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,139 +689,133 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2077,7 +2113,7 @@
   <sheetPr/>
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -2953,7 +2989,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="65.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="65.2727272727273" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3405,6 +3441,864 @@
       </c>
       <c r="C41">
         <v>663</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="68.6363636363636" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1007</v>
+      </c>
+      <c r="C2">
+        <v>7888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>661</v>
+      </c>
+      <c r="C3">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>536</v>
+      </c>
+      <c r="C4">
+        <v>3836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>714</v>
+      </c>
+      <c r="C5">
+        <v>6669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>519</v>
+      </c>
+      <c r="C6">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>795</v>
+      </c>
+      <c r="C7">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>592</v>
+      </c>
+      <c r="C8">
+        <v>8262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>535</v>
+      </c>
+      <c r="C9">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>552</v>
+      </c>
+      <c r="C10">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>783</v>
+      </c>
+      <c r="C11">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>747</v>
+      </c>
+      <c r="C12">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>710</v>
+      </c>
+      <c r="C13">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>542</v>
+      </c>
+      <c r="C14">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>570</v>
+      </c>
+      <c r="C15">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>581</v>
+      </c>
+      <c r="C16">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>550</v>
+      </c>
+      <c r="C17">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>694</v>
+      </c>
+      <c r="C18">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>605</v>
+      </c>
+      <c r="C19">
+        <v>6043</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>504</v>
+      </c>
+      <c r="C20">
+        <v>7383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>515</v>
+      </c>
+      <c r="C21">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>514</v>
+      </c>
+      <c r="C22">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>536</v>
+      </c>
+      <c r="C23">
+        <v>4781</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>544</v>
+      </c>
+      <c r="C24">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>531</v>
+      </c>
+      <c r="C25">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>612</v>
+      </c>
+      <c r="C26">
+        <v>4964</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>559</v>
+      </c>
+      <c r="C27">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28">
+        <v>548</v>
+      </c>
+      <c r="C28">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>563</v>
+      </c>
+      <c r="C29">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>523</v>
+      </c>
+      <c r="C30">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>522</v>
+      </c>
+      <c r="C31">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>533</v>
+      </c>
+      <c r="C32">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>863</v>
+      </c>
+      <c r="C33">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>508</v>
+      </c>
+      <c r="C34">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>577</v>
+      </c>
+      <c r="C35">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>734</v>
+      </c>
+      <c r="C36">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>530</v>
+      </c>
+      <c r="C37">
+        <v>9073</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>524</v>
+      </c>
+      <c r="C38">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39">
+        <v>522</v>
+      </c>
+      <c r="C39">
+        <v>13498</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>518</v>
+      </c>
+      <c r="C40">
+        <v>896</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1217</v>
+      </c>
+      <c r="C2">
+        <v>9609</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1200</v>
+      </c>
+      <c r="C3">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4045</v>
+      </c>
+      <c r="C4">
+        <v>11444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>833</v>
+      </c>
+      <c r="C5">
+        <v>4774</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1193</v>
+      </c>
+      <c r="C6">
+        <v>7715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>887</v>
+      </c>
+      <c r="C7">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>1810</v>
+      </c>
+      <c r="C8">
+        <v>20396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>651</v>
+      </c>
+      <c r="C9">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>1109</v>
+      </c>
+      <c r="C10">
+        <v>8629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>776</v>
+      </c>
+      <c r="C11">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>1451</v>
+      </c>
+      <c r="C12">
+        <v>8767</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1133</v>
+      </c>
+      <c r="C2">
+        <v>10971</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1340</v>
+      </c>
+      <c r="C2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1587</v>
+      </c>
+      <c r="C3">
+        <v>8433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1019</v>
+      </c>
+      <c r="C4">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1435</v>
+      </c>
+      <c r="C5">
+        <v>7928</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>803</v>
+      </c>
+      <c r="C6">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1222</v>
+      </c>
+      <c r="C7">
+        <v>8030</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>954</v>
+      </c>
+      <c r="C8">
+        <v>4973</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1162</v>
+      </c>
+      <c r="C9">
+        <v>8590</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>768</v>
+      </c>
+      <c r="C10">
+        <v>3909</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>702</v>
+      </c>
+      <c r="C11">
+        <v>7092</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>905</v>
+      </c>
+      <c r="C12">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>1077</v>
+      </c>
+      <c r="C13">
+        <v>8533</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1200</v>
+      </c>
+      <c r="C14">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>841</v>
+      </c>
+      <c r="C15">
+        <v>3802</v>
       </c>
     </row>
   </sheetData>
@@ -3441,6 +4335,1803 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1074</v>
+      </c>
+      <c r="C2">
+        <v>12508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1127</v>
+      </c>
+      <c r="C3">
+        <v>8551</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>736</v>
+      </c>
+      <c r="C4">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1124</v>
+      </c>
+      <c r="C5">
+        <v>7439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>745</v>
+      </c>
+      <c r="C6">
+        <v>4045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>921</v>
+      </c>
+      <c r="C7">
+        <v>8501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>828</v>
+      </c>
+      <c r="C8">
+        <v>5587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1382</v>
+      </c>
+      <c r="C9">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>778</v>
+      </c>
+      <c r="C10">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>2051</v>
+      </c>
+      <c r="C11">
+        <v>8791</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1339</v>
+      </c>
+      <c r="C12">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>1079</v>
+      </c>
+      <c r="C13">
+        <v>9577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>1194</v>
+      </c>
+      <c r="C14">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>1428</v>
+      </c>
+      <c r="C15">
+        <v>10540</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>879</v>
+      </c>
+      <c r="C16">
+        <v>11484</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="29.3636363636364" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>911</v>
+      </c>
+      <c r="C2">
+        <v>9548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1086</v>
+      </c>
+      <c r="C3">
+        <v>8365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>832</v>
+      </c>
+      <c r="C4">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1440</v>
+      </c>
+      <c r="C5">
+        <v>8863</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>697</v>
+      </c>
+      <c r="C6">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1331</v>
+      </c>
+      <c r="C7">
+        <v>8416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>869</v>
+      </c>
+      <c r="C8">
+        <v>5482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1285</v>
+      </c>
+      <c r="C9">
+        <v>8426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>1729</v>
+      </c>
+      <c r="C10">
+        <v>4912</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>1106</v>
+      </c>
+      <c r="C11">
+        <v>8361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1014</v>
+      </c>
+      <c r="C12">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>1042</v>
+      </c>
+      <c r="C13">
+        <v>11554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>770</v>
+      </c>
+      <c r="C14">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>1934</v>
+      </c>
+      <c r="C15">
+        <v>9278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>1184</v>
+      </c>
+      <c r="C16">
+        <v>9080</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>1091</v>
+      </c>
+      <c r="C17">
+        <v>9195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>804</v>
+      </c>
+      <c r="C18">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>789</v>
+      </c>
+      <c r="C19">
+        <v>10547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>1020</v>
+      </c>
+      <c r="C20">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>1123</v>
+      </c>
+      <c r="C21">
+        <v>10279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>4856</v>
+      </c>
+      <c r="C22">
+        <v>3919</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>2673</v>
+      </c>
+      <c r="C23">
+        <v>11723</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>1539</v>
+      </c>
+      <c r="C24">
+        <v>5842</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>1259</v>
+      </c>
+      <c r="C25">
+        <v>9617</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>3778</v>
+      </c>
+      <c r="C26">
+        <v>8674</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>834</v>
+      </c>
+      <c r="C27">
+        <v>9841</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>622</v>
+      </c>
+      <c r="C28">
+        <v>4141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>829</v>
+      </c>
+      <c r="C29">
+        <v>16529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>793</v>
+      </c>
+      <c r="C30">
+        <v>7124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>895</v>
+      </c>
+      <c r="C31">
+        <v>15394</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>786</v>
+      </c>
+      <c r="C32">
+        <v>8602</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>745</v>
+      </c>
+      <c r="C33">
+        <v>7333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>920</v>
+      </c>
+      <c r="C34">
+        <v>10881</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1384</v>
+      </c>
+      <c r="C2">
+        <v>9990</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1060</v>
+      </c>
+      <c r="C3">
+        <v>7668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2052</v>
+      </c>
+      <c r="C4">
+        <v>5712</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1109</v>
+      </c>
+      <c r="C5">
+        <v>8697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>978</v>
+      </c>
+      <c r="C6">
+        <v>4955</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1058</v>
+      </c>
+      <c r="C7">
+        <v>8932</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>955</v>
+      </c>
+      <c r="C8">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1974</v>
+      </c>
+      <c r="C9">
+        <v>15137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>1157</v>
+      </c>
+      <c r="C10">
+        <v>8099</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>618</v>
+      </c>
+      <c r="C2">
+        <v>9449</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>588</v>
+      </c>
+      <c r="C2">
+        <v>7734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>558</v>
+      </c>
+      <c r="C3">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>7497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>549</v>
+      </c>
+      <c r="C5">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>951</v>
+      </c>
+      <c r="C6">
+        <v>7198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>564</v>
+      </c>
+      <c r="C7">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>1039</v>
+      </c>
+      <c r="C8">
+        <v>12510</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1689</v>
+      </c>
+      <c r="C9">
+        <v>4514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>1210</v>
+      </c>
+      <c r="C10">
+        <v>21045</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>574</v>
+      </c>
+      <c r="C11">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>601</v>
+      </c>
+      <c r="C12">
+        <v>26568</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>586</v>
+      </c>
+      <c r="C13">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>997</v>
+      </c>
+      <c r="C14">
+        <v>7634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>576</v>
+      </c>
+      <c r="C15">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>1001</v>
+      </c>
+      <c r="C16">
+        <v>7450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>1093</v>
+      </c>
+      <c r="C17">
+        <v>7309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>1236</v>
+      </c>
+      <c r="C18">
+        <v>7177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>748</v>
+      </c>
+      <c r="C19">
+        <v>35161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>575</v>
+      </c>
+      <c r="C20">
+        <v>10900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>941</v>
+      </c>
+      <c r="C2">
+        <v>7504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>581</v>
+      </c>
+      <c r="C3">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>576</v>
+      </c>
+      <c r="C4">
+        <v>7017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>650</v>
+      </c>
+      <c r="C5">
+        <v>3763</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>958</v>
+      </c>
+      <c r="C6">
+        <v>6859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>986</v>
+      </c>
+      <c r="C7">
+        <v>7071</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>649</v>
+      </c>
+      <c r="C8">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>959</v>
+      </c>
+      <c r="C9">
+        <v>11514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>582</v>
+      </c>
+      <c r="C10">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>591</v>
+      </c>
+      <c r="C11">
+        <v>9066</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>573</v>
+      </c>
+      <c r="C12">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>1289</v>
+      </c>
+      <c r="C13">
+        <v>8162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>742</v>
+      </c>
+      <c r="C14">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>968</v>
+      </c>
+      <c r="C15">
+        <v>7055</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>993</v>
+      </c>
+      <c r="C16">
+        <v>8064</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>539</v>
+      </c>
+      <c r="C17">
+        <v>8426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>920</v>
+      </c>
+      <c r="C18">
+        <v>11877</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="68.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.4545454545455" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>993</v>
+      </c>
+      <c r="C2">
+        <v>7705</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>538</v>
+      </c>
+      <c r="C3">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>561</v>
+      </c>
+      <c r="C4">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>600</v>
+      </c>
+      <c r="C5">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>565</v>
+      </c>
+      <c r="C6">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>539</v>
+      </c>
+      <c r="C7">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>642</v>
+      </c>
+      <c r="C8">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>804</v>
+      </c>
+      <c r="C9">
+        <v>3871</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>599</v>
+      </c>
+      <c r="C10">
+        <v>6127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>508</v>
+      </c>
+      <c r="C11">
+        <v>6028</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>526</v>
+      </c>
+      <c r="C12">
+        <v>6440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>537</v>
+      </c>
+      <c r="C13">
+        <v>6810</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>564</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>529</v>
+      </c>
+      <c r="C15">
+        <v>4815</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>1092</v>
+      </c>
+      <c r="C16">
+        <v>8963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>504</v>
+      </c>
+      <c r="C17">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>518</v>
+      </c>
+      <c r="C18">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>530</v>
+      </c>
+      <c r="C19">
+        <v>3684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2660</v>
+      </c>
+      <c r="C20">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>732</v>
+      </c>
+      <c r="C21">
+        <v>30596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>543</v>
+      </c>
+      <c r="C22">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>551</v>
+      </c>
+      <c r="C23">
+        <v>4758</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>554</v>
+      </c>
+      <c r="C24">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>552</v>
+      </c>
+      <c r="C25">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>537</v>
+      </c>
+      <c r="C26">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>535</v>
+      </c>
+      <c r="C27">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28">
+        <v>693</v>
+      </c>
+      <c r="C28">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>1009</v>
+      </c>
+      <c r="C29">
+        <v>3836</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>870</v>
+      </c>
+      <c r="C30">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31">
+        <v>1079</v>
+      </c>
+      <c r="C31">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>559</v>
+      </c>
+      <c r="C32">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>523</v>
+      </c>
+      <c r="C33">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>527</v>
+      </c>
+      <c r="C34">
+        <v>5743</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <v>587</v>
+      </c>
+      <c r="C35">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36">
+        <v>675</v>
+      </c>
+      <c r="C36">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>519</v>
+      </c>
+      <c r="C37">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>559</v>
+      </c>
+      <c r="C38">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <v>680</v>
+      </c>
+      <c r="C39">
+        <v>5122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40">
+        <v>696</v>
+      </c>
+      <c r="C40">
+        <v>14094</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>531</v>
+      </c>
+      <c r="C41">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>494</v>
+      </c>
+      <c r="C42">
+        <v>22112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>500</v>
+      </c>
+      <c r="C43">
+        <v>764</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>2285</v>
+      </c>
+      <c r="C2">
+        <v>20104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -3483,6 +6174,2022 @@
       </c>
       <c r="C3">
         <v>385</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1953</v>
+      </c>
+      <c r="C2">
+        <v>12265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1106</v>
+      </c>
+      <c r="C2">
+        <v>13765</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1319</v>
+      </c>
+      <c r="C3">
+        <v>9837</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1343</v>
+      </c>
+      <c r="C4">
+        <v>8350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1254</v>
+      </c>
+      <c r="C5">
+        <v>11167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1187</v>
+      </c>
+      <c r="C6">
+        <v>10775</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>4459</v>
+      </c>
+      <c r="C2">
+        <v>55042</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>918</v>
+      </c>
+      <c r="C3">
+        <v>8493</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="63.0909090909091" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1082</v>
+      </c>
+      <c r="C2">
+        <v>11654</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>669</v>
+      </c>
+      <c r="C3">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3086</v>
+      </c>
+      <c r="C4">
+        <v>77425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>794</v>
+      </c>
+      <c r="C5">
+        <v>4837</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4663</v>
+      </c>
+      <c r="C6">
+        <v>11436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>1588</v>
+      </c>
+      <c r="C7">
+        <v>5116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>825</v>
+      </c>
+      <c r="C8">
+        <v>7229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1188</v>
+      </c>
+      <c r="C9">
+        <v>8187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>1852</v>
+      </c>
+      <c r="C10">
+        <v>6219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>2035</v>
+      </c>
+      <c r="C11">
+        <v>11057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>1823</v>
+      </c>
+      <c r="C12">
+        <v>6542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>64021</v>
+      </c>
+      <c r="C13">
+        <v>112737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>4412</v>
+      </c>
+      <c r="C14">
+        <v>9986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>8299</v>
+      </c>
+      <c r="C15">
+        <v>24077</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>2057</v>
+      </c>
+      <c r="C16">
+        <v>10186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>2384</v>
+      </c>
+      <c r="C17">
+        <v>12013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>1404</v>
+      </c>
+      <c r="C18">
+        <v>10323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>3164</v>
+      </c>
+      <c r="C19">
+        <v>15353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>1128</v>
+      </c>
+      <c r="C20">
+        <v>9216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>3269</v>
+      </c>
+      <c r="C21">
+        <v>15424</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>638</v>
+      </c>
+      <c r="C22">
+        <v>12233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>2946</v>
+      </c>
+      <c r="C23">
+        <v>10217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>1525</v>
+      </c>
+      <c r="C24">
+        <v>12402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>1263</v>
+      </c>
+      <c r="C25">
+        <v>7640</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1854</v>
+      </c>
+      <c r="C26">
+        <v>23394</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>821</v>
+      </c>
+      <c r="C27">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>12745</v>
+      </c>
+      <c r="C28">
+        <v>19971</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>975</v>
+      </c>
+      <c r="C29">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>1441</v>
+      </c>
+      <c r="C30">
+        <v>8163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>913</v>
+      </c>
+      <c r="C31">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>1312</v>
+      </c>
+      <c r="C32">
+        <v>9439</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33">
+        <v>657</v>
+      </c>
+      <c r="C33">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>1459</v>
+      </c>
+      <c r="C34">
+        <v>9216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <v>685</v>
+      </c>
+      <c r="C35">
+        <v>8075</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>1935</v>
+      </c>
+      <c r="C36">
+        <v>18533</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37">
+        <v>1305</v>
+      </c>
+      <c r="C37">
+        <v>17749</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>1495</v>
+      </c>
+      <c r="C38">
+        <v>8681</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>639</v>
+      </c>
+      <c r="C39">
+        <v>5140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>3121</v>
+      </c>
+      <c r="C40">
+        <v>14091</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>2216</v>
+      </c>
+      <c r="C41">
+        <v>9467</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42">
+        <v>841</v>
+      </c>
+      <c r="C42">
+        <v>4720</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>1219</v>
+      </c>
+      <c r="C43">
+        <v>14969</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44">
+        <v>786</v>
+      </c>
+      <c r="C44">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>60085</v>
+      </c>
+      <c r="C45">
+        <v>94908</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46">
+        <v>753</v>
+      </c>
+      <c r="C46">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>1084</v>
+      </c>
+      <c r="C47">
+        <v>10688</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48">
+        <v>3527</v>
+      </c>
+      <c r="C48">
+        <v>12015</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>7585</v>
+      </c>
+      <c r="C49">
+        <v>68677</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>3923</v>
+      </c>
+      <c r="C50">
+        <v>9331</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>2172</v>
+      </c>
+      <c r="C51">
+        <v>10140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52">
+        <v>2162</v>
+      </c>
+      <c r="C52">
+        <v>9261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>3186</v>
+      </c>
+      <c r="C53">
+        <v>12041</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54">
+        <v>1500</v>
+      </c>
+      <c r="C54">
+        <v>6276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>1784</v>
+      </c>
+      <c r="C55">
+        <v>14552</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56">
+        <v>1225</v>
+      </c>
+      <c r="C56">
+        <v>9880</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>27341</v>
+      </c>
+      <c r="C57">
+        <v>34305</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>5970</v>
+      </c>
+      <c r="C58">
+        <v>50205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>1523</v>
+      </c>
+      <c r="C59">
+        <v>8925</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>1767</v>
+      </c>
+      <c r="C60">
+        <v>12313</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>1293</v>
+      </c>
+      <c r="C61">
+        <v>8194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>1375</v>
+      </c>
+      <c r="C62">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>1128</v>
+      </c>
+      <c r="C63">
+        <v>9599</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>1076</v>
+      </c>
+      <c r="C64">
+        <v>8249</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1544</v>
+      </c>
+      <c r="C2">
+        <v>11713</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1110</v>
+      </c>
+      <c r="C2">
+        <v>19371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>770</v>
+      </c>
+      <c r="C3">
+        <v>7804</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>759</v>
+      </c>
+      <c r="C4">
+        <v>9520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1135</v>
+      </c>
+      <c r="C5">
+        <v>8951</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1155</v>
+      </c>
+      <c r="C2">
+        <v>10159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="68.6363636363636" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1089</v>
+      </c>
+      <c r="C2">
+        <v>9808</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>829</v>
+      </c>
+      <c r="C3">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>809</v>
+      </c>
+      <c r="C4">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1223</v>
+      </c>
+      <c r="C5">
+        <v>8085</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>645</v>
+      </c>
+      <c r="C6">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>650</v>
+      </c>
+      <c r="C7">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>718</v>
+      </c>
+      <c r="C8">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>649</v>
+      </c>
+      <c r="C9">
+        <v>4530</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>575</v>
+      </c>
+      <c r="C10">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>763</v>
+      </c>
+      <c r="C11">
+        <v>7931</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>579</v>
+      </c>
+      <c r="C12">
+        <v>7596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>648</v>
+      </c>
+      <c r="C13">
+        <v>13388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>880</v>
+      </c>
+      <c r="C14">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>1272</v>
+      </c>
+      <c r="C15">
+        <v>7548</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>622</v>
+      </c>
+      <c r="C16">
+        <v>4986</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>1211</v>
+      </c>
+      <c r="C17">
+        <v>13863</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>963</v>
+      </c>
+      <c r="C18">
+        <v>4666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>917</v>
+      </c>
+      <c r="C19">
+        <v>4170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20">
+        <v>774</v>
+      </c>
+      <c r="C20">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>871</v>
+      </c>
+      <c r="C21">
+        <v>4864</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>697</v>
+      </c>
+      <c r="C22">
+        <v>3967</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>774</v>
+      </c>
+      <c r="C23">
+        <v>4165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>844</v>
+      </c>
+      <c r="C24">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>766</v>
+      </c>
+      <c r="C25">
+        <v>4153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>890</v>
+      </c>
+      <c r="C26">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27">
+        <v>958</v>
+      </c>
+      <c r="C27">
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>948</v>
+      </c>
+      <c r="C28">
+        <v>9332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>706</v>
+      </c>
+      <c r="C29">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>695</v>
+      </c>
+      <c r="C30">
+        <v>7497</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>973</v>
+      </c>
+      <c r="C31">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>827</v>
+      </c>
+      <c r="C32">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>940</v>
+      </c>
+      <c r="C33">
+        <v>5088</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>841</v>
+      </c>
+      <c r="C34">
+        <v>5145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>904</v>
+      </c>
+      <c r="C35">
+        <v>8607</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>962</v>
+      </c>
+      <c r="C36">
+        <v>18995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>1062</v>
+      </c>
+      <c r="C37">
+        <v>8051</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>1158</v>
+      </c>
+      <c r="C38">
+        <v>38310</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>908</v>
+      </c>
+      <c r="C39">
+        <v>1818</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="68.6363636363636" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1354</v>
+      </c>
+      <c r="C2">
+        <v>8495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1484</v>
+      </c>
+      <c r="C3">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>675</v>
+      </c>
+      <c r="C4">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>605</v>
+      </c>
+      <c r="C5">
+        <v>4533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>1769</v>
+      </c>
+      <c r="C6">
+        <v>4489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>553</v>
+      </c>
+      <c r="C7">
+        <v>3716</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>571</v>
+      </c>
+      <c r="C8">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>675</v>
+      </c>
+      <c r="C9">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>2300</v>
+      </c>
+      <c r="C10">
+        <v>6991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>666</v>
+      </c>
+      <c r="C11">
+        <v>9472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>2402</v>
+      </c>
+      <c r="C12">
+        <v>8241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>488</v>
+      </c>
+      <c r="C13">
+        <v>6776</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>1228</v>
+      </c>
+      <c r="C14">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>570</v>
+      </c>
+      <c r="C15">
+        <v>4467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>982</v>
+      </c>
+      <c r="C16">
+        <v>5455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>532</v>
+      </c>
+      <c r="C17">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>649</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>553</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>893</v>
+      </c>
+      <c r="C20">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>315</v>
+      </c>
+      <c r="C21">
+        <v>16094</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>332</v>
+      </c>
+      <c r="C22">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>677</v>
+      </c>
+      <c r="C23">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>334</v>
+      </c>
+      <c r="C24">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>296</v>
+      </c>
+      <c r="C25">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>301</v>
+      </c>
+      <c r="C26">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>446</v>
+      </c>
+      <c r="C27">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28">
+        <v>772</v>
+      </c>
+      <c r="C28">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>376</v>
+      </c>
+      <c r="C29">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>381</v>
+      </c>
+      <c r="C30">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>2512</v>
+      </c>
+      <c r="C31">
+        <v>8211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>707</v>
+      </c>
+      <c r="C32">
+        <v>6491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>419</v>
+      </c>
+      <c r="C33">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>292</v>
+      </c>
+      <c r="C34">
+        <v>4579</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <v>332</v>
+      </c>
+      <c r="C35">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36">
+        <v>319</v>
+      </c>
+      <c r="C36">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>334</v>
+      </c>
+      <c r="C37">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>343</v>
+      </c>
+      <c r="C38">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <v>364</v>
+      </c>
+      <c r="C39">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40">
+        <v>391</v>
+      </c>
+      <c r="C40">
+        <v>11636</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>470</v>
+      </c>
+      <c r="C41">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>1048</v>
+      </c>
+      <c r="C42">
+        <v>6410</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>354</v>
+      </c>
+      <c r="C43">
+        <v>1987</v>
       </c>
     </row>
   </sheetData>
@@ -3893,6 +8600,2115 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="68.6363636363636" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>905</v>
+      </c>
+      <c r="C2">
+        <v>6812</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>505</v>
+      </c>
+      <c r="C3">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>869</v>
+      </c>
+      <c r="C4">
+        <v>47482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>518</v>
+      </c>
+      <c r="C5">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>536</v>
+      </c>
+      <c r="C6">
+        <v>6846</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>752</v>
+      </c>
+      <c r="C7">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>488</v>
+      </c>
+      <c r="C8">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>589</v>
+      </c>
+      <c r="C9">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>512</v>
+      </c>
+      <c r="C10">
+        <v>6730</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>512</v>
+      </c>
+      <c r="C11">
+        <v>6366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>792</v>
+      </c>
+      <c r="C12">
+        <v>6740</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>621</v>
+      </c>
+      <c r="C13">
+        <v>9783</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>662</v>
+      </c>
+      <c r="C14">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>551</v>
+      </c>
+      <c r="C15">
+        <v>8440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>640</v>
+      </c>
+      <c r="C16">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>531</v>
+      </c>
+      <c r="C17">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>722</v>
+      </c>
+      <c r="C18">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>594</v>
+      </c>
+      <c r="C19">
+        <v>5314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>519</v>
+      </c>
+      <c r="C20">
+        <v>42260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>562</v>
+      </c>
+      <c r="C21">
+        <v>9823</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>736</v>
+      </c>
+      <c r="C22">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>631</v>
+      </c>
+      <c r="C23">
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>554</v>
+      </c>
+      <c r="C24">
+        <v>5168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>570</v>
+      </c>
+      <c r="C25">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>558</v>
+      </c>
+      <c r="C26">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>906</v>
+      </c>
+      <c r="C27">
+        <v>6667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28">
+        <v>540</v>
+      </c>
+      <c r="C28">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>506</v>
+      </c>
+      <c r="C29">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>519</v>
+      </c>
+      <c r="C30">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31">
+        <v>541</v>
+      </c>
+      <c r="C31">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>498</v>
+      </c>
+      <c r="C32">
+        <v>6348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>525</v>
+      </c>
+      <c r="C33">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>545</v>
+      </c>
+      <c r="C34">
+        <v>5063</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <v>552</v>
+      </c>
+      <c r="C35">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36">
+        <v>525</v>
+      </c>
+      <c r="C36">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>574</v>
+      </c>
+      <c r="C37">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>519</v>
+      </c>
+      <c r="C38">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <v>543</v>
+      </c>
+      <c r="C39">
+        <v>4544</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40">
+        <v>583</v>
+      </c>
+      <c r="C40">
+        <v>12931</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>478</v>
+      </c>
+      <c r="C41">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>486</v>
+      </c>
+      <c r="C42">
+        <v>29282</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>458</v>
+      </c>
+      <c r="C43">
+        <v>748</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="68.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>906</v>
+      </c>
+      <c r="C2">
+        <v>7610</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>501</v>
+      </c>
+      <c r="C3">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>494</v>
+      </c>
+      <c r="C4">
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>853</v>
+      </c>
+      <c r="C5">
+        <v>6830</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>509</v>
+      </c>
+      <c r="C6">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>517</v>
+      </c>
+      <c r="C7">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>534</v>
+      </c>
+      <c r="C8">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>485</v>
+      </c>
+      <c r="C9">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>478</v>
+      </c>
+      <c r="C10">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>511</v>
+      </c>
+      <c r="C11">
+        <v>5739</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>486</v>
+      </c>
+      <c r="C12">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>4112</v>
+      </c>
+      <c r="C13">
+        <v>7353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>496</v>
+      </c>
+      <c r="C14">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>473</v>
+      </c>
+      <c r="C15">
+        <v>7437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>485</v>
+      </c>
+      <c r="C16">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>536</v>
+      </c>
+      <c r="C17">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>518</v>
+      </c>
+      <c r="C18">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>523</v>
+      </c>
+      <c r="C19">
+        <v>16666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>506</v>
+      </c>
+      <c r="C20">
+        <v>8332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>539</v>
+      </c>
+      <c r="C21">
+        <v>27020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>2069</v>
+      </c>
+      <c r="C22">
+        <v>13869</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>522</v>
+      </c>
+      <c r="C23">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>532</v>
+      </c>
+      <c r="C24">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>513</v>
+      </c>
+      <c r="C25">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>530</v>
+      </c>
+      <c r="C26">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>467</v>
+      </c>
+      <c r="C27">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28">
+        <v>530</v>
+      </c>
+      <c r="C28">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>498</v>
+      </c>
+      <c r="C29">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>533</v>
+      </c>
+      <c r="C30">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31">
+        <v>499</v>
+      </c>
+      <c r="C31">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>523</v>
+      </c>
+      <c r="C32">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>543</v>
+      </c>
+      <c r="C33">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>559</v>
+      </c>
+      <c r="C34">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <v>528</v>
+      </c>
+      <c r="C35">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36">
+        <v>587</v>
+      </c>
+      <c r="C36">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>543</v>
+      </c>
+      <c r="C37">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>515</v>
+      </c>
+      <c r="C38">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <v>526</v>
+      </c>
+      <c r="C39">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40">
+        <v>611</v>
+      </c>
+      <c r="C40">
+        <v>7332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>447</v>
+      </c>
+      <c r="C41">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>455</v>
+      </c>
+      <c r="C42">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>650</v>
+      </c>
+      <c r="C43">
+        <v>446</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>922</v>
+      </c>
+      <c r="C2">
+        <v>52988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>839</v>
+      </c>
+      <c r="C3">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>974</v>
+      </c>
+      <c r="C4">
+        <v>7711</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>656</v>
+      </c>
+      <c r="C5">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1029</v>
+      </c>
+      <c r="C6">
+        <v>7724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>1029</v>
+      </c>
+      <c r="C7">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>1971</v>
+      </c>
+      <c r="C8">
+        <v>9333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1015</v>
+      </c>
+      <c r="C9">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>944</v>
+      </c>
+      <c r="C10">
+        <v>9717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>553</v>
+      </c>
+      <c r="C11">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>1038</v>
+      </c>
+      <c r="C12">
+        <v>23555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>615</v>
+      </c>
+      <c r="C13">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1305</v>
+      </c>
+      <c r="C14">
+        <v>7373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>979</v>
+      </c>
+      <c r="C15">
+        <v>7638</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>984</v>
+      </c>
+      <c r="C16">
+        <v>7105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>974</v>
+      </c>
+      <c r="C17">
+        <v>7167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>938</v>
+      </c>
+      <c r="C18">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>1621</v>
+      </c>
+      <c r="C19">
+        <v>10476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>599</v>
+      </c>
+      <c r="C20">
+        <v>6910</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>592</v>
+      </c>
+      <c r="C21">
+        <v>7039</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>949</v>
+      </c>
+      <c r="C22">
+        <v>7398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>1079</v>
+      </c>
+      <c r="C23">
+        <v>7646</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>957</v>
+      </c>
+      <c r="C2">
+        <v>10782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>577</v>
+      </c>
+      <c r="C3">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>976</v>
+      </c>
+      <c r="C4">
+        <v>7466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>1064</v>
+      </c>
+      <c r="C5">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1857</v>
+      </c>
+      <c r="C6">
+        <v>9340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>676</v>
+      </c>
+      <c r="C7">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>644</v>
+      </c>
+      <c r="C8">
+        <v>6513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1003</v>
+      </c>
+      <c r="C9">
+        <v>7530</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>569</v>
+      </c>
+      <c r="C10">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>975</v>
+      </c>
+      <c r="C11">
+        <v>7004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>722</v>
+      </c>
+      <c r="C12">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>925</v>
+      </c>
+      <c r="C13">
+        <v>7105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1514</v>
+      </c>
+      <c r="C14">
+        <v>5345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>997</v>
+      </c>
+      <c r="C15">
+        <v>7340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>508</v>
+      </c>
+      <c r="C16">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>1022</v>
+      </c>
+      <c r="C17">
+        <v>7250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>546</v>
+      </c>
+      <c r="C18">
+        <v>10062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>994</v>
+      </c>
+      <c r="C19">
+        <v>7072</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>577</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>938</v>
+      </c>
+      <c r="C21">
+        <v>7024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>533</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>978</v>
+      </c>
+      <c r="C23">
+        <v>7123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>548</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>1196</v>
+      </c>
+      <c r="C25">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>505</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>973</v>
+      </c>
+      <c r="C27">
+        <v>6984</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>538</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>1066</v>
+      </c>
+      <c r="C29">
+        <v>7172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>560</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>996</v>
+      </c>
+      <c r="C31">
+        <v>7328</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="68.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="21.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="20.8181818181818" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>922</v>
+      </c>
+      <c r="C2">
+        <v>7276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1017</v>
+      </c>
+      <c r="C3">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>746</v>
+      </c>
+      <c r="C4">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>651</v>
+      </c>
+      <c r="C5">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>591</v>
+      </c>
+      <c r="C6">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>599</v>
+      </c>
+      <c r="C7">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1461</v>
+      </c>
+      <c r="C8">
+        <v>3868</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>1049</v>
+      </c>
+      <c r="C9">
+        <v>4016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>513</v>
+      </c>
+      <c r="C10">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>517</v>
+      </c>
+      <c r="C11">
+        <v>6055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>530</v>
+      </c>
+      <c r="C12">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>536</v>
+      </c>
+      <c r="C13">
+        <v>8101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>535</v>
+      </c>
+      <c r="C14">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>776</v>
+      </c>
+      <c r="C15">
+        <v>7092</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>535</v>
+      </c>
+      <c r="C16">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>568</v>
+      </c>
+      <c r="C17">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>548</v>
+      </c>
+      <c r="C18">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1644</v>
+      </c>
+      <c r="C19">
+        <v>14524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>969</v>
+      </c>
+      <c r="C20">
+        <v>7512</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>523</v>
+      </c>
+      <c r="C21">
+        <v>27252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>502</v>
+      </c>
+      <c r="C22">
+        <v>3524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>632</v>
+      </c>
+      <c r="C23">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>686</v>
+      </c>
+      <c r="C24">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>1054</v>
+      </c>
+      <c r="C25">
+        <v>8760</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>1103</v>
+      </c>
+      <c r="C26">
+        <v>5531</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>545</v>
+      </c>
+      <c r="C27">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28">
+        <v>682</v>
+      </c>
+      <c r="C28">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>724</v>
+      </c>
+      <c r="C29">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>659</v>
+      </c>
+      <c r="C30">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31">
+        <v>508</v>
+      </c>
+      <c r="C31">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>728</v>
+      </c>
+      <c r="C32">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>564</v>
+      </c>
+      <c r="C33">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>550</v>
+      </c>
+      <c r="C34">
+        <v>4671</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <v>526</v>
+      </c>
+      <c r="C35">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36">
+        <v>549</v>
+      </c>
+      <c r="C36">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>617</v>
+      </c>
+      <c r="C37">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>682</v>
+      </c>
+      <c r="C38">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <v>571</v>
+      </c>
+      <c r="C39">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40">
+        <v>560</v>
+      </c>
+      <c r="C40">
+        <v>8640</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>509</v>
+      </c>
+      <c r="C41">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>559</v>
+      </c>
+      <c r="C42">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>494</v>
+      </c>
+      <c r="C43">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -4483,8 +11299,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="68.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="20.8181818181818" customWidth="1"/>
+    <col min="1" max="1" width="68.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.8181818181818" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/WSI-PageLoadPerformance.xlsx
+++ b/WSI-PageLoadPerformance.xlsx
@@ -87,13 +87,17 @@
     <sheet name="29Jul2020 15.45.56" r:id="rId78" sheetId="78"/>
     <sheet name="29Jul2020 15.52.00" r:id="rId79" sheetId="79"/>
     <sheet name="29Jul2020 16.33.26" r:id="rId83" sheetId="80"/>
+    <sheet name="03Aug2020 23.09.30" r:id="rId84" sheetId="81"/>
+    <sheet name="03Aug2020 23.12.33" r:id="rId85" sheetId="82"/>
+    <sheet name="03Aug2020 23.14.35" r:id="rId86" sheetId="83"/>
+    <sheet name="03Aug2020 23.38.21" r:id="rId87" sheetId="84"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="51">
   <si>
     <t>Test</t>
   </si>
@@ -243,6 +247,9 @@
   </si>
   <si>
     <t>https://supchainplanmerch-mcp-user-interface-photonqa.services.west.nonprod.wsgc.com/</t>
+  </si>
+  <si>
+    <t>https://supplychain-mcp-user-interface-qa.services.west.nonprod.wsgc.com/</t>
   </si>
 </sst>
 </file>
@@ -18238,6 +18245,595 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1488.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15469.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1537.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14666.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1540.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5062.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1398.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>16387.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1325.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4721.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1492.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>18946.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1521.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4828.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1518.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14458.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1637.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5138.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1360.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>15972.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1558.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4993.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1416.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>16083.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1513.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4991.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1382.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>16164.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1587.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5138.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1377.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>14822.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1638.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5138.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1474.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18922.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1410.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4808.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1390.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4597.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1361.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>14305.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1603.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15384.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1363.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13056.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1564.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5083.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1427.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15087.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1593.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5064.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1224.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>14722.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1362.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5864.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1222.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13934.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1668.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4920.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1263.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>12190.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1520.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4938.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1262.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13625.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1470.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4520.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1146.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12382.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1335.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4884.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1165.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>13084.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1281.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4459.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1500.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>14260.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1092.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4368.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1385.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>12025.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1693.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5520.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1290.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>14292.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>

--- a/WSI-PageLoadPerformance.xlsx
+++ b/WSI-PageLoadPerformance.xlsx
@@ -91,13 +91,17 @@
     <sheet name="03Aug2020 23.12.33" r:id="rId85" sheetId="82"/>
     <sheet name="03Aug2020 23.14.35" r:id="rId86" sheetId="83"/>
     <sheet name="03Aug2020 23.38.21" r:id="rId87" sheetId="84"/>
+    <sheet name="04Aug2020 23.24.06" r:id="rId88" sheetId="85"/>
+    <sheet name="05Aug2020 05.43.05" r:id="rId89" sheetId="86"/>
+    <sheet name="05Aug2020 06.12.05" r:id="rId90" sheetId="87"/>
+    <sheet name="09Aug2020 16.30.28" r:id="rId91" sheetId="88"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="57">
   <si>
     <t>Test</t>
   </si>
@@ -250,6 +254,24 @@
   </si>
   <si>
     <t>https://supplychain-mcp-user-interface-qa.services.west.nonprod.wsgc.com/</t>
+  </si>
+  <si>
+    <t>User Profile</t>
+  </si>
+  <si>
+    <t>Libraries &gt; Merch List- Page 1</t>
+  </si>
+  <si>
+    <t>Libraries &gt; Merch List- Page 2</t>
+  </si>
+  <si>
+    <t>Libraries &gt; Merch List- Page 3</t>
+  </si>
+  <si>
+    <t>Libraries &gt; Merch List- Page 4</t>
+  </si>
+  <si>
+    <t>Libraries &gt; Merch List- Page 5</t>
   </si>
 </sst>
 </file>
@@ -18834,6 +18856,705 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3059.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>54246.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1096.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12893.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>745.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3580.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1253.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10131.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="n">
+        <v>686.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6077.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1079.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8503.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="n">
+        <v>863.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6603.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8482.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4780.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20628.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1304.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30796.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1229.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11694.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5223.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>37333.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2737.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11592.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2200.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>44180.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1281.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5976.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2554.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>51017.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1828.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16645.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2517.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>43379.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2245.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>20001.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7594.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>42823.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1705.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>15053.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6245.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>53084.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1378.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>23072.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4388.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>43313.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3440.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5293.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3698.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>33810.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2533.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>16231.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4282.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>32499.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="n">
+        <v>6000.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>16261.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1665.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>14196.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="n">
+        <v>12111.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3535.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1073.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>16605.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" t="n">
+        <v>668.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="n">
+        <v>751.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>7404.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2028.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>37823.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1743.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>15846.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2112.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>34629.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2405.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>28515.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2309.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>43951.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4341.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14223.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1160.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13399.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1160.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>642.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="n">
+        <v>741.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12324.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="n">
+        <v>741.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8817.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="n">
+        <v>741.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15221.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="n">
+        <v>741.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>14338.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="n">
+        <v>741.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22694.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="n">
+        <v>741.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>720.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="n">
+        <v>636.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13084.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="n">
+        <v>636.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10239.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="n">
+        <v>636.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>14596.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="n">
+        <v>636.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14924.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="n">
+        <v>636.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>21389.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>

--- a/WSI-PageLoadPerformance.xlsx
+++ b/WSI-PageLoadPerformance.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vs1\git\WSI_MerchTool\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr documentId="13_ncr:1_{20342DA5-6A77-4D9D-AA6F-C59CA737AFCB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44"/>
   <bookViews>
-    <workbookView activeTab="78" firstSheet="75" windowHeight="7110" windowWidth="19200"/>
+    <workbookView activeTab="90" firstSheet="87" windowHeight="10440" windowWidth="19440" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -86,22 +92,28 @@
     <sheet name="29Jul2020 15.19.02" r:id="rId77" sheetId="77"/>
     <sheet name="29Jul2020 15.45.56" r:id="rId78" sheetId="78"/>
     <sheet name="29Jul2020 15.52.00" r:id="rId79" sheetId="79"/>
-    <sheet name="29Jul2020 16.33.26" r:id="rId83" sheetId="80"/>
-    <sheet name="03Aug2020 23.09.30" r:id="rId84" sheetId="81"/>
-    <sheet name="03Aug2020 23.12.33" r:id="rId85" sheetId="82"/>
-    <sheet name="03Aug2020 23.14.35" r:id="rId86" sheetId="83"/>
-    <sheet name="03Aug2020 23.38.21" r:id="rId87" sheetId="84"/>
-    <sheet name="04Aug2020 23.24.06" r:id="rId88" sheetId="85"/>
-    <sheet name="05Aug2020 05.43.05" r:id="rId89" sheetId="86"/>
-    <sheet name="05Aug2020 06.12.05" r:id="rId90" sheetId="87"/>
-    <sheet name="09Aug2020 16.30.28" r:id="rId91" sheetId="88"/>
+    <sheet name="29Jul2020 16.33.26" r:id="rId80" sheetId="80"/>
+    <sheet name="03Aug2020 23.09.30" r:id="rId81" sheetId="81"/>
+    <sheet name="03Aug2020 23.12.33" r:id="rId82" sheetId="82"/>
+    <sheet name="03Aug2020 23.14.35" r:id="rId83" sheetId="83"/>
+    <sheet name="03Aug2020 23.38.21" r:id="rId84" sheetId="84"/>
+    <sheet name="04Aug2020 23.24.06" r:id="rId85" sheetId="85"/>
+    <sheet name="05Aug2020 05.43.05" r:id="rId86" sheetId="86"/>
+    <sheet name="05Aug2020 06.12.05" r:id="rId87" sheetId="87"/>
+    <sheet name="09Aug2020 16.30.28" r:id="rId88" sheetId="88"/>
+    <sheet name="09Aug2020 17.04.33" r:id="rId89" sheetId="89"/>
+    <sheet name="09Aug2020 17.13.54" r:id="rId90" sheetId="90"/>
+    <sheet name="09Aug2020 17.37.33" r:id="rId91" sheetId="91"/>
+    <sheet name="09Aug2020 17.59.15" r:id="rId95" sheetId="92"/>
+    <sheet name="09Aug2020 18.08.05" r:id="rId96" sheetId="93"/>
+    <sheet name="09Aug2020 18.15.24" r:id="rId97" sheetId="94"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="57">
   <si>
     <t>Test</t>
   </si>
@@ -277,14 +289,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,343 +302,20 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -639,314 +323,35 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="178">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="179">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="3" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="20" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="4" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="2" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
-    <cellStyle builtinId="3" name="Comma" xfId="2"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="4" name="Currency" xfId="5"/>
-    <cellStyle builtinId="5" name="Percent" xfId="6"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="7"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="8"/>
-    <cellStyle builtinId="10" name="Note" xfId="9"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="10"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="11"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="12"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="15" name="Title" xfId="16"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
-    <cellStyle builtinId="20" name="Input" xfId="21"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
-    <cellStyle builtinId="26" name="Good" xfId="23"/>
-    <cellStyle builtinId="21" name="Output" xfId="24"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
-    <cellStyle builtinId="25" name="Total" xfId="28"/>
-    <cellStyle builtinId="27" name="Bad" xfId="29"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1204,19 +609,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1225,20 +630,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -2100,20 +1501,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -2172,20 +1569,18 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -3014,20 +2409,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -3042,22 +2433,20 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="65.2727272727273" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="65.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3513,22 +2902,20 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="68.6363636363636" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="68.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3973,20 +3360,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -4122,20 +3505,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -4161,20 +3540,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -4189,20 +3564,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -4371,20 +3742,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -4399,20 +3766,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -4592,22 +3955,18 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="29.3636363636364" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="29.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4986,20 +4345,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -5113,20 +4468,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -5141,20 +4492,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -5169,20 +4516,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -5208,20 +4551,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="27.0" collapsed="true"/>
   </cols>
@@ -5448,20 +4787,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -5663,23 +4998,21 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="68.6363636363636" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.4545454545455" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="68.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6157,20 +5490,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -6196,20 +5525,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -6246,20 +5571,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -6285,20 +5606,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -6368,20 +5685,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -6418,22 +5731,20 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="63.0909090909091" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="63.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7142,20 +6453,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -7181,20 +6488,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -7253,20 +6556,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -7292,22 +6591,20 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="68.6363636363636" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="68.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7741,20 +7038,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -7769,22 +7062,20 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="68.6363636363636" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="68.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8262,20 +7553,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -8664,22 +7951,20 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="68.6363636363636" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="68.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9157,22 +8442,20 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="68.6363636363636" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="68.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9650,20 +8933,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -9920,20 +9199,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -10278,24 +9553,22 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="68.6363636363636" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.4545454545455" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.8181818181818" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="68.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10773,20 +10046,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -10834,22 +10103,20 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="68.6363636363636" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="68.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11327,22 +10594,20 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="65.4545454545455" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="65.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12205,20 +11470,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -12332,20 +11593,18 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -12382,20 +11641,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -12828,20 +12083,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -12878,20 +12129,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -12917,20 +12164,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -13330,20 +12573,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -13380,20 +12619,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -13551,24 +12786,22 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.2727272727273" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.4545454545455" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.8181818181818" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13804,20 +13037,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -13832,20 +13061,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -14102,20 +13327,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -14141,20 +13362,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -14400,20 +13617,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -14483,20 +13696,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -14588,20 +13797,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -14726,20 +13931,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -14754,20 +13955,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -14782,20 +13979,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -14832,24 +14025,22 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.2727272727273" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.4545454545455" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.8181818181818" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -15107,22 +14298,20 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.2727272727273" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="20.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -15380,20 +14569,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -15485,24 +14670,22 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.2727272727273" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.4545454545455" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.8181818181818" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -15716,20 +14899,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -15986,20 +15165,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -16036,20 +15211,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -16306,20 +15477,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -16576,20 +15743,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -16780,20 +15943,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -16808,20 +15967,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4900-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -16836,20 +15991,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4A00-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -17106,20 +16257,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4B00-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -17189,20 +16336,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4C00-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -17437,20 +16580,16 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4D00-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -17465,24 +16604,22 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4E00-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.2727272727273" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.4545454545455" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.8181818181818" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -17740,23 +16877,21 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="68.6363636363636" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.8181818181818" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="68.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -18212,24 +17347,23 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4F00-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -18240,26 +17374,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
-        <v>1099.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>11410.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3">
+        <v>1099</v>
+      </c>
+      <c r="C3">
+        <v>11410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="n">
-        <v>665.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>21254.0</v>
+      <c r="B4">
+        <v>665</v>
+      </c>
+      <c r="C4">
+        <v>21254</v>
       </c>
     </row>
   </sheetData>
@@ -18268,19 +17402,19 @@
 </file>
 
 <file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -18297,19 +17431,19 @@
 </file>
 
 <file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -18326,19 +17460,19 @@
 </file>
 
 <file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5200-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -18349,235 +17483,235 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
-        <v>1488.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>15469.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3">
+        <v>1488</v>
+      </c>
+      <c r="C3">
+        <v>15469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="n">
-        <v>1537.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>14666.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>1537</v>
+      </c>
+      <c r="C4">
+        <v>14666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>1540.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5062.0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5">
+        <v>1540</v>
+      </c>
+      <c r="C5">
+        <v>5062</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="n">
-        <v>1398.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>16387.0</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6">
+        <v>1398</v>
+      </c>
+      <c r="C6">
+        <v>16387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
-        <v>1325.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4721.0</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7">
+        <v>1325</v>
+      </c>
+      <c r="C7">
+        <v>4721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="n">
-        <v>1492.0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>18946.0</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8">
+        <v>1492</v>
+      </c>
+      <c r="C8">
+        <v>18946</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="n">
-        <v>1521.0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4828.0</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9">
+        <v>1521</v>
+      </c>
+      <c r="C9">
+        <v>4828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="n">
-        <v>1518.0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>14458.0</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10">
+        <v>1518</v>
+      </c>
+      <c r="C10">
+        <v>14458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" t="n">
-        <v>1637.0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5138.0</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11">
+        <v>1637</v>
+      </c>
+      <c r="C11">
+        <v>5138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="n">
-        <v>1360.0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>15972.0</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12">
+        <v>1360</v>
+      </c>
+      <c r="C12">
+        <v>15972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" t="n">
-        <v>1558.0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4993.0</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13">
+        <v>1558</v>
+      </c>
+      <c r="C13">
+        <v>4993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="n">
-        <v>1416.0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>16083.0</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14">
+        <v>1416</v>
+      </c>
+      <c r="C14">
+        <v>16083</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" t="n">
-        <v>1513.0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4991.0</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="B15">
+        <v>1513</v>
+      </c>
+      <c r="C15">
+        <v>4991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="n">
-        <v>1382.0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>16164.0</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16">
+        <v>1382</v>
+      </c>
+      <c r="C16">
+        <v>16164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" t="n">
-        <v>1587.0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5138.0</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="B17">
+        <v>1587</v>
+      </c>
+      <c r="C17">
+        <v>5138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="n">
-        <v>1377.0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>14822.0</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="B18">
+        <v>1377</v>
+      </c>
+      <c r="C18">
+        <v>14822</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19" t="n">
-        <v>1638.0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5138.0</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="B19">
+        <v>1638</v>
+      </c>
+      <c r="C19">
+        <v>5138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
-        <v>1474.0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>18922.0</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="B20">
+        <v>1474</v>
+      </c>
+      <c r="C20">
+        <v>18922</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" t="n">
-        <v>1410.0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>4808.0</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="B21">
+        <v>1410</v>
+      </c>
+      <c r="C21">
+        <v>4808</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="B22" t="n">
-        <v>1390.0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>4597.0</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="B22">
+        <v>1390</v>
+      </c>
+      <c r="C22">
+        <v>4597</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" t="n">
-        <v>1361.0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>14305.0</v>
+      <c r="B23">
+        <v>1361</v>
+      </c>
+      <c r="C23">
+        <v>14305</v>
       </c>
     </row>
   </sheetData>
@@ -18586,19 +17720,19 @@
 </file>
 
 <file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5300-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -18609,246 +17743,246 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
-        <v>1603.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>15384.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3">
+        <v>1603</v>
+      </c>
+      <c r="C3">
+        <v>15384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="n">
-        <v>1363.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>13056.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>1363</v>
+      </c>
+      <c r="C4">
+        <v>13056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>1564.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5083.0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5">
+        <v>1564</v>
+      </c>
+      <c r="C5">
+        <v>5083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="n">
-        <v>1427.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>15087.0</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6">
+        <v>1427</v>
+      </c>
+      <c r="C6">
+        <v>15087</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
-        <v>1593.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5064.0</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7">
+        <v>1593</v>
+      </c>
+      <c r="C7">
+        <v>5064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="n">
-        <v>1224.0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>14722.0</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8">
+        <v>1224</v>
+      </c>
+      <c r="C8">
+        <v>14722</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="n">
-        <v>1362.0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5864.0</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9">
+        <v>1362</v>
+      </c>
+      <c r="C9">
+        <v>5864</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="n">
-        <v>1222.0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>13934.0</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10">
+        <v>1222</v>
+      </c>
+      <c r="C10">
+        <v>13934</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" t="n">
-        <v>1668.0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4920.0</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11">
+        <v>1668</v>
+      </c>
+      <c r="C11">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="n">
-        <v>1263.0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>12190.0</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12">
+        <v>1263</v>
+      </c>
+      <c r="C12">
+        <v>12190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" t="n">
-        <v>1520.0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4938.0</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13">
+        <v>1520</v>
+      </c>
+      <c r="C13">
+        <v>4938</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="n">
-        <v>1262.0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>13625.0</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14">
+        <v>1262</v>
+      </c>
+      <c r="C14">
+        <v>13625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" t="n">
-        <v>1470.0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4520.0</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="B15">
+        <v>1470</v>
+      </c>
+      <c r="C15">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="n">
-        <v>1146.0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>12382.0</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16">
+        <v>1146</v>
+      </c>
+      <c r="C16">
+        <v>12382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" t="n">
-        <v>1335.0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4884.0</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="B17">
+        <v>1335</v>
+      </c>
+      <c r="C17">
+        <v>4884</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="n">
-        <v>1165.0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>13084.0</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="B18">
+        <v>1165</v>
+      </c>
+      <c r="C18">
+        <v>13084</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19" t="n">
-        <v>1281.0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4459.0</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="B19">
+        <v>1281</v>
+      </c>
+      <c r="C19">
+        <v>4459</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
-        <v>1500.0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>14260.0</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="B20">
+        <v>1500</v>
+      </c>
+      <c r="C20">
+        <v>14260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" t="n">
-        <v>1092.0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>4368.0</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="B21">
+        <v>1092</v>
+      </c>
+      <c r="C21">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="n">
-        <v>1385.0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>12025.0</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="B22">
+        <v>1385</v>
+      </c>
+      <c r="C22">
+        <v>12025</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="B23" t="n">
-        <v>1693.0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>5520.0</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="B23">
+        <v>1693</v>
+      </c>
+      <c r="C23">
+        <v>5520</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
-      <c r="B24" t="n">
-        <v>1290.0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>14292.0</v>
+      <c r="B24">
+        <v>1290</v>
+      </c>
+      <c r="C24">
+        <v>14292</v>
       </c>
     </row>
   </sheetData>
@@ -18857,19 +17991,19 @@
 </file>
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5400-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -18880,15 +18014,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
-        <v>3059.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>54246.0</v>
+      <c r="B3">
+        <v>3059</v>
+      </c>
+      <c r="C3">
+        <v>54246</v>
       </c>
     </row>
   </sheetData>
@@ -18897,19 +18031,19 @@
 </file>
 
 <file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5500-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -18920,411 +18054,411 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
-        <v>1096.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>12893.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3">
+        <v>1096</v>
+      </c>
+      <c r="C3">
+        <v>12893</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="n">
-        <v>745.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3580.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>745</v>
+      </c>
+      <c r="C4">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>1253.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>10131.0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5">
+        <v>1253</v>
+      </c>
+      <c r="C5">
+        <v>10131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" t="n">
-        <v>686.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6077.0</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6">
+        <v>686</v>
+      </c>
+      <c r="C6">
+        <v>6077</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
-        <v>1079.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>8503.0</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7">
+        <v>1079</v>
+      </c>
+      <c r="C7">
+        <v>8503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="n">
-        <v>863.0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6603.0</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8">
+        <v>863</v>
+      </c>
+      <c r="C8">
+        <v>6603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="n">
-        <v>840.0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>8482.0</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9">
+        <v>840</v>
+      </c>
+      <c r="C9">
+        <v>8482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="n">
-        <v>4780.0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>20628.0</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10">
+        <v>4780</v>
+      </c>
+      <c r="C10">
+        <v>20628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" t="n">
-        <v>1304.0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>30796.0</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11">
+        <v>1304</v>
+      </c>
+      <c r="C11">
+        <v>30796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="n">
-        <v>1229.0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>11694.0</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12">
+        <v>1229</v>
+      </c>
+      <c r="C12">
+        <v>11694</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" t="n">
-        <v>5223.0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>37333.0</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13">
+        <v>5223</v>
+      </c>
+      <c r="C13">
+        <v>37333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" t="n">
-        <v>2737.0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>11592.0</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14">
+        <v>2737</v>
+      </c>
+      <c r="C14">
+        <v>11592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" t="n">
-        <v>2200.0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>44180.0</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="B15">
+        <v>2200</v>
+      </c>
+      <c r="C15">
+        <v>44180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" t="n">
-        <v>1281.0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5976.0</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16">
+        <v>1281</v>
+      </c>
+      <c r="C16">
+        <v>5976</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" t="n">
-        <v>2554.0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>51017.0</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="B17">
+        <v>2554</v>
+      </c>
+      <c r="C17">
+        <v>51017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" t="n">
-        <v>1828.0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>16645.0</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="B18">
+        <v>1828</v>
+      </c>
+      <c r="C18">
+        <v>16645</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19" t="n">
-        <v>2517.0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>43379.0</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="B19">
+        <v>2517</v>
+      </c>
+      <c r="C19">
+        <v>43379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" t="n">
-        <v>2245.0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>20001.0</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="B20">
+        <v>2245</v>
+      </c>
+      <c r="C20">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" t="n">
-        <v>7594.0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>42823.0</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="B21">
+        <v>7594</v>
+      </c>
+      <c r="C21">
+        <v>42823</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B22" t="n">
-        <v>1705.0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>15053.0</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="B22">
+        <v>1705</v>
+      </c>
+      <c r="C22">
+        <v>15053</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="B23" t="n">
-        <v>6245.0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>53084.0</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="B23">
+        <v>6245</v>
+      </c>
+      <c r="C23">
+        <v>53084</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B24" t="n">
-        <v>1378.0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>23072.0</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="B24">
+        <v>1378</v>
+      </c>
+      <c r="C24">
+        <v>23072</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
-      <c r="B25" t="n">
-        <v>4388.0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>43313.0</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="B25">
+        <v>4388</v>
+      </c>
+      <c r="C25">
+        <v>43313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
-      <c r="B26" t="n">
-        <v>3440.0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>5293.0</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="B26">
+        <v>3440</v>
+      </c>
+      <c r="C26">
+        <v>5293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
-      <c r="B27" t="n">
-        <v>3698.0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>33810.0</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="B27">
+        <v>3698</v>
+      </c>
+      <c r="C27">
+        <v>33810</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B28" t="n">
-        <v>2533.0</v>
-      </c>
-      <c r="C28" t="n">
-        <v>16231.0</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="B28">
+        <v>2533</v>
+      </c>
+      <c r="C28">
+        <v>16231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
-      <c r="B29" t="n">
-        <v>4282.0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>32499.0</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="B29">
+        <v>4282</v>
+      </c>
+      <c r="C29">
+        <v>32499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
-      <c r="B30" t="n">
-        <v>6000.0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>16261.0</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="B30">
+        <v>6000</v>
+      </c>
+      <c r="C30">
+        <v>16261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
-      <c r="B31" t="n">
-        <v>1665.0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>14196.0</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="B31">
+        <v>1665</v>
+      </c>
+      <c r="C31">
+        <v>14196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>14</v>
       </c>
-      <c r="B32" t="n">
-        <v>12111.0</v>
-      </c>
-      <c r="C32" t="n">
-        <v>3535.0</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="B32">
+        <v>12111</v>
+      </c>
+      <c r="C32">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
-      <c r="B33" t="n">
-        <v>1073.0</v>
-      </c>
-      <c r="C33" t="n">
-        <v>16605.0</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="B33">
+        <v>1073</v>
+      </c>
+      <c r="C33">
+        <v>16605</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>15</v>
       </c>
-      <c r="B34" t="n">
-        <v>668.0</v>
-      </c>
-      <c r="C34" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="B34">
+        <v>668</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
-      <c r="B35" t="n">
-        <v>751.0</v>
-      </c>
-      <c r="C35" t="n">
-        <v>7404.0</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="B35">
+        <v>751</v>
+      </c>
+      <c r="C35">
+        <v>7404</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>4</v>
       </c>
-      <c r="B36" t="n">
-        <v>2028.0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>37823.0</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="B36">
+        <v>2028</v>
+      </c>
+      <c r="C36">
+        <v>37823</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>18</v>
       </c>
-      <c r="B37" t="n">
-        <v>1743.0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>15846.0</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="B37">
+        <v>1743</v>
+      </c>
+      <c r="C37">
+        <v>15846</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
-      <c r="B38" t="n">
-        <v>2112.0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>34629.0</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="B38">
+        <v>2112</v>
+      </c>
+      <c r="C38">
+        <v>34629</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>19</v>
       </c>
-      <c r="B39" t="n">
-        <v>2405.0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>28515.0</v>
+      <c r="B39">
+        <v>2405</v>
+      </c>
+      <c r="C39">
+        <v>28515</v>
       </c>
     </row>
   </sheetData>
@@ -19333,19 +18467,19 @@
 </file>
 
 <file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5600-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -19356,26 +18490,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
-        <v>2309.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>43951.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3">
+        <v>2309</v>
+      </c>
+      <c r="C3">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="n">
-        <v>4341.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>14223.0</v>
+      <c r="B4">
+        <v>4341</v>
+      </c>
+      <c r="C4">
+        <v>14223</v>
       </c>
     </row>
   </sheetData>
@@ -19384,6 +18518,1170 @@
 </file>
 
 <file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5700-000000000000}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1160</v>
+      </c>
+      <c r="C3">
+        <v>13399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>1160</v>
+      </c>
+      <c r="C4">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>741</v>
+      </c>
+      <c r="C5">
+        <v>12324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>741</v>
+      </c>
+      <c r="C6">
+        <v>8817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>741</v>
+      </c>
+      <c r="C7">
+        <v>15221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>741</v>
+      </c>
+      <c r="C8">
+        <v>14338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>741</v>
+      </c>
+      <c r="C9">
+        <v>22694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>741</v>
+      </c>
+      <c r="C10">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>636</v>
+      </c>
+      <c r="C11">
+        <v>13084</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>636</v>
+      </c>
+      <c r="C12">
+        <v>10239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>636</v>
+      </c>
+      <c r="C13">
+        <v>14596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14">
+        <v>636</v>
+      </c>
+      <c r="C14">
+        <v>14924</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15">
+        <v>636</v>
+      </c>
+      <c r="C15">
+        <v>21389</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5800-000000000000}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>555</v>
+      </c>
+      <c r="C3">
+        <v>11017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>555</v>
+      </c>
+      <c r="C4">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>311</v>
+      </c>
+      <c r="C5">
+        <v>15855</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>311</v>
+      </c>
+      <c r="C6">
+        <v>14889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>311</v>
+      </c>
+      <c r="C7">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>311</v>
+      </c>
+      <c r="C8">
+        <v>15708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>311</v>
+      </c>
+      <c r="C9">
+        <v>13651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>311</v>
+      </c>
+      <c r="C10">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>333</v>
+      </c>
+      <c r="C11">
+        <v>16308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>333</v>
+      </c>
+      <c r="C12">
+        <v>13494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>333</v>
+      </c>
+      <c r="C13">
+        <v>14764</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14">
+        <v>333</v>
+      </c>
+      <c r="C14">
+        <v>13542</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15">
+        <v>333</v>
+      </c>
+      <c r="C15">
+        <v>13536</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1259</v>
+      </c>
+      <c r="C2">
+        <v>9854</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>804</v>
+      </c>
+      <c r="C3">
+        <v>4194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3976</v>
+      </c>
+      <c r="C4">
+        <v>17419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>1074</v>
+      </c>
+      <c r="C5">
+        <v>4533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1135</v>
+      </c>
+      <c r="C6">
+        <v>7575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>825</v>
+      </c>
+      <c r="C7">
+        <v>8566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>2165</v>
+      </c>
+      <c r="C8">
+        <v>12811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1251</v>
+      </c>
+      <c r="C9">
+        <v>6450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>1663</v>
+      </c>
+      <c r="C10">
+        <v>16948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>1167</v>
+      </c>
+      <c r="C11">
+        <v>18733</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>1718</v>
+      </c>
+      <c r="C12">
+        <v>18240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>3942</v>
+      </c>
+      <c r="C13">
+        <v>12544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1296</v>
+      </c>
+      <c r="C14">
+        <v>10605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>1223</v>
+      </c>
+      <c r="C15">
+        <v>9368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>1373</v>
+      </c>
+      <c r="C16">
+        <v>8814</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>1219</v>
+      </c>
+      <c r="C17">
+        <v>23153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>2194</v>
+      </c>
+      <c r="C18">
+        <v>12542</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>1078</v>
+      </c>
+      <c r="C19">
+        <v>8820</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>3208</v>
+      </c>
+      <c r="C20">
+        <v>13504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>8415</v>
+      </c>
+      <c r="C21">
+        <v>27024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>1677</v>
+      </c>
+      <c r="C22">
+        <v>8759</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>4898</v>
+      </c>
+      <c r="C23">
+        <v>20141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>1953</v>
+      </c>
+      <c r="C24">
+        <v>14526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>14538</v>
+      </c>
+      <c r="C25">
+        <v>38412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>2408</v>
+      </c>
+      <c r="C26">
+        <v>11772</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>4572</v>
+      </c>
+      <c r="C27">
+        <v>15175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>6622</v>
+      </c>
+      <c r="C28">
+        <v>20889</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>2128</v>
+      </c>
+      <c r="C29">
+        <v>12421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>1221</v>
+      </c>
+      <c r="C30">
+        <v>8124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>1107</v>
+      </c>
+      <c r="C31">
+        <v>8843</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>5062</v>
+      </c>
+      <c r="C32">
+        <v>27463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>1826</v>
+      </c>
+      <c r="C33">
+        <v>8839</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>5240</v>
+      </c>
+      <c r="C34">
+        <v>25631</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>878</v>
+      </c>
+      <c r="C35">
+        <v>11708</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>1265</v>
+      </c>
+      <c r="C36">
+        <v>15403</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>2000</v>
+      </c>
+      <c r="C37">
+        <v>14349</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>1113</v>
+      </c>
+      <c r="C38">
+        <v>16402</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>704</v>
+      </c>
+      <c r="C39">
+        <v>10885</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>1636</v>
+      </c>
+      <c r="C40">
+        <v>17443</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>1437</v>
+      </c>
+      <c r="C41">
+        <v>13844</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>1063</v>
+      </c>
+      <c r="C42">
+        <v>11229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5900-000000000000}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>513</v>
+      </c>
+      <c r="C3">
+        <v>10874</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>513</v>
+      </c>
+      <c r="C4">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>311</v>
+      </c>
+      <c r="C5">
+        <v>13477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>311</v>
+      </c>
+      <c r="C6">
+        <v>14868</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>311</v>
+      </c>
+      <c r="C7">
+        <v>15433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>311</v>
+      </c>
+      <c r="C8">
+        <v>13658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>311</v>
+      </c>
+      <c r="C9">
+        <v>14048</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>311</v>
+      </c>
+      <c r="C10">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>309</v>
+      </c>
+      <c r="C11">
+        <v>13834</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>309</v>
+      </c>
+      <c r="C12">
+        <v>12919</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>309</v>
+      </c>
+      <c r="C13">
+        <v>13738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14">
+        <v>309</v>
+      </c>
+      <c r="C14">
+        <v>13428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15">
+        <v>309</v>
+      </c>
+      <c r="C15">
+        <v>13164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5A00-000000000000}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="71.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>546</v>
+      </c>
+      <c r="C3">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>307</v>
+      </c>
+      <c r="C4">
+        <v>20635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>307</v>
+      </c>
+      <c r="C5">
+        <v>18407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <v>307</v>
+      </c>
+      <c r="C6">
+        <v>15983</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7">
+        <v>307</v>
+      </c>
+      <c r="C7">
+        <v>17475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8">
+        <v>307</v>
+      </c>
+      <c r="C8">
+        <v>17018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>307</v>
+      </c>
+      <c r="C9">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>349</v>
+      </c>
+      <c r="C10">
+        <v>12715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>349</v>
+      </c>
+      <c r="C11">
+        <v>18232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>349</v>
+      </c>
+      <c r="C12">
+        <v>19987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>349</v>
+      </c>
+      <c r="C13">
+        <v>19033</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14">
+        <v>349</v>
+      </c>
+      <c r="C14">
+        <v>17645</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A1" xr:uid="{4A8FB2DA-52D4-48FC-8DE8-5A38D357D969}"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId2" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -19393,7 +19691,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -19412,10 +19710,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>1160.0</v>
+        <v>609.0</v>
       </c>
       <c r="C3" t="n">
-        <v>13399.0</v>
+        <v>11972.0</v>
       </c>
     </row>
     <row r="4">
@@ -19423,10 +19721,10 @@
         <v>51</v>
       </c>
       <c r="B4" t="n">
-        <v>1160.0</v>
+        <v>609.0</v>
       </c>
       <c r="C4" t="n">
-        <v>642.0</v>
+        <v>1194.0</v>
       </c>
     </row>
     <row r="5">
@@ -19434,10 +19732,10 @@
         <v>52</v>
       </c>
       <c r="B5" t="n">
-        <v>741.0</v>
+        <v>303.0</v>
       </c>
       <c r="C5" t="n">
-        <v>12324.0</v>
+        <v>12640.0</v>
       </c>
     </row>
     <row r="6">
@@ -19445,10 +19743,10 @@
         <v>53</v>
       </c>
       <c r="B6" t="n">
-        <v>741.0</v>
+        <v>303.0</v>
       </c>
       <c r="C6" t="n">
-        <v>8817.0</v>
+        <v>16576.0</v>
       </c>
     </row>
     <row r="7">
@@ -19456,10 +19754,10 @@
         <v>54</v>
       </c>
       <c r="B7" t="n">
-        <v>741.0</v>
+        <v>303.0</v>
       </c>
       <c r="C7" t="n">
-        <v>15221.0</v>
+        <v>17468.0</v>
       </c>
     </row>
     <row r="8">
@@ -19467,10 +19765,10 @@
         <v>55</v>
       </c>
       <c r="B8" t="n">
-        <v>741.0</v>
+        <v>303.0</v>
       </c>
       <c r="C8" t="n">
-        <v>14338.0</v>
+        <v>21045.0</v>
       </c>
     </row>
     <row r="9">
@@ -19478,10 +19776,10 @@
         <v>56</v>
       </c>
       <c r="B9" t="n">
-        <v>741.0</v>
+        <v>303.0</v>
       </c>
       <c r="C9" t="n">
-        <v>22694.0</v>
+        <v>18990.0</v>
       </c>
     </row>
     <row r="10">
@@ -19489,10 +19787,10 @@
         <v>51</v>
       </c>
       <c r="B10" t="n">
-        <v>741.0</v>
+        <v>303.0</v>
       </c>
       <c r="C10" t="n">
-        <v>720.0</v>
+        <v>1188.0</v>
       </c>
     </row>
     <row r="11">
@@ -19500,10 +19798,10 @@
         <v>52</v>
       </c>
       <c r="B11" t="n">
-        <v>636.0</v>
+        <v>306.0</v>
       </c>
       <c r="C11" t="n">
-        <v>13084.0</v>
+        <v>11591.0</v>
       </c>
     </row>
     <row r="12">
@@ -19511,10 +19809,10 @@
         <v>53</v>
       </c>
       <c r="B12" t="n">
-        <v>636.0</v>
+        <v>306.0</v>
       </c>
       <c r="C12" t="n">
-        <v>10239.0</v>
+        <v>18621.0</v>
       </c>
     </row>
     <row r="13">
@@ -19522,10 +19820,10 @@
         <v>54</v>
       </c>
       <c r="B13" t="n">
-        <v>636.0</v>
+        <v>306.0</v>
       </c>
       <c r="C13" t="n">
-        <v>14596.0</v>
+        <v>18340.0</v>
       </c>
     </row>
     <row r="14">
@@ -19533,10 +19831,10 @@
         <v>55</v>
       </c>
       <c r="B14" t="n">
-        <v>636.0</v>
+        <v>306.0</v>
       </c>
       <c r="C14" t="n">
-        <v>14924.0</v>
+        <v>18163.0</v>
       </c>
     </row>
     <row r="15">
@@ -19544,10 +19842,10 @@
         <v>56</v>
       </c>
       <c r="B15" t="n">
-        <v>636.0</v>
+        <v>306.0</v>
       </c>
       <c r="C15" t="n">
-        <v>21389.0</v>
+        <v>19294.0</v>
       </c>
     </row>
   </sheetData>
@@ -19555,481 +19853,269 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
-  <dimension ref="A1:D42"/>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>1259</v>
-      </c>
-      <c r="C2">
-        <v>9854</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>804</v>
-      </c>
-      <c r="C3">
-        <v>4194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>627.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11109.0</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>3976</v>
-      </c>
-      <c r="C4">
-        <v>17419</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>51</v>
+      </c>
+      <c r="B4" t="n">
+        <v>627.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1110.0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5">
-        <v>1074</v>
-      </c>
-      <c r="C5">
-        <v>4533</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>52</v>
+      </c>
+      <c r="B5" t="n">
+        <v>449.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12812.0</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1135</v>
-      </c>
-      <c r="C6">
-        <v>7575</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>53</v>
+      </c>
+      <c r="B6" t="n">
+        <v>449.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11522.0</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>825</v>
-      </c>
-      <c r="C7">
-        <v>8566</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>54</v>
+      </c>
+      <c r="B7" t="n">
+        <v>449.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19175.0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>2165</v>
-      </c>
-      <c r="C8">
-        <v>12811</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>55</v>
+      </c>
+      <c r="B8" t="n">
+        <v>449.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>19217.0</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1251</v>
-      </c>
-      <c r="C9">
-        <v>6450</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>56</v>
+      </c>
+      <c r="B9" t="n">
+        <v>449.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20179.0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>1663</v>
-      </c>
-      <c r="C10">
-        <v>16948</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>51</v>
+      </c>
+      <c r="B10" t="n">
+        <v>449.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1007.0</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>1167</v>
-      </c>
-      <c r="C11">
-        <v>18733</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>52</v>
+      </c>
+      <c r="B11" t="n">
+        <v>456.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12305.0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>1718</v>
-      </c>
-      <c r="C12">
-        <v>18240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>53</v>
+      </c>
+      <c r="B12" t="n">
+        <v>456.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>14700.0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>3942</v>
-      </c>
-      <c r="C13">
-        <v>12544</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>54</v>
+      </c>
+      <c r="B13" t="n">
+        <v>456.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>18137.0</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>1296</v>
-      </c>
-      <c r="C14">
-        <v>10605</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>55</v>
+      </c>
+      <c r="B14" t="n">
+        <v>456.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>17595.0</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>1223</v>
-      </c>
-      <c r="C15">
-        <v>9368</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>1373</v>
-      </c>
-      <c r="C16">
-        <v>8814</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>1219</v>
-      </c>
-      <c r="C17">
-        <v>23153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>2194</v>
-      </c>
-      <c r="C18">
-        <v>12542</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>1078</v>
-      </c>
-      <c r="C19">
-        <v>8820</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20">
-        <v>3208</v>
-      </c>
-      <c r="C20">
-        <v>13504</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <v>8415</v>
-      </c>
-      <c r="C21">
-        <v>27024</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22">
-        <v>1677</v>
-      </c>
-      <c r="C22">
-        <v>8759</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <v>4898</v>
-      </c>
-      <c r="C23">
-        <v>20141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24">
-        <v>1953</v>
-      </c>
-      <c r="C24">
-        <v>14526</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25">
-        <v>14538</v>
-      </c>
-      <c r="C25">
-        <v>38412</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26">
-        <v>2408</v>
-      </c>
-      <c r="C26">
-        <v>11772</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27">
-        <v>4572</v>
-      </c>
-      <c r="C27">
-        <v>15175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28">
-        <v>6622</v>
-      </c>
-      <c r="C28">
-        <v>20889</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29">
-        <v>2128</v>
-      </c>
-      <c r="C29">
-        <v>12421</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30">
-        <v>1221</v>
-      </c>
-      <c r="C30">
-        <v>8124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31">
-        <v>1107</v>
-      </c>
-      <c r="C31">
-        <v>8843</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32">
-        <v>5062</v>
-      </c>
-      <c r="C32">
-        <v>27463</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33">
-        <v>1826</v>
-      </c>
-      <c r="C33">
-        <v>8839</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34">
-        <v>5240</v>
-      </c>
-      <c r="C34">
-        <v>25631</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35">
-        <v>878</v>
-      </c>
-      <c r="C35">
-        <v>11708</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36">
-        <v>1265</v>
-      </c>
-      <c r="C36">
-        <v>15403</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37">
-        <v>2000</v>
-      </c>
-      <c r="C37">
-        <v>14349</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38">
-        <v>1113</v>
-      </c>
-      <c r="C38">
-        <v>16402</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39">
-        <v>704</v>
-      </c>
-      <c r="C39">
-        <v>10885</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40">
-        <v>1636</v>
-      </c>
-      <c r="C40">
-        <v>17443</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41">
-        <v>1437</v>
-      </c>
-      <c r="C41">
-        <v>13844</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42">
-        <v>1063</v>
-      </c>
-      <c r="C42">
-        <v>11229</v>
+        <v>56</v>
+      </c>
+      <c r="B15" t="n">
+        <v>456.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>18917.0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>584.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11098.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="n">
+        <v>584.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1087.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15339.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>13987.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13787.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13981.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/WSI-PageLoadPerformance.xlsx
+++ b/WSI-PageLoadPerformance.xlsx
@@ -107,13 +107,14 @@
     <sheet name="09Aug2020 17.59.15" r:id="rId95" sheetId="92"/>
     <sheet name="09Aug2020 18.08.05" r:id="rId96" sheetId="93"/>
     <sheet name="09Aug2020 18.15.24" r:id="rId97" sheetId="94"/>
+    <sheet name="09Aug2020 18.30.03" r:id="rId98" sheetId="95"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="58">
   <si>
     <t>Test</t>
   </si>
@@ -284,6 +285,9 @@
   </si>
   <si>
     <t>Libraries &gt; Merch List- Page 5</t>
+  </si>
+  <si>
+    <t>https://mcptraining.wsgc.com/</t>
   </si>
 </sst>
 </file>
@@ -20118,4 +20122,66 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>574.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12123.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="n">
+        <v>574.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1233.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="n">
+        <v>311.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/WSI-PageLoadPerformance.xlsx
+++ b/WSI-PageLoadPerformance.xlsx
@@ -95,13 +95,15 @@
     <sheet name="05Aug2020 05.43.05" r:id="rId89" sheetId="86"/>
     <sheet name="05Aug2020 06.12.05" r:id="rId90" sheetId="87"/>
     <sheet name="09Aug2020 16.30.28" r:id="rId91" sheetId="88"/>
+    <sheet name="09Aug2020 19.22.15" r:id="rId92" sheetId="89"/>
+    <sheet name="09Aug2020 19.24.34" r:id="rId93" sheetId="90"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="57">
   <si>
     <t>Test</t>
   </si>
@@ -19555,6 +19557,35 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
@@ -20032,4 +20063,176 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1065.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9297.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1065.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>847.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="n">
+        <v>765.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17097.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="n">
+        <v>765.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>13015.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="n">
+        <v>765.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14791.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="n">
+        <v>765.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12117.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="n">
+        <v>765.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11507.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="n">
+        <v>765.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>607.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="n">
+        <v>694.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>14989.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="n">
+        <v>694.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>14970.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="n">
+        <v>694.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>13032.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="n">
+        <v>694.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13764.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="n">
+        <v>694.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14414.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/WSI-PageLoadPerformance.xlsx
+++ b/WSI-PageLoadPerformance.xlsx
@@ -1,3 +1,4137 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vs1\git\WSI_MerchTool\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr documentId="13_ncr:1_{20342DA5-6A77-4D9D-AA6F-C59CA737AFCB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44"/>
+  <bookViews>
+    <workbookView activeTab="90" firstSheet="87" windowHeight="10440" windowWidth="19440" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="25Jun2020 22.00.08" r:id="rId2" sheetId="2"/>
+    <sheet name="25Jun2020 22.02.06" r:id="rId3" sheetId="3"/>
+    <sheet name="25Jun2020 22.06.27" r:id="rId4" sheetId="4"/>
+    <sheet name="25Jun2020 22.32.12" r:id="rId5" sheetId="5"/>
+    <sheet name="25Jun2020 22.50.02" r:id="rId6" sheetId="6"/>
+    <sheet name="26Jun2020 14.42.21" r:id="rId7" sheetId="7"/>
+    <sheet name="26Jun2020 14.46.40" r:id="rId8" sheetId="8"/>
+    <sheet name="29Jun2020 12.41.12" r:id="rId9" sheetId="9"/>
+    <sheet name="29Jun2020 13.36.14" r:id="rId10" sheetId="10"/>
+    <sheet name="30Jun2020 12.31.21" r:id="rId11" sheetId="11"/>
+    <sheet name="30Jun2020 14.07.40" r:id="rId12" sheetId="12"/>
+    <sheet name="30Jun2020 15.58.03" r:id="rId13" sheetId="13"/>
+    <sheet name="30Jun2020 16.13.28" r:id="rId14" sheetId="14"/>
+    <sheet name="01Jul2020 13.31.22" r:id="rId15" sheetId="15"/>
+    <sheet name="02Jul2020 18.37.39" r:id="rId16" sheetId="16"/>
+    <sheet name="02Jul2020 07.00.28" r:id="rId17" sheetId="17"/>
+    <sheet name="02Jul2020 19.33.13" r:id="rId18" sheetId="18"/>
+    <sheet name="02Jul2020 07.04.42" r:id="rId19" sheetId="19"/>
+    <sheet name="02Jul2020 07.13.26" r:id="rId20" sheetId="20"/>
+    <sheet name="02Jul2020 07.27.09" r:id="rId21" sheetId="21"/>
+    <sheet name="02Jul2020 08.11.09" r:id="rId22" sheetId="22"/>
+    <sheet name="02Jul2020 20.54.01" r:id="rId23" sheetId="23"/>
+    <sheet name="02Jul2020 21.00.05" r:id="rId24" sheetId="24"/>
+    <sheet name="02Jul2020 21.13.14" r:id="rId25" sheetId="25"/>
+    <sheet name="02Jul2020 21.14.45" r:id="rId26" sheetId="26"/>
+    <sheet name="02Jul2020 21.22.23" r:id="rId27" sheetId="27"/>
+    <sheet name="02Jul2020 21.29.57" r:id="rId28" sheetId="28"/>
+    <sheet name="03Jul2020 15.36.03" r:id="rId29" sheetId="29"/>
+    <sheet name="03Jul2020 15.38.41" r:id="rId30" sheetId="30"/>
+    <sheet name="03Jul2020 17.33.58" r:id="rId31" sheetId="31"/>
+    <sheet name="03Jul2020 19.53.38" r:id="rId32" sheetId="32"/>
+    <sheet name="03Jul2020 19.56.56" r:id="rId33" sheetId="33"/>
+    <sheet name="03Jul2020 20.58.17" r:id="rId34" sheetId="34"/>
+    <sheet name="03Jul2020 20.59.44" r:id="rId35" sheetId="35"/>
+    <sheet name="03Jul2020 21.05.09" r:id="rId36" sheetId="36"/>
+    <sheet name="03Jul2020 21.11.07" r:id="rId37" sheetId="37"/>
+    <sheet name="04Jul2020 16.02.44" r:id="rId38" sheetId="38"/>
+    <sheet name="04Jul2020 16.06.45" r:id="rId39" sheetId="39"/>
+    <sheet name="06Jul2020 17.34.57" r:id="rId40" sheetId="40"/>
+    <sheet name="06Jul2020 18.05.46" r:id="rId41" sheetId="41"/>
+    <sheet name="07Jul2020 15.59.20" r:id="rId42" sheetId="42"/>
+    <sheet name="07Jul2020 16.39.24" r:id="rId43" sheetId="43"/>
+    <sheet name="07Jul2020 17.39.30" r:id="rId44" sheetId="44"/>
+    <sheet name="08Jul2020 20.20.15" r:id="rId45" sheetId="45"/>
+    <sheet name="08Jul2020 20.28.17" r:id="rId46" sheetId="46"/>
+    <sheet name="11Jul2020 14.46.36" r:id="rId47" sheetId="47"/>
+    <sheet name="11Jul2020 15.21.56" r:id="rId48" sheetId="48"/>
+    <sheet name="11Jul2020 15.31.22" r:id="rId49" sheetId="49"/>
+    <sheet name="11Jul2020 16.29.05" r:id="rId50" sheetId="50"/>
+    <sheet name="11Jul2020 16.30.44" r:id="rId51" sheetId="51"/>
+    <sheet name="11Jul2020 16.32.57" r:id="rId52" sheetId="52"/>
+    <sheet name="11Jul2020 18.29.45" r:id="rId53" sheetId="53"/>
+    <sheet name="11Jul2020 18.38.50" r:id="rId54" sheetId="54"/>
+    <sheet name="11Jul2020 18.57.48" r:id="rId55" sheetId="55"/>
+    <sheet name="24Jul2020 13.33.33" r:id="rId56" sheetId="56"/>
+    <sheet name="24Jul2020 13.34.33" r:id="rId57" sheetId="57"/>
+    <sheet name="24Jul2020 13.49.20" r:id="rId58" sheetId="58"/>
+    <sheet name="24Jul2020 13.51.47" r:id="rId59" sheetId="59"/>
+    <sheet name="24Jul2020 17.35.38" r:id="rId60" sheetId="60"/>
+    <sheet name="24Jul2020 17.45.50" r:id="rId61" sheetId="61"/>
+    <sheet name="24Jul2020 17.57.47" r:id="rId62" sheetId="62"/>
+    <sheet name="24Jul2020 17.58.37" r:id="rId63" sheetId="63"/>
+    <sheet name="24Jul2020 18.22.02" r:id="rId64" sheetId="64"/>
+    <sheet name="24Jul2020 18.37.16" r:id="rId65" sheetId="65"/>
+    <sheet name="24Jul2020 19.10.08" r:id="rId66" sheetId="66"/>
+    <sheet name="24Jul2020 19.47.33" r:id="rId67" sheetId="67"/>
+    <sheet name="24Jul2020 20.02.18" r:id="rId68" sheetId="68"/>
+    <sheet name="27Jul2020 14.12.07" r:id="rId69" sheetId="69"/>
+    <sheet name="27Jul2020 14.49.51" r:id="rId70" sheetId="70"/>
+    <sheet name="27Jul2020 21.22.28" r:id="rId71" sheetId="71"/>
+    <sheet name="27Jul2020 22.15.26" r:id="rId72" sheetId="72"/>
+    <sheet name="28Jul2020 12.41.33" r:id="rId73" sheetId="73"/>
+    <sheet name="28Jul2020 12.46.26" r:id="rId74" sheetId="74"/>
+    <sheet name="28Jul2020 12.48.41" r:id="rId75" sheetId="75"/>
+    <sheet name="29Jul2020 15.08.53" r:id="rId76" sheetId="76"/>
+    <sheet name="29Jul2020 15.19.02" r:id="rId77" sheetId="77"/>
+    <sheet name="29Jul2020 15.45.56" r:id="rId78" sheetId="78"/>
+    <sheet name="29Jul2020 15.52.00" r:id="rId79" sheetId="79"/>
+    <sheet name="29Jul2020 16.33.26" r:id="rId80" sheetId="80"/>
+    <sheet name="03Aug2020 23.09.30" r:id="rId81" sheetId="81"/>
+    <sheet name="03Aug2020 23.12.33" r:id="rId82" sheetId="82"/>
+    <sheet name="03Aug2020 23.14.35" r:id="rId83" sheetId="83"/>
+    <sheet name="03Aug2020 23.38.21" r:id="rId84" sheetId="84"/>
+    <sheet name="04Aug2020 23.24.06" r:id="rId85" sheetId="85"/>
+    <sheet name="05Aug2020 05.43.05" r:id="rId86" sheetId="86"/>
+    <sheet name="05Aug2020 06.12.05" r:id="rId87" sheetId="87"/>
+    <sheet name="09Aug2020 16.30.28" r:id="rId88" sheetId="88"/>
+    <sheet name="09Aug2020 17.04.33" r:id="rId89" sheetId="89"/>
+    <sheet name="09Aug2020 17.13.54" r:id="rId90" sheetId="90"/>
+    <sheet name="09Aug2020 17.37.33" r:id="rId91" sheetId="91"/>
+    <sheet name="09Aug2020 17.59.15" r:id="rId95" sheetId="92"/>
+    <sheet name="09Aug2020 18.08.05" r:id="rId96" sheetId="93"/>
+    <sheet name="09Aug2020 18.15.24" r:id="rId97" sheetId="94"/>
+    <sheet name="09Aug2020 18.30.03" r:id="rId98" sheetId="95"/>
+    <sheet name="25Aug2020 14.49.34" r:id="rId99" sheetId="96"/>
+    <sheet name="25Aug2020 15.23.28" r:id="rId100" sheetId="97"/>
+    <sheet name="25Aug2020 16.04.01" r:id="rId101" sheetId="98"/>
+    <sheet name="31Aug2020 21.43.23" r:id="rId102" sheetId="99"/>
+    <sheet name="04Sep2020 14.54.38" r:id="rId103" sheetId="100"/>
+    <sheet name="04Sep2020 14.58.23" r:id="rId104" sheetId="101"/>
+    <sheet name="04Sep2020 15.00.18" r:id="rId105" sheetId="102"/>
+    <sheet name="04Sep2020 15.03.15" r:id="rId106" sheetId="103"/>
+    <sheet name="04Sep2020 15.26.23" r:id="rId107" sheetId="104"/>
+    <sheet name="04Sep2020 15.34.06" r:id="rId108" sheetId="105"/>
+    <sheet name="04Sep2020 15.43.51" r:id="rId109" sheetId="106"/>
+    <sheet name="04Sep2020 15.48.11" r:id="rId110" sheetId="107"/>
+    <sheet name="04Sep2020 16.07.52" r:id="rId111" sheetId="108"/>
+    <sheet name="04Sep2020 16.23.12" r:id="rId112" sheetId="109"/>
+    <sheet name="04Sep2020 16.25.39" r:id="rId113" sheetId="110"/>
+    <sheet name="04Sep2020 16.33.40" r:id="rId114" sheetId="111"/>
+  </sheets>
+  <calcPr calcId="144525"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="58">
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Page Name</t>
+  </si>
+  <si>
+    <t>DOM Load Finish Time</t>
+  </si>
+  <si>
+    <t>Page Interaction Time</t>
+  </si>
+  <si>
+    <t>Login Page</t>
+  </si>
+  <si>
+    <t>Libraries &gt; Country</t>
+  </si>
+  <si>
+    <t>Libraries &gt; Item</t>
+  </si>
+  <si>
+    <t>Libraries &gt; Item-Pack-Components</t>
+  </si>
+  <si>
+    <t>Libraries &gt; Agent</t>
+  </si>
+  <si>
+    <t>Libraries &gt; Item-Season</t>
+  </si>
+  <si>
+    <t>Libraries &gt; Item-Parent-Season</t>
+  </si>
+  <si>
+    <t>Libraries &gt; Collection</t>
+  </si>
+  <si>
+    <t>Libraries &gt; Lading Port</t>
+  </si>
+  <si>
+    <t>Libraries &gt; JDA Hierarchy</t>
+  </si>
+  <si>
+    <t>Libraries &gt; Merch Hierarchy</t>
+  </si>
+  <si>
+    <t>Libraries &gt; Season</t>
+  </si>
+  <si>
+    <t>Libraries &gt; Business Objects</t>
+  </si>
+  <si>
+    <t>Libraries &gt; Item-Parent</t>
+  </si>
+  <si>
+    <t>Libraries &gt; Item-Source-Season</t>
+  </si>
+  <si>
+    <t>Libraries &gt; Merch List</t>
+  </si>
+  <si>
+    <t>Type &amp; Attribute Management &gt; Manage Types &gt; Country</t>
+  </si>
+  <si>
+    <t>Type &amp; Attribute Management &gt; Manage Types &gt; Vendor</t>
+  </si>
+  <si>
+    <t>Type &amp; Attribute Management &gt; Manage Types &gt; Item</t>
+  </si>
+  <si>
+    <t>Type &amp; Attribute Management &gt; Manage Types &gt; Item-Pack-Components</t>
+  </si>
+  <si>
+    <t>Type &amp; Attribute Management &gt; Manage Types &gt; Agent</t>
+  </si>
+  <si>
+    <t>Type &amp; Attribute Management &gt; Manage Types &gt; Item-Season</t>
+  </si>
+  <si>
+    <t>Type &amp; Attribute Management &gt; Manage Types &gt; Item-Parent-Season</t>
+  </si>
+  <si>
+    <t>Type &amp; Attribute Management &gt; Manage Types &gt; Collection</t>
+  </si>
+  <si>
+    <t>Type &amp; Attribute Management &gt; Manage Types &gt; Lading Port</t>
+  </si>
+  <si>
+    <t>Type &amp; Attribute Management &gt; Manage Types &gt; JDA Hierarchy</t>
+  </si>
+  <si>
+    <t>Type &amp; Attribute Management &gt; Manage Types &gt; Merch Hierarchy</t>
+  </si>
+  <si>
+    <t>Type &amp; Attribute Management &gt; Manage Types &gt; Diffs</t>
+  </si>
+  <si>
+    <t>Type &amp; Attribute Management &gt; Manage Types &gt; Item-Parent</t>
+  </si>
+  <si>
+    <t>Type &amp; Attribute Management &gt; Manage Types &gt; Item-Source-Season</t>
+  </si>
+  <si>
+    <t>Type &amp; Attribute Management &gt; Manage Types &gt; Merch List</t>
+  </si>
+  <si>
+    <t>User &amp; Role Management Permissions</t>
+  </si>
+  <si>
+    <t>User &amp; Role Management Users</t>
+  </si>
+  <si>
+    <t>Type &amp; Attribute Management &gt; Manage Types &gt; Image</t>
+  </si>
+  <si>
+    <t>Libraries &gt; Vendor</t>
+  </si>
+  <si>
+    <t>Libraries &gt; Image</t>
+  </si>
+  <si>
+    <t>Libraries &gt; Diffs</t>
+  </si>
+  <si>
+    <t>Type &amp; Attribute Management &gt; Manage Types &gt; Season</t>
+  </si>
+  <si>
+    <t>Type &amp; Attribute Management &gt; Manage Types &gt; Business Objects</t>
+  </si>
+  <si>
+    <t>User &amp; Role Management Roles</t>
+  </si>
+  <si>
+    <t>User &amp; Role Management &gt; Users</t>
+  </si>
+  <si>
+    <t>User &amp; Role Management &gt; Roles</t>
+  </si>
+  <si>
+    <t>User &amp; Role Management &gt; Permissions</t>
+  </si>
+  <si>
+    <t>Libraries &gt; Season Collection</t>
+  </si>
+  <si>
+    <t>Type &amp; Attribute Management &gt; Manage Types &gt; Season Collection</t>
+  </si>
+  <si>
+    <t>https://supchainplanmerch-mcp-user-interface-photonqa.services.west.nonprod.wsgc.com/</t>
+  </si>
+  <si>
+    <t>https://supplychain-mcp-user-interface-qa.services.west.nonprod.wsgc.com/</t>
+  </si>
+  <si>
+    <t>User Profile</t>
+  </si>
+  <si>
+    <t>Libraries &gt; Merch List- Page 1</t>
+  </si>
+  <si>
+    <t>Libraries &gt; Merch List- Page 2</t>
+  </si>
+  <si>
+    <t>Libraries &gt; Merch List- Page 3</t>
+  </si>
+  <si>
+    <t>Libraries &gt; Merch List- Page 4</t>
+  </si>
+  <si>
+    <t>Libraries &gt; Merch List- Page 5</t>
+  </si>
+  <si>
+    <t>https://mcptraining.wsgc.com/</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="2">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="2">
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:D78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1078</v>
+      </c>
+      <c r="C2">
+        <v>10210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>631</v>
+      </c>
+      <c r="C3">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1120</v>
+      </c>
+      <c r="C4">
+        <v>9655</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>775</v>
+      </c>
+      <c r="C5">
+        <v>4658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1049</v>
+      </c>
+      <c r="C6">
+        <v>7405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1282</v>
+      </c>
+      <c r="C7">
+        <v>8154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>796</v>
+      </c>
+      <c r="C8">
+        <v>8624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>986</v>
+      </c>
+      <c r="C9">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>1068</v>
+      </c>
+      <c r="C10">
+        <v>8656</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1153</v>
+      </c>
+      <c r="C11">
+        <v>5237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>1459</v>
+      </c>
+      <c r="C12">
+        <v>8740</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>1028</v>
+      </c>
+      <c r="C13">
+        <v>14969</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1732</v>
+      </c>
+      <c r="C14">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>779</v>
+      </c>
+      <c r="C15">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>1384</v>
+      </c>
+      <c r="C16">
+        <v>8210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>870</v>
+      </c>
+      <c r="C17">
+        <v>6020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>1281</v>
+      </c>
+      <c r="C18">
+        <v>7823</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>1513</v>
+      </c>
+      <c r="C19">
+        <v>4704</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>1821</v>
+      </c>
+      <c r="C20">
+        <v>9762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>691</v>
+      </c>
+      <c r="C21">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>1585</v>
+      </c>
+      <c r="C22">
+        <v>9539</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>1043</v>
+      </c>
+      <c r="C23">
+        <v>4475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>734</v>
+      </c>
+      <c r="C24">
+        <v>10753</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>936</v>
+      </c>
+      <c r="C25">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1014</v>
+      </c>
+      <c r="C26">
+        <v>7926</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>599</v>
+      </c>
+      <c r="C27">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>1099</v>
+      </c>
+      <c r="C28">
+        <v>8698</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>614</v>
+      </c>
+      <c r="C29">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>1084</v>
+      </c>
+      <c r="C30">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>871</v>
+      </c>
+      <c r="C31">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>1101</v>
+      </c>
+      <c r="C32">
+        <v>8513</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33">
+        <v>1029</v>
+      </c>
+      <c r="C33">
+        <v>5058</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>1085</v>
+      </c>
+      <c r="C34">
+        <v>9176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <v>603</v>
+      </c>
+      <c r="C35">
+        <v>15996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>2484</v>
+      </c>
+      <c r="C36">
+        <v>12684</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37">
+        <v>1137</v>
+      </c>
+      <c r="C37">
+        <v>26956</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>5201</v>
+      </c>
+      <c r="C38">
+        <v>17457</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>639</v>
+      </c>
+      <c r="C39">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>1179</v>
+      </c>
+      <c r="C40">
+        <v>8653</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>1069</v>
+      </c>
+      <c r="C41">
+        <v>8095</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <v>640</v>
+      </c>
+      <c r="C42">
+        <v>6812</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>1311</v>
+      </c>
+      <c r="C43">
+        <v>8976</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44">
+        <v>1063</v>
+      </c>
+      <c r="C44">
+        <v>3952</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>882</v>
+      </c>
+      <c r="C45">
+        <v>8715</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <v>662</v>
+      </c>
+      <c r="C46">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>1151</v>
+      </c>
+      <c r="C47">
+        <v>10534</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48">
+        <v>900</v>
+      </c>
+      <c r="C48">
+        <v>6042</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>1034</v>
+      </c>
+      <c r="C49">
+        <v>11407</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50">
+        <v>646</v>
+      </c>
+      <c r="C50">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>1122</v>
+      </c>
+      <c r="C51">
+        <v>8368</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52">
+        <v>739</v>
+      </c>
+      <c r="C52">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>1539</v>
+      </c>
+      <c r="C53">
+        <v>12232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54">
+        <v>722</v>
+      </c>
+      <c r="C54">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>1067</v>
+      </c>
+      <c r="C55">
+        <v>8467</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56">
+        <v>1297</v>
+      </c>
+      <c r="C56">
+        <v>5738</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>1240</v>
+      </c>
+      <c r="C57">
+        <v>8615</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58">
+        <v>642</v>
+      </c>
+      <c r="C58">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>887</v>
+      </c>
+      <c r="C59">
+        <v>11040</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60">
+        <v>1599</v>
+      </c>
+      <c r="C60">
+        <v>5424</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>5038</v>
+      </c>
+      <c r="C61">
+        <v>11893</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62">
+        <v>930</v>
+      </c>
+      <c r="C62">
+        <v>6227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>1131</v>
+      </c>
+      <c r="C63">
+        <v>7115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64">
+        <v>788</v>
+      </c>
+      <c r="C64">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>1329</v>
+      </c>
+      <c r="C65">
+        <v>10764</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66">
+        <v>605</v>
+      </c>
+      <c r="C66">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>853</v>
+      </c>
+      <c r="C67">
+        <v>10513</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68">
+        <v>756</v>
+      </c>
+      <c r="C68">
+        <v>7348</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>786</v>
+      </c>
+      <c r="C69">
+        <v>7533</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70">
+        <v>761</v>
+      </c>
+      <c r="C70">
+        <v>6065</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <v>1263</v>
+      </c>
+      <c r="C71">
+        <v>8895</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72">
+        <v>901</v>
+      </c>
+      <c r="C72">
+        <v>13208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <v>1068</v>
+      </c>
+      <c r="C73">
+        <v>12992</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74">
+        <v>710</v>
+      </c>
+      <c r="C74">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <v>1712</v>
+      </c>
+      <c r="C75">
+        <v>9823</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76">
+        <v>881</v>
+      </c>
+      <c r="C76">
+        <v>22994</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77">
+        <v>2260</v>
+      </c>
+      <c r="C77">
+        <v>10119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>36</v>
+      </c>
+      <c r="B78">
+        <v>625</v>
+      </c>
+      <c r="C78">
+        <v>1592</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2578.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>83433.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1347.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15017.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1347.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>501.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1754.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>37002.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1754.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>34174.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1754.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>41542.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1754.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>25419.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1754.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>13674.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1754.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>440.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1062.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>28748.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1062.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>18787.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1062.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>19693.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1062.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>40431.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1062.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>18052.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2084.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>41829.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2084.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>509.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="n">
+        <v>856.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10690.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="n">
+        <v>856.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8748.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="n">
+        <v>856.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14665.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="n">
+        <v>856.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9399.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="n">
+        <v>856.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6853.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="n">
+        <v>856.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>581.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="n">
+        <v>750.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>14960.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="n">
+        <v>750.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>13857.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="n">
+        <v>750.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2036.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>40178.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2036.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>466.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1311.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>35026.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1311.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>25364.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1311.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>22096.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1311.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>28141.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1311.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16076.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1311.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>547.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2975.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>53076.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2975.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>546.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3523.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>70314.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3523.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>524.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2606.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>53446.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2606.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>18334.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2606.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19903.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2606.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>27072.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2606.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>32418.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2606.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>553.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1235.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>23152.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1235.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>22095.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1235.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15757.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1235.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>18510.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1235.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>25529.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1235.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>543.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1287.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>31797.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1287.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>45551.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1287.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18860.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1287.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>26579.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1287.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>26897.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1287.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>553.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2711.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>34600.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2711.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>26864.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2711.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23410.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2711.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>26824.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2711.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>38790.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1568.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>24818.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1568.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>478.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="n">
+        <v>803.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11092.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="n">
+        <v>803.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9779.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="n">
+        <v>803.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8436.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="n">
+        <v>803.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10672.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="n">
+        <v>803.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>13396.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="n">
+        <v>803.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>726.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1153.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11411.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1153.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10754.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1153.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>13484.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1153.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14468.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1153.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>15572.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1153.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>512.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1267.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>14161.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1267.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>10307.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1267.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>27479.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1267.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>9797.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1267.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7479.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1267.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>542.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>13147.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>14125.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>9987.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>10316.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>7322.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>674.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>10924.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>11367.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>11617.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>11546.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>6549.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>507.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="n">
+        <v>762.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>8996.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="n">
+        <v>762.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>12681.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="n">
+        <v>762.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>9244.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="n">
+        <v>762.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>11047.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="n">
+        <v>762.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>9272.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1491</v>
+      </c>
+      <c r="C2">
+        <v>10732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>882</v>
+      </c>
+      <c r="C3">
+        <v>11075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>925</v>
+      </c>
+      <c r="C4">
+        <v>6975</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1551</v>
+      </c>
+      <c r="C5">
+        <v>7385</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2042.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15746.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2042.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>524.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1517.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11988.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1517.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>16018.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1517.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11432.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1517.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10947.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1517.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9802.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1517.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>492.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="n">
+        <v>716.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>19204.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="n">
+        <v>716.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10954.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="n">
+        <v>716.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10915.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="n">
+        <v>716.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12359.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="n">
+        <v>716.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8099.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6819.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>33409.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6819.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>470.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4772.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11271.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4772.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10101.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4772.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10941.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4772.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13840.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4772.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11658.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4772.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>524.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1519.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12345.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1519.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>13593.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1519.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11668.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1519.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12711.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1519.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9524.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:D75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1242</v>
+      </c>
+      <c r="C2">
+        <v>10940</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>759</v>
+      </c>
+      <c r="C3">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>985</v>
+      </c>
+      <c r="C4">
+        <v>11240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>1277</v>
+      </c>
+      <c r="C5">
+        <v>4924</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1209</v>
+      </c>
+      <c r="C6">
+        <v>14767</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>619</v>
+      </c>
+      <c r="C7">
+        <v>6913</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>727</v>
+      </c>
+      <c r="C8">
+        <v>7012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>757</v>
+      </c>
+      <c r="C9">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>1149</v>
+      </c>
+      <c r="C10">
+        <v>7626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>834</v>
+      </c>
+      <c r="C11">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>2096</v>
+      </c>
+      <c r="C12">
+        <v>17686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>651</v>
+      </c>
+      <c r="C13">
+        <v>9154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>3601</v>
+      </c>
+      <c r="C14">
+        <v>13901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>692</v>
+      </c>
+      <c r="C15">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>1094</v>
+      </c>
+      <c r="C16">
+        <v>16523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>760</v>
+      </c>
+      <c r="C17">
+        <v>5439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>1113</v>
+      </c>
+      <c r="C18">
+        <v>12496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>785</v>
+      </c>
+      <c r="C19">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>1116</v>
+      </c>
+      <c r="C20">
+        <v>12894</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>904</v>
+      </c>
+      <c r="C21">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>1191</v>
+      </c>
+      <c r="C22">
+        <v>20621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>713</v>
+      </c>
+      <c r="C23">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>1078</v>
+      </c>
+      <c r="C24">
+        <v>9598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>751</v>
+      </c>
+      <c r="C25">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1163</v>
+      </c>
+      <c r="C26">
+        <v>8739</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>1218</v>
+      </c>
+      <c r="C27">
+        <v>4152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>1057</v>
+      </c>
+      <c r="C28">
+        <v>8947</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>1276</v>
+      </c>
+      <c r="C29">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>1172</v>
+      </c>
+      <c r="C30">
+        <v>13944</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>796</v>
+      </c>
+      <c r="C31">
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>1089</v>
+      </c>
+      <c r="C32">
+        <v>8698</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33">
+        <v>692</v>
+      </c>
+      <c r="C33">
+        <v>4819</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>1126</v>
+      </c>
+      <c r="C34">
+        <v>9904</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <v>634</v>
+      </c>
+      <c r="C35">
+        <v>7738</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>700</v>
+      </c>
+      <c r="C36">
+        <v>7221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37">
+        <v>1197</v>
+      </c>
+      <c r="C37">
+        <v>8974</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>798</v>
+      </c>
+      <c r="C38">
+        <v>15484</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>1159</v>
+      </c>
+      <c r="C39">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>1080</v>
+      </c>
+      <c r="C40">
+        <v>12494</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41">
+        <v>738</v>
+      </c>
+      <c r="C41">
+        <v>4663</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>1653</v>
+      </c>
+      <c r="C42">
+        <v>10425</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>994</v>
+      </c>
+      <c r="C43">
+        <v>11011</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>1124</v>
+      </c>
+      <c r="C44">
+        <v>9835</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>693</v>
+      </c>
+      <c r="C45">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>1164</v>
+      </c>
+      <c r="C46">
+        <v>7708</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47">
+        <v>847</v>
+      </c>
+      <c r="C47">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>1078</v>
+      </c>
+      <c r="C48">
+        <v>14894</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49">
+        <v>674</v>
+      </c>
+      <c r="C49">
+        <v>9466</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>1381</v>
+      </c>
+      <c r="C50">
+        <v>8828</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51">
+        <v>913</v>
+      </c>
+      <c r="C51">
+        <v>3973</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>1056</v>
+      </c>
+      <c r="C52">
+        <v>8835</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53">
+        <v>876</v>
+      </c>
+      <c r="C53">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>1089</v>
+      </c>
+      <c r="C54">
+        <v>9523</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55">
+        <v>855</v>
+      </c>
+      <c r="C55">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>1328</v>
+      </c>
+      <c r="C56">
+        <v>8594</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57">
+        <v>1794</v>
+      </c>
+      <c r="C57">
+        <v>5114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>1063</v>
+      </c>
+      <c r="C58">
+        <v>12320</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59">
+        <v>901</v>
+      </c>
+      <c r="C59">
+        <v>5906</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>1138</v>
+      </c>
+      <c r="C60">
+        <v>7905</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61">
+        <v>979</v>
+      </c>
+      <c r="C61">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>779</v>
+      </c>
+      <c r="C62">
+        <v>7693</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>873</v>
+      </c>
+      <c r="C63">
+        <v>8111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>772</v>
+      </c>
+      <c r="C64">
+        <v>13749</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65">
+        <v>901</v>
+      </c>
+      <c r="C65">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>1041</v>
+      </c>
+      <c r="C66">
+        <v>8487</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67">
+        <v>648</v>
+      </c>
+      <c r="C67">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <v>1303</v>
+      </c>
+      <c r="C68">
+        <v>10911</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69">
+        <v>867</v>
+      </c>
+      <c r="C69">
+        <v>7172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <v>1735</v>
+      </c>
+      <c r="C70">
+        <v>9681</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71">
+        <v>9645</v>
+      </c>
+      <c r="C71">
+        <v>38778</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72">
+        <v>1124</v>
+      </c>
+      <c r="C72">
+        <v>8495</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <v>1168</v>
+      </c>
+      <c r="C73">
+        <v>9222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74">
+        <v>1401</v>
+      </c>
+      <c r="C74">
+        <v>10675</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>44</v>
+      </c>
+      <c r="B75">
+        <v>710</v>
+      </c>
+      <c r="C75">
+        <v>404</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
@@ -1325,6 +5459,30 @@
       </c>
       <c r="C15">
         <v>3802</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3091,6 +7249,52 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>692</v>
+      </c>
+      <c r="C2">
+        <v>53764</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>322</v>
+      </c>
+      <c r="C3">
+        <v>385</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:D2"/>
@@ -5066,6 +9270,404 @@
       </c>
       <c r="C43">
         <v>1987</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>583</v>
+      </c>
+      <c r="C2">
+        <v>21817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>383</v>
+      </c>
+      <c r="C3">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>963</v>
+      </c>
+      <c r="C4">
+        <v>31662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>643</v>
+      </c>
+      <c r="C5">
+        <v>46116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2877</v>
+      </c>
+      <c r="C6">
+        <v>22589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>503</v>
+      </c>
+      <c r="C7">
+        <v>28632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>292</v>
+      </c>
+      <c r="C8">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>510</v>
+      </c>
+      <c r="C9">
+        <v>43232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>312</v>
+      </c>
+      <c r="C10">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>941</v>
+      </c>
+      <c r="C11">
+        <v>70986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1954</v>
+      </c>
+      <c r="C12">
+        <v>10382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>1133</v>
+      </c>
+      <c r="C13">
+        <v>32290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>3258</v>
+      </c>
+      <c r="C14">
+        <v>5617</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>634</v>
+      </c>
+      <c r="C15">
+        <v>37649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>515</v>
+      </c>
+      <c r="C16">
+        <v>23142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>431</v>
+      </c>
+      <c r="C17">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>633</v>
+      </c>
+      <c r="C18">
+        <v>31626</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>357</v>
+      </c>
+      <c r="C19">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>1028</v>
+      </c>
+      <c r="C20">
+        <v>95934</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>524</v>
+      </c>
+      <c r="C21">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>2396</v>
+      </c>
+      <c r="C22">
+        <v>41411</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>727</v>
+      </c>
+      <c r="C23">
+        <v>4517</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>909</v>
+      </c>
+      <c r="C24">
+        <v>32575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>439</v>
+      </c>
+      <c r="C25">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>643</v>
+      </c>
+      <c r="C26">
+        <v>20268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>3159</v>
+      </c>
+      <c r="C27">
+        <v>41434</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>5586</v>
+      </c>
+      <c r="C28">
+        <v>7482</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>675</v>
+      </c>
+      <c r="C29">
+        <v>36952</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>502</v>
+      </c>
+      <c r="C30">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>683</v>
+      </c>
+      <c r="C31">
+        <v>17442</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>522</v>
+      </c>
+      <c r="C32">
+        <v>5917</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>833</v>
+      </c>
+      <c r="C33">
+        <v>8817</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>429</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>752</v>
+      </c>
+      <c r="C35">
+        <v>18591</v>
       </c>
     </row>
   </sheetData>
@@ -8763,6 +13365,448 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>859</v>
+      </c>
+      <c r="C2">
+        <v>19780</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>2887</v>
+      </c>
+      <c r="C3">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>621</v>
+      </c>
+      <c r="C4">
+        <v>7956</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>1006</v>
+      </c>
+      <c r="C5">
+        <v>3511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>624</v>
+      </c>
+      <c r="C6">
+        <v>11616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>3796</v>
+      </c>
+      <c r="C7">
+        <v>13827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>890</v>
+      </c>
+      <c r="C8">
+        <v>41481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>997</v>
+      </c>
+      <c r="C9">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>642</v>
+      </c>
+      <c r="C10">
+        <v>10849</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>438</v>
+      </c>
+      <c r="C11">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>954</v>
+      </c>
+      <c r="C12">
+        <v>19131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>1004</v>
+      </c>
+      <c r="C13">
+        <v>6691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>660</v>
+      </c>
+      <c r="C14">
+        <v>11783</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>452</v>
+      </c>
+      <c r="C15">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>596</v>
+      </c>
+      <c r="C16">
+        <v>12226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>923</v>
+      </c>
+      <c r="C17">
+        <v>13569</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>4647</v>
+      </c>
+      <c r="C18">
+        <v>6563</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>1082</v>
+      </c>
+      <c r="C19">
+        <v>17776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>2691</v>
+      </c>
+      <c r="C20">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>703</v>
+      </c>
+      <c r="C21">
+        <v>10345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>1541</v>
+      </c>
+      <c r="C22">
+        <v>5782</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>2764</v>
+      </c>
+      <c r="C23">
+        <v>41903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>2667</v>
+      </c>
+      <c r="C24">
+        <v>20955</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>701</v>
+      </c>
+      <c r="C25">
+        <v>21768</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>960</v>
+      </c>
+      <c r="C26">
+        <v>14956</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>3123</v>
+      </c>
+      <c r="C27">
+        <v>4987</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>1027</v>
+      </c>
+      <c r="C28">
+        <v>22545</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>1516</v>
+      </c>
+      <c r="C29">
+        <v>24355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>435</v>
+      </c>
+      <c r="C30">
+        <v>8695</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>637</v>
+      </c>
+      <c r="C31">
+        <v>19505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>1202</v>
+      </c>
+      <c r="C32">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>1660</v>
+      </c>
+      <c r="C33">
+        <v>16661</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>2034</v>
+      </c>
+      <c r="C34">
+        <v>21959</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>669</v>
+      </c>
+      <c r="C35">
+        <v>12026</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>998</v>
+      </c>
+      <c r="C36">
+        <v>12514</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>872</v>
+      </c>
+      <c r="C37">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>1671</v>
+      </c>
+      <c r="C38">
+        <v>14358</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>471</v>
+      </c>
+      <c r="C39">
+        <v>503</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <dimension ref="A1:D3"/>
@@ -10297,6 +15341,85 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>545</v>
+      </c>
+      <c r="C2">
+        <v>20536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>873</v>
+      </c>
+      <c r="C3">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1225</v>
+      </c>
+      <c r="C4">
+        <v>26506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>8527</v>
+      </c>
+      <c r="C5">
+        <v>85818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>12428</v>
+      </c>
+      <c r="C6">
+        <v>42835</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
   <dimension ref="A1:D8"/>
@@ -11766,6 +16889,52 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1197</v>
+      </c>
+      <c r="C2">
+        <v>9183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1086</v>
+      </c>
+      <c r="C3">
+        <v>9995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
   <dimension ref="A1:D23"/>
@@ -13432,6 +18601,476 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="68.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1358</v>
+      </c>
+      <c r="C2">
+        <v>16474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>534</v>
+      </c>
+      <c r="C3">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>518</v>
+      </c>
+      <c r="C4">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>505</v>
+      </c>
+      <c r="C5">
+        <v>6518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>612</v>
+      </c>
+      <c r="C6">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>563</v>
+      </c>
+      <c r="C7">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>574</v>
+      </c>
+      <c r="C8">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>691</v>
+      </c>
+      <c r="C9">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>666</v>
+      </c>
+      <c r="C10">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>601</v>
+      </c>
+      <c r="C11">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>871</v>
+      </c>
+      <c r="C12">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>508</v>
+      </c>
+      <c r="C13">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>571</v>
+      </c>
+      <c r="C14">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>541</v>
+      </c>
+      <c r="C15">
+        <v>4530</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>526</v>
+      </c>
+      <c r="C16">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>525</v>
+      </c>
+      <c r="C17">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>599</v>
+      </c>
+      <c r="C18">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>527</v>
+      </c>
+      <c r="C19">
+        <v>10343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>580</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>4980</v>
+      </c>
+      <c r="C21">
+        <v>7396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>611</v>
+      </c>
+      <c r="C22">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>579</v>
+      </c>
+      <c r="C23">
+        <v>7095</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>10540</v>
+      </c>
+      <c r="C24">
+        <v>16142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>645</v>
+      </c>
+      <c r="C25">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1137</v>
+      </c>
+      <c r="C26">
+        <v>6835</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>722</v>
+      </c>
+      <c r="C27">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28">
+        <v>546</v>
+      </c>
+      <c r="C28">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>670</v>
+      </c>
+      <c r="C29">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>730</v>
+      </c>
+      <c r="C30">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>611</v>
+      </c>
+      <c r="C31">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>624</v>
+      </c>
+      <c r="C32">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>1470</v>
+      </c>
+      <c r="C33">
+        <v>17225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>636</v>
+      </c>
+      <c r="C34">
+        <v>5081</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>536</v>
+      </c>
+      <c r="C35">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>544</v>
+      </c>
+      <c r="C36">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <v>523</v>
+      </c>
+      <c r="C37">
+        <v>4746</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>5627</v>
+      </c>
+      <c r="C38">
+        <v>20232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>484</v>
+      </c>
+      <c r="C39">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40">
+        <v>799</v>
+      </c>
+      <c r="C40">
+        <v>22759</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41">
+        <v>471</v>
+      </c>
+      <c r="C41">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4F00-000000000000}">
   <dimension ref="A1:D4"/>
@@ -14936,6 +20575,481 @@
       </c>
       <c r="C15">
         <v>13536</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1259</v>
+      </c>
+      <c r="C2">
+        <v>9854</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>804</v>
+      </c>
+      <c r="C3">
+        <v>4194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3976</v>
+      </c>
+      <c r="C4">
+        <v>17419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>1074</v>
+      </c>
+      <c r="C5">
+        <v>4533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1135</v>
+      </c>
+      <c r="C6">
+        <v>7575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>825</v>
+      </c>
+      <c r="C7">
+        <v>8566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>2165</v>
+      </c>
+      <c r="C8">
+        <v>12811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1251</v>
+      </c>
+      <c r="C9">
+        <v>6450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>1663</v>
+      </c>
+      <c r="C10">
+        <v>16948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>1167</v>
+      </c>
+      <c r="C11">
+        <v>18733</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>1718</v>
+      </c>
+      <c r="C12">
+        <v>18240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>3942</v>
+      </c>
+      <c r="C13">
+        <v>12544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1296</v>
+      </c>
+      <c r="C14">
+        <v>10605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>1223</v>
+      </c>
+      <c r="C15">
+        <v>9368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>1373</v>
+      </c>
+      <c r="C16">
+        <v>8814</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>1219</v>
+      </c>
+      <c r="C17">
+        <v>23153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>2194</v>
+      </c>
+      <c r="C18">
+        <v>12542</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>1078</v>
+      </c>
+      <c r="C19">
+        <v>8820</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>3208</v>
+      </c>
+      <c r="C20">
+        <v>13504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>8415</v>
+      </c>
+      <c r="C21">
+        <v>27024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>1677</v>
+      </c>
+      <c r="C22">
+        <v>8759</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>4898</v>
+      </c>
+      <c r="C23">
+        <v>20141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>1953</v>
+      </c>
+      <c r="C24">
+        <v>14526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>14538</v>
+      </c>
+      <c r="C25">
+        <v>38412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>2408</v>
+      </c>
+      <c r="C26">
+        <v>11772</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>4572</v>
+      </c>
+      <c r="C27">
+        <v>15175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>6622</v>
+      </c>
+      <c r="C28">
+        <v>20889</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>2128</v>
+      </c>
+      <c r="C29">
+        <v>12421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>1221</v>
+      </c>
+      <c r="C30">
+        <v>8124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>1107</v>
+      </c>
+      <c r="C31">
+        <v>8843</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>5062</v>
+      </c>
+      <c r="C32">
+        <v>27463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>1826</v>
+      </c>
+      <c r="C33">
+        <v>8839</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>5240</v>
+      </c>
+      <c r="C34">
+        <v>25631</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>878</v>
+      </c>
+      <c r="C35">
+        <v>11708</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>1265</v>
+      </c>
+      <c r="C36">
+        <v>15403</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>2000</v>
+      </c>
+      <c r="C37">
+        <v>14349</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>1113</v>
+      </c>
+      <c r="C38">
+        <v>16402</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>704</v>
+      </c>
+      <c r="C39">
+        <v>10885</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>1636</v>
+      </c>
+      <c r="C40">
+        <v>17443</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>1437</v>
+      </c>
+      <c r="C41">
+        <v>13844</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>1063</v>
+      </c>
+      <c r="C42">
+        <v>11229</v>
       </c>
     </row>
   </sheetData>
@@ -15787,4 +21901,263 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3662.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>87673.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3662.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>641.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1702.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>40901.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1702.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>41261.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1702.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>39494.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1702.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>35366.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1702.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>37740.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1702.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>677.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3060.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>28078.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3060.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>32959.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3060.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>18391.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3060.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>19355.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3060.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>20979.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/WSI-PageLoadPerformance.xlsx
+++ b/WSI-PageLoadPerformance.xlsx
@@ -1,120 +1,128 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vs1\git\WSI_MerchTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{20342DA5-6A77-4D9D-AA6F-C59CA737AFCB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1590F76B-F026-464F-AE59-597E18D9842A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="90" firstSheet="87" windowHeight="10440" windowWidth="19440" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" firstSheet="99" activeTab="102" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
-    <sheet name="25Jun2020 22.00.08" r:id="rId2" sheetId="2"/>
-    <sheet name="25Jun2020 22.02.06" r:id="rId3" sheetId="3"/>
-    <sheet name="25Jun2020 22.06.27" r:id="rId4" sheetId="4"/>
-    <sheet name="25Jun2020 22.32.12" r:id="rId5" sheetId="5"/>
-    <sheet name="25Jun2020 22.50.02" r:id="rId6" sheetId="6"/>
-    <sheet name="26Jun2020 14.42.21" r:id="rId7" sheetId="7"/>
-    <sheet name="26Jun2020 14.46.40" r:id="rId8" sheetId="8"/>
-    <sheet name="29Jun2020 12.41.12" r:id="rId9" sheetId="9"/>
-    <sheet name="29Jun2020 13.36.14" r:id="rId10" sheetId="10"/>
-    <sheet name="30Jun2020 12.31.21" r:id="rId11" sheetId="11"/>
-    <sheet name="30Jun2020 14.07.40" r:id="rId12" sheetId="12"/>
-    <sheet name="30Jun2020 15.58.03" r:id="rId13" sheetId="13"/>
-    <sheet name="30Jun2020 16.13.28" r:id="rId14" sheetId="14"/>
-    <sheet name="01Jul2020 13.31.22" r:id="rId15" sheetId="15"/>
-    <sheet name="02Jul2020 18.37.39" r:id="rId16" sheetId="16"/>
-    <sheet name="02Jul2020 07.00.28" r:id="rId17" sheetId="17"/>
-    <sheet name="02Jul2020 19.33.13" r:id="rId18" sheetId="18"/>
-    <sheet name="02Jul2020 07.04.42" r:id="rId19" sheetId="19"/>
-    <sheet name="02Jul2020 07.13.26" r:id="rId20" sheetId="20"/>
-    <sheet name="02Jul2020 07.27.09" r:id="rId21" sheetId="21"/>
-    <sheet name="02Jul2020 08.11.09" r:id="rId22" sheetId="22"/>
-    <sheet name="02Jul2020 20.54.01" r:id="rId23" sheetId="23"/>
-    <sheet name="02Jul2020 21.00.05" r:id="rId24" sheetId="24"/>
-    <sheet name="02Jul2020 21.13.14" r:id="rId25" sheetId="25"/>
-    <sheet name="02Jul2020 21.14.45" r:id="rId26" sheetId="26"/>
-    <sheet name="02Jul2020 21.22.23" r:id="rId27" sheetId="27"/>
-    <sheet name="02Jul2020 21.29.57" r:id="rId28" sheetId="28"/>
-    <sheet name="03Jul2020 15.36.03" r:id="rId29" sheetId="29"/>
-    <sheet name="03Jul2020 15.38.41" r:id="rId30" sheetId="30"/>
-    <sheet name="03Jul2020 17.33.58" r:id="rId31" sheetId="31"/>
-    <sheet name="03Jul2020 19.53.38" r:id="rId32" sheetId="32"/>
-    <sheet name="03Jul2020 19.56.56" r:id="rId33" sheetId="33"/>
-    <sheet name="03Jul2020 20.58.17" r:id="rId34" sheetId="34"/>
-    <sheet name="03Jul2020 20.59.44" r:id="rId35" sheetId="35"/>
-    <sheet name="03Jul2020 21.05.09" r:id="rId36" sheetId="36"/>
-    <sheet name="03Jul2020 21.11.07" r:id="rId37" sheetId="37"/>
-    <sheet name="04Jul2020 16.02.44" r:id="rId38" sheetId="38"/>
-    <sheet name="04Jul2020 16.06.45" r:id="rId39" sheetId="39"/>
-    <sheet name="06Jul2020 17.34.57" r:id="rId40" sheetId="40"/>
-    <sheet name="06Jul2020 18.05.46" r:id="rId41" sheetId="41"/>
-    <sheet name="07Jul2020 15.59.20" r:id="rId42" sheetId="42"/>
-    <sheet name="07Jul2020 16.39.24" r:id="rId43" sheetId="43"/>
-    <sheet name="07Jul2020 17.39.30" r:id="rId44" sheetId="44"/>
-    <sheet name="08Jul2020 20.20.15" r:id="rId45" sheetId="45"/>
-    <sheet name="08Jul2020 20.28.17" r:id="rId46" sheetId="46"/>
-    <sheet name="11Jul2020 14.46.36" r:id="rId47" sheetId="47"/>
-    <sheet name="11Jul2020 15.21.56" r:id="rId48" sheetId="48"/>
-    <sheet name="11Jul2020 15.31.22" r:id="rId49" sheetId="49"/>
-    <sheet name="11Jul2020 16.29.05" r:id="rId50" sheetId="50"/>
-    <sheet name="11Jul2020 16.30.44" r:id="rId51" sheetId="51"/>
-    <sheet name="11Jul2020 16.32.57" r:id="rId52" sheetId="52"/>
-    <sheet name="11Jul2020 18.29.45" r:id="rId53" sheetId="53"/>
-    <sheet name="11Jul2020 18.38.50" r:id="rId54" sheetId="54"/>
-    <sheet name="11Jul2020 18.57.48" r:id="rId55" sheetId="55"/>
-    <sheet name="24Jul2020 13.33.33" r:id="rId56" sheetId="56"/>
-    <sheet name="24Jul2020 13.34.33" r:id="rId57" sheetId="57"/>
-    <sheet name="24Jul2020 13.49.20" r:id="rId58" sheetId="58"/>
-    <sheet name="24Jul2020 13.51.47" r:id="rId59" sheetId="59"/>
-    <sheet name="24Jul2020 17.35.38" r:id="rId60" sheetId="60"/>
-    <sheet name="24Jul2020 17.45.50" r:id="rId61" sheetId="61"/>
-    <sheet name="24Jul2020 17.57.47" r:id="rId62" sheetId="62"/>
-    <sheet name="24Jul2020 17.58.37" r:id="rId63" sheetId="63"/>
-    <sheet name="24Jul2020 18.22.02" r:id="rId64" sheetId="64"/>
-    <sheet name="24Jul2020 18.37.16" r:id="rId65" sheetId="65"/>
-    <sheet name="24Jul2020 19.10.08" r:id="rId66" sheetId="66"/>
-    <sheet name="24Jul2020 19.47.33" r:id="rId67" sheetId="67"/>
-    <sheet name="24Jul2020 20.02.18" r:id="rId68" sheetId="68"/>
-    <sheet name="27Jul2020 14.12.07" r:id="rId69" sheetId="69"/>
-    <sheet name="27Jul2020 14.49.51" r:id="rId70" sheetId="70"/>
-    <sheet name="27Jul2020 21.22.28" r:id="rId71" sheetId="71"/>
-    <sheet name="27Jul2020 22.15.26" r:id="rId72" sheetId="72"/>
-    <sheet name="28Jul2020 12.41.33" r:id="rId73" sheetId="73"/>
-    <sheet name="28Jul2020 12.46.26" r:id="rId74" sheetId="74"/>
-    <sheet name="28Jul2020 12.48.41" r:id="rId75" sheetId="75"/>
-    <sheet name="29Jul2020 15.08.53" r:id="rId76" sheetId="76"/>
-    <sheet name="29Jul2020 15.19.02" r:id="rId77" sheetId="77"/>
-    <sheet name="29Jul2020 15.45.56" r:id="rId78" sheetId="78"/>
-    <sheet name="29Jul2020 15.52.00" r:id="rId79" sheetId="79"/>
-    <sheet name="29Jul2020 16.33.26" r:id="rId80" sheetId="80"/>
-    <sheet name="03Aug2020 23.09.30" r:id="rId81" sheetId="81"/>
-    <sheet name="03Aug2020 23.12.33" r:id="rId82" sheetId="82"/>
-    <sheet name="03Aug2020 23.14.35" r:id="rId83" sheetId="83"/>
-    <sheet name="03Aug2020 23.38.21" r:id="rId84" sheetId="84"/>
-    <sheet name="04Aug2020 23.24.06" r:id="rId85" sheetId="85"/>
-    <sheet name="05Aug2020 05.43.05" r:id="rId86" sheetId="86"/>
-    <sheet name="05Aug2020 06.12.05" r:id="rId87" sheetId="87"/>
-    <sheet name="09Aug2020 16.30.28" r:id="rId88" sheetId="88"/>
-    <sheet name="09Aug2020 17.04.33" r:id="rId89" sheetId="89"/>
-    <sheet name="09Aug2020 17.13.54" r:id="rId90" sheetId="90"/>
-    <sheet name="09Aug2020 17.37.33" r:id="rId91" sheetId="91"/>
-    <sheet name="09Aug2020 17.59.15" r:id="rId95" sheetId="92"/>
-    <sheet name="09Aug2020 18.08.05" r:id="rId96" sheetId="93"/>
-    <sheet name="09Aug2020 18.15.24" r:id="rId97" sheetId="94"/>
-    <sheet name="09Aug2020 18.30.03" r:id="rId98" sheetId="95"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="25Jun2020 22.00.08" sheetId="2" r:id="rId2"/>
+    <sheet name="25Jun2020 22.02.06" sheetId="3" r:id="rId3"/>
+    <sheet name="25Jun2020 22.06.27" sheetId="4" r:id="rId4"/>
+    <sheet name="25Jun2020 22.32.12" sheetId="5" r:id="rId5"/>
+    <sheet name="25Jun2020 22.50.02" sheetId="6" r:id="rId6"/>
+    <sheet name="26Jun2020 14.42.21" sheetId="7" r:id="rId7"/>
+    <sheet name="26Jun2020 14.46.40" sheetId="8" r:id="rId8"/>
+    <sheet name="29Jun2020 12.41.12" sheetId="9" r:id="rId9"/>
+    <sheet name="29Jun2020 13.36.14" sheetId="10" r:id="rId10"/>
+    <sheet name="30Jun2020 12.31.21" sheetId="11" r:id="rId11"/>
+    <sheet name="30Jun2020 14.07.40" sheetId="12" r:id="rId12"/>
+    <sheet name="30Jun2020 15.58.03" sheetId="13" r:id="rId13"/>
+    <sheet name="30Jun2020 16.13.28" sheetId="14" r:id="rId14"/>
+    <sheet name="01Jul2020 13.31.22" sheetId="15" r:id="rId15"/>
+    <sheet name="02Jul2020 18.37.39" sheetId="16" r:id="rId16"/>
+    <sheet name="02Jul2020 07.00.28" sheetId="17" r:id="rId17"/>
+    <sheet name="02Jul2020 19.33.13" sheetId="18" r:id="rId18"/>
+    <sheet name="02Jul2020 07.04.42" sheetId="19" r:id="rId19"/>
+    <sheet name="02Jul2020 07.13.26" sheetId="20" r:id="rId20"/>
+    <sheet name="02Jul2020 07.27.09" sheetId="21" r:id="rId21"/>
+    <sheet name="02Jul2020 08.11.09" sheetId="22" r:id="rId22"/>
+    <sheet name="02Jul2020 20.54.01" sheetId="23" r:id="rId23"/>
+    <sheet name="02Jul2020 21.00.05" sheetId="24" r:id="rId24"/>
+    <sheet name="02Jul2020 21.13.14" sheetId="25" r:id="rId25"/>
+    <sheet name="02Jul2020 21.14.45" sheetId="26" r:id="rId26"/>
+    <sheet name="02Jul2020 21.22.23" sheetId="27" r:id="rId27"/>
+    <sheet name="02Jul2020 21.29.57" sheetId="28" r:id="rId28"/>
+    <sheet name="03Jul2020 15.36.03" sheetId="29" r:id="rId29"/>
+    <sheet name="03Jul2020 15.38.41" sheetId="30" r:id="rId30"/>
+    <sheet name="03Jul2020 17.33.58" sheetId="31" r:id="rId31"/>
+    <sheet name="03Jul2020 19.53.38" sheetId="32" r:id="rId32"/>
+    <sheet name="03Jul2020 19.56.56" sheetId="33" r:id="rId33"/>
+    <sheet name="03Jul2020 20.58.17" sheetId="34" r:id="rId34"/>
+    <sheet name="03Jul2020 20.59.44" sheetId="35" r:id="rId35"/>
+    <sheet name="03Jul2020 21.05.09" sheetId="36" r:id="rId36"/>
+    <sheet name="03Jul2020 21.11.07" sheetId="37" r:id="rId37"/>
+    <sheet name="04Jul2020 16.02.44" sheetId="38" r:id="rId38"/>
+    <sheet name="04Jul2020 16.06.45" sheetId="39" r:id="rId39"/>
+    <sheet name="06Jul2020 17.34.57" sheetId="40" r:id="rId40"/>
+    <sheet name="06Jul2020 18.05.46" sheetId="41" r:id="rId41"/>
+    <sheet name="07Jul2020 15.59.20" sheetId="42" r:id="rId42"/>
+    <sheet name="07Jul2020 16.39.24" sheetId="43" r:id="rId43"/>
+    <sheet name="07Jul2020 17.39.30" sheetId="44" r:id="rId44"/>
+    <sheet name="08Jul2020 20.20.15" sheetId="45" r:id="rId45"/>
+    <sheet name="08Jul2020 20.28.17" sheetId="46" r:id="rId46"/>
+    <sheet name="11Jul2020 14.46.36" sheetId="47" r:id="rId47"/>
+    <sheet name="11Jul2020 15.21.56" sheetId="48" r:id="rId48"/>
+    <sheet name="11Jul2020 15.31.22" sheetId="49" r:id="rId49"/>
+    <sheet name="11Jul2020 16.29.05" sheetId="50" r:id="rId50"/>
+    <sheet name="11Jul2020 16.30.44" sheetId="51" r:id="rId51"/>
+    <sheet name="11Jul2020 16.32.57" sheetId="52" r:id="rId52"/>
+    <sheet name="11Jul2020 18.29.45" sheetId="53" r:id="rId53"/>
+    <sheet name="11Jul2020 18.38.50" sheetId="54" r:id="rId54"/>
+    <sheet name="11Jul2020 18.57.48" sheetId="55" r:id="rId55"/>
+    <sheet name="24Jul2020 13.33.33" sheetId="56" r:id="rId56"/>
+    <sheet name="24Jul2020 13.34.33" sheetId="57" r:id="rId57"/>
+    <sheet name="24Jul2020 13.49.20" sheetId="58" r:id="rId58"/>
+    <sheet name="24Jul2020 13.51.47" sheetId="59" r:id="rId59"/>
+    <sheet name="24Jul2020 17.35.38" sheetId="60" r:id="rId60"/>
+    <sheet name="24Jul2020 17.45.50" sheetId="61" r:id="rId61"/>
+    <sheet name="24Jul2020 17.57.47" sheetId="62" r:id="rId62"/>
+    <sheet name="24Jul2020 17.58.37" sheetId="63" r:id="rId63"/>
+    <sheet name="24Jul2020 18.22.02" sheetId="64" r:id="rId64"/>
+    <sheet name="24Jul2020 18.37.16" sheetId="65" r:id="rId65"/>
+    <sheet name="24Jul2020 19.10.08" sheetId="66" r:id="rId66"/>
+    <sheet name="24Jul2020 19.47.33" sheetId="67" r:id="rId67"/>
+    <sheet name="24Jul2020 20.02.18" sheetId="68" r:id="rId68"/>
+    <sheet name="27Jul2020 14.12.07" sheetId="69" r:id="rId69"/>
+    <sheet name="27Jul2020 14.49.51" sheetId="70" r:id="rId70"/>
+    <sheet name="27Jul2020 21.22.28" sheetId="71" r:id="rId71"/>
+    <sheet name="27Jul2020 22.15.26" sheetId="72" r:id="rId72"/>
+    <sheet name="28Jul2020 12.41.33" sheetId="73" r:id="rId73"/>
+    <sheet name="28Jul2020 12.46.26" sheetId="74" r:id="rId74"/>
+    <sheet name="28Jul2020 12.48.41" sheetId="75" r:id="rId75"/>
+    <sheet name="29Jul2020 15.08.53" sheetId="76" r:id="rId76"/>
+    <sheet name="29Jul2020 15.19.02" sheetId="77" r:id="rId77"/>
+    <sheet name="29Jul2020 15.45.56" sheetId="78" r:id="rId78"/>
+    <sheet name="29Jul2020 15.52.00" sheetId="79" r:id="rId79"/>
+    <sheet name="29Jul2020 16.33.26" sheetId="80" r:id="rId80"/>
+    <sheet name="03Aug2020 23.09.30" sheetId="81" r:id="rId81"/>
+    <sheet name="03Aug2020 23.12.33" sheetId="82" r:id="rId82"/>
+    <sheet name="03Aug2020 23.14.35" sheetId="83" r:id="rId83"/>
+    <sheet name="03Aug2020 23.38.21" sheetId="84" r:id="rId84"/>
+    <sheet name="04Aug2020 23.24.06" sheetId="85" r:id="rId85"/>
+    <sheet name="05Aug2020 05.43.05" sheetId="86" r:id="rId86"/>
+    <sheet name="05Aug2020 06.12.05" sheetId="87" r:id="rId87"/>
+    <sheet name="09Aug2020 16.30.28" sheetId="88" r:id="rId88"/>
+    <sheet name="09Aug2020 17.04.33" sheetId="89" r:id="rId89"/>
+    <sheet name="09Aug2020 17.13.54" sheetId="90" r:id="rId90"/>
+    <sheet name="09Aug2020 17.37.33" sheetId="91" r:id="rId91"/>
+    <sheet name="09Aug2020 17.59.15" sheetId="92" r:id="rId92"/>
+    <sheet name="09Aug2020 18.08.05" sheetId="93" r:id="rId93"/>
+    <sheet name="09Aug2020 18.15.24" sheetId="94" r:id="rId94"/>
+    <sheet name="09Aug2020 18.30.03" sheetId="95" r:id="rId95"/>
+    <sheet name="09Aug2020 19.33.42" sheetId="96" r:id="rId96"/>
+    <sheet name="09Aug2020 20.06.42" sheetId="97" r:id="rId97"/>
+    <sheet name="18Aug2020 12.28.42" sheetId="98" r:id="rId98"/>
+    <sheet name="28Aug2020 15.33.57" sheetId="99" r:id="rId99"/>
+    <sheet name="28Aug2020 15.41.49" sheetId="100" r:id="rId100"/>
+    <sheet name="28Aug2020 16.03.13" sheetId="101" r:id="rId101"/>
+    <sheet name="28Aug2020 16.18.49" sheetId="102" r:id="rId102"/>
+    <sheet name="31Aug2020 14.43.59" sheetId="103" r:id="rId103"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="59">
   <si>
     <t>Test</t>
   </si>
@@ -289,12 +297,14 @@
   <si>
     <t>https://mcptraining.wsgc.com/</t>
   </si>
+  <si>
+    <t>https://supchainplanmerch-mcp-user-interface-mcpuat.services.west.nonprod.wsgc.com/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -329,27 +339,27 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -366,10 +376,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -533,21 +543,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -564,7 +574,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -618,8 +628,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -633,13 +643,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1504,13 +1514,661 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6300-000000000000}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>606</v>
+      </c>
+      <c r="C3">
+        <v>16059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>606</v>
+      </c>
+      <c r="C4">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>444</v>
+      </c>
+      <c r="C5">
+        <v>3971</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>444</v>
+      </c>
+      <c r="C6">
+        <v>9179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>444</v>
+      </c>
+      <c r="C7">
+        <v>8082</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>444</v>
+      </c>
+      <c r="C8">
+        <v>8203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>444</v>
+      </c>
+      <c r="C9">
+        <v>7971</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>444</v>
+      </c>
+      <c r="C10">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>387</v>
+      </c>
+      <c r="C11">
+        <v>4522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>387</v>
+      </c>
+      <c r="C12">
+        <v>11332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>387</v>
+      </c>
+      <c r="C13">
+        <v>10176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14">
+        <v>387</v>
+      </c>
+      <c r="C14">
+        <v>9865</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15">
+        <v>387</v>
+      </c>
+      <c r="C15">
+        <v>11459</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6400-000000000000}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>615</v>
+      </c>
+      <c r="C3">
+        <v>13986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>615</v>
+      </c>
+      <c r="C4">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>710</v>
+      </c>
+      <c r="C5">
+        <v>4948</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>710</v>
+      </c>
+      <c r="C6">
+        <v>12572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>710</v>
+      </c>
+      <c r="C7">
+        <v>10994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>710</v>
+      </c>
+      <c r="C8">
+        <v>11248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>710</v>
+      </c>
+      <c r="C9">
+        <v>10283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>710</v>
+      </c>
+      <c r="C10">
+        <v>1037</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6500-000000000000}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="71.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>697</v>
+      </c>
+      <c r="C3">
+        <v>16370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>697</v>
+      </c>
+      <c r="C4">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>487</v>
+      </c>
+      <c r="C5">
+        <v>6932</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>487</v>
+      </c>
+      <c r="C6">
+        <v>10567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>487</v>
+      </c>
+      <c r="C7">
+        <v>6275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>487</v>
+      </c>
+      <c r="C8">
+        <v>6521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>487</v>
+      </c>
+      <c r="C9">
+        <v>6465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>487</v>
+      </c>
+      <c r="C10">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>264</v>
+      </c>
+      <c r="C11">
+        <v>5842</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>264</v>
+      </c>
+      <c r="C12">
+        <v>6166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>264</v>
+      </c>
+      <c r="C13">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14">
+        <v>264</v>
+      </c>
+      <c r="C14">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15">
+        <v>264</v>
+      </c>
+      <c r="C15">
+        <v>3407</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6600-000000000000}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="85.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>674</v>
+      </c>
+      <c r="C3">
+        <v>14758</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>674</v>
+      </c>
+      <c r="C4">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>341</v>
+      </c>
+      <c r="C5">
+        <v>7592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>341</v>
+      </c>
+      <c r="C6">
+        <v>5094</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>341</v>
+      </c>
+      <c r="C7">
+        <v>4169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>341</v>
+      </c>
+      <c r="C8">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>341</v>
+      </c>
+      <c r="C9">
+        <v>4904</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>341</v>
+      </c>
+      <c r="C10">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>326</v>
+      </c>
+      <c r="C11">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>326</v>
+      </c>
+      <c r="C12">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>326</v>
+      </c>
+      <c r="C13">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14">
+        <v>326</v>
+      </c>
+      <c r="C14">
+        <v>5591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15">
+        <v>326</v>
+      </c>
+      <c r="C15">
+        <v>4959</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{BAADF35E-CEDC-40DE-8DC2-E469B5A74100}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1572,13 +2230,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:D75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
@@ -2412,13 +3070,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2436,13 +3094,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:D41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
@@ -2450,7 +3108,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="65.28515625" collapsed="true"/>
+    <col min="1" max="1" width="65.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2905,13 +3563,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:D40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -2919,7 +3577,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="68.5703125" collapsed="true"/>
+    <col min="1" max="1" width="68.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3363,13 +4021,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3508,13 +4166,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3543,13 +4201,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3567,13 +4225,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3745,13 +4403,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3769,13 +4427,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3958,19 +4616,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:D34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4348,13 +5006,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4471,13 +5129,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4495,13 +5153,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4519,13 +5177,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4554,19 +5212,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="1" max="1" width="27" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4790,13 +5448,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5001,13 +5659,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
-  <dimension ref="A1:D43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -5015,8 +5673,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="68.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="1" max="1" width="68.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5493,13 +6151,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5528,13 +6186,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5574,13 +6232,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5609,13 +6267,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5688,13 +6346,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5734,13 +6392,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
-  <dimension ref="A1:D64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25:C25"/>
@@ -5748,7 +6406,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="63.140625" collapsed="true"/>
+    <col min="1" max="1" width="63.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6456,13 +7114,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6491,13 +7149,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6559,13 +7217,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6594,13 +7252,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
-  <dimension ref="A1:D39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -6608,7 +7266,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="68.5703125" collapsed="true"/>
+    <col min="1" max="1" width="68.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7041,13 +7699,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7065,13 +7723,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
-  <dimension ref="A1:D43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
@@ -7079,7 +7737,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="68.5703125" collapsed="true"/>
+    <col min="1" max="1" width="68.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7556,13 +8214,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7954,13 +8612,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
-  <dimension ref="A1:D43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C43"/>
@@ -7968,7 +8626,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="68.5703125" collapsed="true"/>
+    <col min="1" max="1" width="68.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8445,13 +9103,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
-  <dimension ref="A1:D43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
@@ -8459,7 +9117,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="68.5703125" collapsed="true"/>
+    <col min="1" max="1" width="68.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8936,13 +9594,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9202,13 +9860,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9556,13 +10214,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
-  <dimension ref="A1:D43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
@@ -9570,9 +10228,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="68.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="1" max="1" width="68.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10049,13 +10707,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10106,13 +10764,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
-  <dimension ref="A1:D43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C43"/>
@@ -10120,7 +10778,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="68.5703125" collapsed="true"/>
+    <col min="1" max="1" width="68.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10597,13 +11255,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
-  <dimension ref="A1:D78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -10611,7 +11269,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="65.42578125" collapsed="true"/>
+    <col min="1" max="1" width="65.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11473,13 +12131,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11596,13 +12254,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -11644,13 +12302,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12086,13 +12744,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12132,13 +12790,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12167,13 +12825,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
-  <dimension ref="A1:D36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12576,13 +13234,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12622,13 +13280,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12789,13 +13447,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17:C17"/>
@@ -12803,9 +13461,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13040,13 +13698,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13064,13 +13722,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13330,13 +13988,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13365,13 +14023,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
-  <dimension ref="A1:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13620,13 +14278,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13699,13 +14357,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13800,13 +14458,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13934,13 +14592,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13958,13 +14616,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13982,13 +14640,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14028,13 +14686,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -14042,9 +14700,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -14301,13 +14959,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13:C13"/>
@@ -14315,7 +14973,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -14572,13 +15230,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14673,13 +15331,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C19"/>
@@ -14687,9 +15345,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -14902,13 +15560,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15168,13 +15826,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15214,13 +15872,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15480,13 +16138,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15746,13 +16404,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15946,13 +16604,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15970,13 +16628,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4900-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4900-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15994,13 +16652,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4A00-000000000000}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4A00-000000000000}">
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16260,13 +16918,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4B00-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4B00-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16339,13 +16997,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4C00-000000000000}">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4C00-000000000000}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16583,13 +17241,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4D00-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4D00-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16607,13 +17265,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4E00-000000000000}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4E00-000000000000}">
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C21"/>
@@ -16621,9 +17279,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -16880,13 +17538,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
@@ -16894,8 +17552,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="68.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="1" max="1" width="68.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -17350,13 +18008,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4F00-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4F00-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17401,13 +18059,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5000-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5000-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17430,13 +18088,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5100-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5100-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17459,13 +18117,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5200-000000000000}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5200-000000000000}">
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17719,13 +18377,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5300-000000000000}">
-  <dimension ref="A1:D24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5300-000000000000}">
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17990,13 +18648,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5400-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5400-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18030,13 +18688,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5500-000000000000}">
-  <dimension ref="A1:D39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5500-000000000000}">
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18466,13 +19124,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5600-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5600-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18517,13 +19175,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5700-000000000000}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5700-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18689,13 +19347,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5800-000000000000}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5800-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18861,13 +19519,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19336,13 +19994,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5900-000000000000}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5900-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:C15"/>
@@ -19510,22 +20168,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5A00-000000000000}">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5A00-000000000000}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="71.85546875" collapsed="true"/>
+    <col min="1" max="1" width="71.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -19678,27 +20336,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A1" xr:uid="{4A8FB2DA-52D4-48FC-8DE8-5A38D357D969}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{4A8FB2DA-52D4-48FC-8DE8-5A38D357D969}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId2" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5B00-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -19709,168 +20367,173 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
-        <v>609.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>11972.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3">
+        <v>609</v>
+      </c>
+      <c r="C3">
+        <v>11972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="n">
-        <v>609.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1194.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>609</v>
+      </c>
+      <c r="C4">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
-      <c r="B5" t="n">
-        <v>303.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12640.0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5">
+        <v>303</v>
+      </c>
+      <c r="C5">
+        <v>12640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>53</v>
       </c>
-      <c r="B6" t="n">
-        <v>303.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>16576.0</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6">
+        <v>303</v>
+      </c>
+      <c r="C6">
+        <v>16576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>54</v>
       </c>
-      <c r="B7" t="n">
-        <v>303.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>17468.0</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7">
+        <v>303</v>
+      </c>
+      <c r="C7">
+        <v>17468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>55</v>
       </c>
-      <c r="B8" t="n">
-        <v>303.0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>21045.0</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8">
+        <v>303</v>
+      </c>
+      <c r="C8">
+        <v>21045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>56</v>
       </c>
-      <c r="B9" t="n">
-        <v>303.0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>18990.0</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9">
+        <v>303</v>
+      </c>
+      <c r="C9">
+        <v>18990</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="B10" t="n">
-        <v>303.0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1188.0</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10">
+        <v>303</v>
+      </c>
+      <c r="C10">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>52</v>
       </c>
-      <c r="B11" t="n">
-        <v>306.0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>11591.0</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11">
+        <v>306</v>
+      </c>
+      <c r="C11">
+        <v>11591</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>53</v>
       </c>
-      <c r="B12" t="n">
-        <v>306.0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>18621.0</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12">
+        <v>306</v>
+      </c>
+      <c r="C12">
+        <v>18621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>54</v>
       </c>
-      <c r="B13" t="n">
-        <v>306.0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>18340.0</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13">
+        <v>306</v>
+      </c>
+      <c r="C13">
+        <v>18340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>55</v>
       </c>
-      <c r="B14" t="n">
-        <v>306.0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>18163.0</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14">
+        <v>306</v>
+      </c>
+      <c r="C14">
+        <v>18163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" t="n">
-        <v>306.0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>19294.0</v>
+      <c r="B15">
+        <v>306</v>
+      </c>
+      <c r="C15">
+        <v>19294</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5C00-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="71.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -19881,168 +20544,168 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
-        <v>627.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>11109.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3">
+        <v>627</v>
+      </c>
+      <c r="C3">
+        <v>11109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="n">
-        <v>627.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1110.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>627</v>
+      </c>
+      <c r="C4">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
-      <c r="B5" t="n">
-        <v>449.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12812.0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5">
+        <v>449</v>
+      </c>
+      <c r="C5">
+        <v>12812</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>53</v>
       </c>
-      <c r="B6" t="n">
-        <v>449.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11522.0</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6">
+        <v>449</v>
+      </c>
+      <c r="C6">
+        <v>11522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>54</v>
       </c>
-      <c r="B7" t="n">
-        <v>449.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>19175.0</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7">
+        <v>449</v>
+      </c>
+      <c r="C7">
+        <v>19175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>55</v>
       </c>
-      <c r="B8" t="n">
-        <v>449.0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>19217.0</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8">
+        <v>449</v>
+      </c>
+      <c r="C8">
+        <v>19217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>56</v>
       </c>
-      <c r="B9" t="n">
-        <v>449.0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>20179.0</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9">
+        <v>449</v>
+      </c>
+      <c r="C9">
+        <v>20179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="B10" t="n">
-        <v>449.0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1007.0</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10">
+        <v>449</v>
+      </c>
+      <c r="C10">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>52</v>
       </c>
-      <c r="B11" t="n">
-        <v>456.0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>12305.0</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11">
+        <v>456</v>
+      </c>
+      <c r="C11">
+        <v>12305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>53</v>
       </c>
-      <c r="B12" t="n">
-        <v>456.0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>14700.0</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12">
+        <v>456</v>
+      </c>
+      <c r="C12">
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>54</v>
       </c>
-      <c r="B13" t="n">
-        <v>456.0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>18137.0</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13">
+        <v>456</v>
+      </c>
+      <c r="C13">
+        <v>18137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>55</v>
       </c>
-      <c r="B14" t="n">
-        <v>456.0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>17595.0</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14">
+        <v>456</v>
+      </c>
+      <c r="C14">
+        <v>17595</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" t="n">
-        <v>456.0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>18917.0</v>
+      <c r="B15">
+        <v>456</v>
+      </c>
+      <c r="C15">
+        <v>18917</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5D00-000000000000}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -20053,91 +20716,91 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
-        <v>584.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>11098.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3">
+        <v>584</v>
+      </c>
+      <c r="C3">
+        <v>11098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="n">
-        <v>584.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1087.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>584</v>
+      </c>
+      <c r="C4">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
-      <c r="B5" t="n">
-        <v>252.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>15339.0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5">
+        <v>252</v>
+      </c>
+      <c r="C5">
+        <v>15339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>53</v>
       </c>
-      <c r="B6" t="n">
-        <v>252.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>13987.0</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6">
+        <v>252</v>
+      </c>
+      <c r="C6">
+        <v>13987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>54</v>
       </c>
-      <c r="B7" t="n">
-        <v>252.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>13787.0</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7">
+        <v>252</v>
+      </c>
+      <c r="C7">
+        <v>13787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>55</v>
       </c>
-      <c r="B8" t="n">
-        <v>252.0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>13981.0</v>
+      <c r="B8">
+        <v>252</v>
+      </c>
+      <c r="C8">
+        <v>13981</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5E00-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -20148,40 +20811,683 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
-        <v>574.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>12123.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3">
+        <v>574</v>
+      </c>
+      <c r="C3">
+        <v>12123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="n">
-        <v>574.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1233.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>574</v>
+      </c>
+      <c r="C4">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
-      <c r="B5" t="n">
-        <v>311.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12.0</v>
+      <c r="B5">
+        <v>311</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5F00-000000000000}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="85.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>583</v>
+      </c>
+      <c r="C3">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>583</v>
+      </c>
+      <c r="C4">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>312</v>
+      </c>
+      <c r="C5">
+        <v>15219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>312</v>
+      </c>
+      <c r="C6">
+        <v>11933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>312</v>
+      </c>
+      <c r="C7">
+        <v>7620</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>312</v>
+      </c>
+      <c r="C8">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>312</v>
+      </c>
+      <c r="C9">
+        <v>11449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>312</v>
+      </c>
+      <c r="C10">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>314</v>
+      </c>
+      <c r="C11">
+        <v>15195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>314</v>
+      </c>
+      <c r="C12">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>314</v>
+      </c>
+      <c r="C13">
+        <v>6892</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14">
+        <v>314</v>
+      </c>
+      <c r="C14">
+        <v>11890</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15">
+        <v>314</v>
+      </c>
+      <c r="C15">
+        <v>12178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6000-000000000000}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="85.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>475</v>
+      </c>
+      <c r="C3">
+        <v>8785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>475</v>
+      </c>
+      <c r="C4">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>252</v>
+      </c>
+      <c r="C5">
+        <v>13323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>252</v>
+      </c>
+      <c r="C6">
+        <v>11487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>252</v>
+      </c>
+      <c r="C7">
+        <v>6209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>252</v>
+      </c>
+      <c r="C8">
+        <v>10502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>252</v>
+      </c>
+      <c r="C9">
+        <v>11896</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>252</v>
+      </c>
+      <c r="C10">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>230</v>
+      </c>
+      <c r="C11">
+        <v>8055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>230</v>
+      </c>
+      <c r="C12">
+        <v>11216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>230</v>
+      </c>
+      <c r="C13">
+        <v>4989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14">
+        <v>230</v>
+      </c>
+      <c r="C14">
+        <v>11693</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15">
+        <v>230</v>
+      </c>
+      <c r="C15">
+        <v>10278</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6100-000000000000}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>561</v>
+      </c>
+      <c r="C3">
+        <v>14063</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>561</v>
+      </c>
+      <c r="C4">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>259</v>
+      </c>
+      <c r="C5">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>259</v>
+      </c>
+      <c r="C6">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>259</v>
+      </c>
+      <c r="C7">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>259</v>
+      </c>
+      <c r="C8">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>259</v>
+      </c>
+      <c r="C9">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>259</v>
+      </c>
+      <c r="C10">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>375</v>
+      </c>
+      <c r="C11">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>375</v>
+      </c>
+      <c r="C12">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>375</v>
+      </c>
+      <c r="C13">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14">
+        <v>375</v>
+      </c>
+      <c r="C14">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15">
+        <v>375</v>
+      </c>
+      <c r="C15">
+        <v>2676</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6200-000000000000}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>657</v>
+      </c>
+      <c r="C3">
+        <v>15937</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>657</v>
+      </c>
+      <c r="C4">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>418</v>
+      </c>
+      <c r="C5">
+        <v>11855</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>418</v>
+      </c>
+      <c r="C6">
+        <v>7782</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>418</v>
+      </c>
+      <c r="C7">
+        <v>6945</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>418</v>
+      </c>
+      <c r="C8">
+        <v>6994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>418</v>
+      </c>
+      <c r="C9">
+        <v>7494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>418</v>
+      </c>
+      <c r="C10">
+        <v>1227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WSI-PageLoadPerformance.xlsx
+++ b/WSI-PageLoadPerformance.xlsx
@@ -22,13 +22,65 @@
     <sheet name="04Sep2020 19.27.32" r:id="rId16" sheetId="15"/>
     <sheet name="04Sep2020 19.37.44" r:id="rId17" sheetId="16"/>
     <sheet name="04Sep2020 20.24.46" r:id="rId18" sheetId="17"/>
+    <sheet name="16Sep2020 22.03.27(IST)-" r:id="rId19" sheetId="18"/>
+    <sheet name="17Sep2020 16.39.57(IST)-" r:id="rId20" sheetId="19"/>
+    <sheet name="17Sep2020 20.10.37(IST)-" r:id="rId21" sheetId="20"/>
+    <sheet name="17Sep2020 20.43.52(IST)-LOCAL" r:id="rId22" sheetId="21"/>
+    <sheet name="17Sep2020 20.53.19(IST)-LOCAL" r:id="rId23" sheetId="22"/>
+    <sheet name="23Sep2020 19.41.07(IST)-LOCAL" r:id="rId24" sheetId="23"/>
+    <sheet name="23Sep2020 19.43.42(IST)-LOCAL" r:id="rId25" sheetId="24"/>
+    <sheet name="23Sep2020 20.07.14(IST)-LOCAL" r:id="rId26" sheetId="25"/>
+    <sheet name="23Sep2020 21.07.40(IST)-LOCAL" r:id="rId27" sheetId="26"/>
+    <sheet name="23Sep2020 21.13.07(IST)-LOCAL" r:id="rId28" sheetId="27"/>
+    <sheet name="01Oct2020 16.33.14(IST)-LOCAL" r:id="rId29" sheetId="28"/>
+    <sheet name="01Oct2020 17.16.15(IST)-LOCAL" r:id="rId30" sheetId="29"/>
+    <sheet name="01Oct2020 17.28.42(IST)-LOCAL" r:id="rId31" sheetId="30"/>
+    <sheet name="01Oct2020 17.38.55(IST)-LOCAL" r:id="rId32" sheetId="31"/>
+    <sheet name="01Oct2020 17.50.59(IST)-LOCAL" r:id="rId33" sheetId="32"/>
+    <sheet name="13Oct2020 20.04.47(IST)-LOCAL" r:id="rId34" sheetId="33"/>
+    <sheet name="13Oct2020 20.20.54(IST)-LOCAL" r:id="rId35" sheetId="34"/>
+    <sheet name="13Oct2020 21.20.09(IST)-LOCAL" r:id="rId36" sheetId="35"/>
+    <sheet name="14Oct2020 21.52.35(IST)-LOCAL" r:id="rId37" sheetId="36"/>
+    <sheet name="02Nov2020 15.09.22(IST)-LOCAL" r:id="rId38" sheetId="37"/>
+    <sheet name="02Nov2020 15.10.40(IST)-LOCAL" r:id="rId39" sheetId="38"/>
+    <sheet name="02Nov2020 15.12.22(IST)-LOCAL" r:id="rId40" sheetId="39"/>
+    <sheet name="02Nov2020 15.13.51(IST)-LOCAL" r:id="rId41" sheetId="40"/>
+    <sheet name="02Nov2020 15.17.55(IST)-LOCAL" r:id="rId42" sheetId="41"/>
+    <sheet name="02Nov2020 15.22.22(IST)-LOCAL" r:id="rId43" sheetId="42"/>
+    <sheet name="02Nov2020 17.06.08(IST)-LOCAL" r:id="rId44" sheetId="43"/>
+    <sheet name="23Nov2020 18.17.47(IST)-LOCAL" r:id="rId45" sheetId="44"/>
+    <sheet name="23Nov2020 18.20.31(IST)-LOCAL" r:id="rId46" sheetId="45"/>
+    <sheet name="23Nov2020 18.25.21(IST)-LOCAL" r:id="rId47" sheetId="46"/>
+    <sheet name="23Nov2020 19.53.52(IST)-LOCAL" r:id="rId48" sheetId="47"/>
+    <sheet name="23Nov2020 19.56.50(IST)-LOCAL" r:id="rId49" sheetId="48"/>
+    <sheet name="23Nov2020 20.48.24(IST)-LOCAL" r:id="rId50" sheetId="49"/>
+    <sheet name="23Nov2020 20.56.20(IST)-LOCAL" r:id="rId51" sheetId="50"/>
+    <sheet name="23Nov2020 21.03.00(IST)-LOCAL" r:id="rId52" sheetId="51"/>
+    <sheet name="23Nov2020 21.06.24(IST)-LOCAL" r:id="rId53" sheetId="52"/>
+    <sheet name="23Nov2020 21.11.28(IST)-LOCAL" r:id="rId54" sheetId="53"/>
+    <sheet name="25Nov2020 19.14.27(IST)-LOCAL" r:id="rId55" sheetId="54"/>
+    <sheet name="25Nov2020 19.21.53(IST)-LOCAL" r:id="rId56" sheetId="55"/>
+    <sheet name="25Nov2020 19.24.25(IST)-LOCAL" r:id="rId57" sheetId="56"/>
+    <sheet name="25Nov2020 19.29.03(IST)-LOCAL" r:id="rId58" sheetId="57"/>
+    <sheet name="25Nov2020 19.34.26(IST)-LOCAL" r:id="rId59" sheetId="58"/>
+    <sheet name="25Nov2020 19.44.08(IST)-LOCAL" r:id="rId60" sheetId="59"/>
+    <sheet name="25Nov2020 19.49.35(IST)-LOCAL" r:id="rId61" sheetId="60"/>
+    <sheet name="25Nov2020 19.56.42(IST)-LOCAL" r:id="rId62" sheetId="61"/>
+    <sheet name="25Nov2020 20.09.22(IST)-LOCAL" r:id="rId63" sheetId="62"/>
+    <sheet name="25Nov2020 20.13.55(IST)-LOCAL" r:id="rId64" sheetId="63"/>
+    <sheet name="25Nov2020 20.14.21(IST)-LOCAL" r:id="rId65" sheetId="64"/>
+    <sheet name="25Nov2020 20.38.01(IST)-LOCAL" r:id="rId66" sheetId="65"/>
+    <sheet name="25Nov2020 20.41.25(IST)-LOCAL" r:id="rId67" sheetId="66"/>
+    <sheet name="30Nov2020 16.33.07(IST)-LOCAL" r:id="rId68" sheetId="67"/>
+    <sheet name="08Dec2020 17.47.22(IST)-LOCAL" r:id="rId69" sheetId="68"/>
+    <sheet name="08Dec2020 17.58.04(IST)-LOCAL" r:id="rId70" sheetId="69"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="380">
   <si>
     <t>DataType</t>
   </si>
@@ -1072,6 +1124,102 @@
   </si>
   <si>
     <t>https://mcpperf.wsgc.com/</t>
+  </si>
+  <si>
+    <t>Merch List &gt; WE &gt; Furniture&gt;806 - WE CASUAL SEATING &gt; WE Furniture Fall 2020 - Page 1</t>
+  </si>
+  <si>
+    <t>Merch List &gt; WE &gt; Furniture&gt;806 - WE CASUAL SEATING &gt; WE Furniture Fall 2020 - Page 2</t>
+  </si>
+  <si>
+    <t>Merch List &gt; WE &gt; Furniture&gt;806 - WE CASUAL SEATING &gt; WE Furniture Fall 2020 - Page 3</t>
+  </si>
+  <si>
+    <t>Merch List &gt; WE &gt; Furniture&gt;806 - WE CASUAL SEATING &gt; WE Furniture Fall 2020 - Page 4</t>
+  </si>
+  <si>
+    <t>Merch List &gt; WE &gt; Furniture&gt;806 - WE CASUAL SEATING &gt; WE Furniture Fall 2020 - Page 5</t>
+  </si>
+  <si>
+    <t>After Update &gt; Page 1</t>
+  </si>
+  <si>
+    <t>After Update &gt; Page 2</t>
+  </si>
+  <si>
+    <t>After Update &gt; Page 3</t>
+  </si>
+  <si>
+    <t>After Update &gt; Page 4</t>
+  </si>
+  <si>
+    <t>After Update &gt; Page 5</t>
+  </si>
+  <si>
+    <t>VLL &gt; WE &gt; Furniture&gt;806 - WE CASUAL SEATING &gt; WE Furniture Fall 2020 - Page 1</t>
+  </si>
+  <si>
+    <t>VLL &gt; WE &gt; Furniture&gt;806 - WE CASUAL SEATING &gt; WE Furniture Fall 2020 - Page 2</t>
+  </si>
+  <si>
+    <t>VLL &gt; WE &gt; Furniture&gt;806 - WE CASUAL SEATING &gt; WE Furniture Fall 2020 - Page 3</t>
+  </si>
+  <si>
+    <t>VLL &gt; WE &gt; Furniture&gt;806 - WE CASUAL SEATING &gt; WE Furniture Fall 2020 - Page 4</t>
+  </si>
+  <si>
+    <t>VLL &gt; WE &gt; Furniture&gt;806 - WE CASUAL SEATING &gt; WE Furniture Fall 2020 - Page 5</t>
+  </si>
+  <si>
+    <t>Merch List &gt; WE &gt; Lighting&gt;805 - WE LIGHTING &gt; WE Lighting Fall 2020 - Page 1</t>
+  </si>
+  <si>
+    <t>http://10.180.6.163:443/</t>
+  </si>
+  <si>
+    <t>Mass Edit Merch List &gt; WE &gt; Furniture&gt;806 - WE CASUAL SEATING &gt; WE Furniture Fall 2020</t>
+  </si>
+  <si>
+    <t>Mass Edit Merch List &gt; WE &gt; Lighting&gt;805 - WE LIGHTING &gt; WE Lighting Fall 2020</t>
+  </si>
+  <si>
+    <t>Sub Class Description Mass Edit Merch List &gt; WE &gt; Lighting&gt;805 - WE LIGHTING &gt; WE Lighting Fall 2020</t>
+  </si>
+  <si>
+    <t>Item Type Mass Edit Merch List &gt; WE &gt; Lighting&gt;805 - WE LIGHTING &gt; WE Lighting Fall 2020</t>
+  </si>
+  <si>
+    <t>Fabric Mill Name/Number Mass Edit Merch List &gt; WE &gt; Lighting&gt;805 - WE LIGHTING &gt; WE Lighting Fall 2020</t>
+  </si>
+  <si>
+    <t>Fair Trade Flag Mass Edit Merch List &gt; WE &gt; Lighting&gt;805 - WE LIGHTING &gt; WE Lighting Fall 2020</t>
+  </si>
+  <si>
+    <t>Sub Class Description &gt; Mass Edit &gt; Merch List &gt; WE &gt; Furniture&gt;806 - WE CASUAL SEATING &gt; WE Furniture Fall 2020</t>
+  </si>
+  <si>
+    <t>Item Type &gt; Mass Edit &gt; Merch List &gt; WE &gt; Furniture&gt;806 - WE CASUAL SEATING &gt; WE Furniture Fall 2020</t>
+  </si>
+  <si>
+    <t>Fabric Mill Name/Number &gt; Mass Edit &gt; Merch List &gt; WE &gt; Furniture&gt;806 - WE CASUAL SEATING &gt; WE Furniture Fall 2020</t>
+  </si>
+  <si>
+    <t>Fair Trade Flag &gt; Mass Edit &gt;Merch List &gt; WE &gt; Furniture&gt;806 - WE CASUAL SEATING &gt; WE Furniture Fall 2020</t>
+  </si>
+  <si>
+    <t>Sub Class Description &gt; Mass Edit &gt; Merch List &gt; WE &gt; Lighting&gt;805 - WE LIGHTING &gt; WE Lighting Fall 2020</t>
+  </si>
+  <si>
+    <t>Item Type &gt; Mass Edit &gt; Merch List &gt; WE &gt; Lighting&gt;805 - WE LIGHTING &gt; WE Lighting Fall 2020</t>
+  </si>
+  <si>
+    <t>Fabric Mill Name/Number &gt; Mass Edit &gt; Merch List &gt; WE &gt; Lighting&gt;805 - WE LIGHTING &gt; WE Lighting Fall 2020</t>
+  </si>
+  <si>
+    <t>Fair Trade Flag &gt; Mass Edit &gt;Merch List &gt; WE &gt; Lighting&gt;805 - WE LIGHTING &gt; WE Lighting Fall 2020</t>
+  </si>
+  <si>
+    <t>Create Placeholder &gt; WE Lighting Fall 2020</t>
   </si>
 </sst>
 </file>
@@ -8665,6 +8813,218 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1742.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>43244.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1742.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>722.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" t="n">
+        <v>25090.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6" t="n">
+        <v>25090.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15362.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B7" t="n">
+        <v>25090.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12199.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B8" t="n">
+        <v>25090.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20956.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" t="n">
+        <v>25090.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16675.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B10" t="n">
+        <v>25090.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>499.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>348</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1644.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25578.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1644.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>19875.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>350</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1644.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>18998.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1644.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>21342.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1644.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>26158.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1521.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>32910.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr>
@@ -8837,6 +9197,1638 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2124.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>19459.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2124.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>508.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1168.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>51367.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1168.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>29045.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1168.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>27626.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1168.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>31076.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1168.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>47762.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1168.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>27194.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1168.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>29180.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1168.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>28425.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1168.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>27246.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1168.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>28849.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1168.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>462.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2853.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>25334.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>353</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2853.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>18652.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>349</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2853.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>21196.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>354</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2853.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>25015.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>350</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2853.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>22163.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>355</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2853.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>27234.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>351</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2853.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>24940.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>356</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2853.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>35818.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>352</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2853.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>29493.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>357</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2853.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>35740.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1823.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>38953.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1823.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>503.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" t="n">
+        <v>789.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>41478.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1274.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>18713.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1274.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>425.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" t="n">
+        <v>822.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>38136.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1217.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9067.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1217.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>543.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1231.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10296.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1231.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>503.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" t="n">
+        <v>502.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>28096.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B6" t="n">
+        <v>502.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>36692.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" t="n">
+        <v>502.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>26494.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B8" t="n">
+        <v>502.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>35952.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B9" t="n">
+        <v>502.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>26294.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B10" t="n">
+        <v>502.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>34073.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B11" t="n">
+        <v>502.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25391.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B12" t="n">
+        <v>502.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>30195.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B13" t="n">
+        <v>502.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>25789.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B14" t="n">
+        <v>502.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30854.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B15" t="n">
+        <v>502.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>448.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1424.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>24648.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>353</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1424.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>32669.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>349</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1424.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>25456.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>354</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1424.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>29103.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>350</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1424.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>22407.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>355</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1424.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>32177.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>351</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1424.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>26854.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>356</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1424.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>34193.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>352</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1424.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>25606.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>357</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1424.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>27264.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>358</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1424.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>357.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>359</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1424.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>15816.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>360</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1424.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>16182.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>361</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1424.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>17279.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>362</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1424.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>20030.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1597.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15974.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1597.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>543.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1356.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15976.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1356.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>24407.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1356.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>21536.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1356.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>31471.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1356.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22610.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1356.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>32178.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1356.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25552.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1356.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20395.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1356.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>14230.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1356.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>39247.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>358</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1356.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>17821.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>359</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1356.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15186.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>360</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1356.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15192.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>361</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1356.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16717.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>362</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1356.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>16838.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>340</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1356.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>539.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>348</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2345.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>15787.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>353</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2345.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>25454.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>349</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2345.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>16195.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>354</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2345.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>26098.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2345.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>14088.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>355</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2345.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>28758.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>351</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2345.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>19051.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>356</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2345.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>31775.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>352</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2345.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>22120.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>357</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2345.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28290.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>358</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2345.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>18313.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>359</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2345.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>16791.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>360</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2345.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>17872.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>361</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2345.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>13766.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>362</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2345.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>15368.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>22325.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>530.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2739.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>19305.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2739.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>703.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1293.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>47932.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1293.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>44211.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1293.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>42166.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1293.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>38712.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1293.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>35343.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1293.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>30343.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1293.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>23403.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1293.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>30796.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1293.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20304.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1293.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30063.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>358</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1293.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>32209.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>359</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1293.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>25181.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>360</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1293.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>24887.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>361</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1293.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>25605.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>362</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1293.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>29689.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>340</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1293.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>641.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>348</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>28408.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>353</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>28512.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>349</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>19777.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>354</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>26258.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1601.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16007.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1601.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>594.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" t="n">
+        <v>923.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>35151.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1520.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11316.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1520.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>594.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1184.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>32428.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr>
@@ -9025,6 +11017,824 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1397.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12722.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1397.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>599.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" t="n">
+        <v>676.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>25771.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B6" t="n">
+        <v>676.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33820.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" t="n">
+        <v>676.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>25613.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1169.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12298.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1169.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>609.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2563.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>34001.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2146.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>18559.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2146.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>498.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" t="n">
+        <v>902.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>43941.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B6" t="n">
+        <v>902.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>43036.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" t="n">
+        <v>902.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>26262.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B8" t="n">
+        <v>902.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>42887.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B9" t="n">
+        <v>902.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>27337.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B10" t="n">
+        <v>902.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>45007.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B11" t="n">
+        <v>902.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>28089.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B12" t="n">
+        <v>902.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>34926.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B13" t="n">
+        <v>902.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>41216.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B14" t="n">
+        <v>902.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>52290.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>358</v>
+      </c>
+      <c r="B15" t="n">
+        <v>902.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>29373.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>359</v>
+      </c>
+      <c r="B16" t="n">
+        <v>902.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>27747.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>360</v>
+      </c>
+      <c r="B17" t="n">
+        <v>902.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>40703.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>361</v>
+      </c>
+      <c r="B18" t="n">
+        <v>902.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>26353.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>362</v>
+      </c>
+      <c r="B19" t="n">
+        <v>902.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>28209.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>340</v>
+      </c>
+      <c r="B20" t="n">
+        <v>902.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>540.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>348</v>
+      </c>
+      <c r="B21" t="n">
+        <v>939.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>30696.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>353</v>
+      </c>
+      <c r="B22" t="n">
+        <v>939.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>33888.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>349</v>
+      </c>
+      <c r="B23" t="n">
+        <v>939.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>36994.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>354</v>
+      </c>
+      <c r="B24" t="n">
+        <v>939.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>38617.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B25" t="n">
+        <v>939.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>29294.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>355</v>
+      </c>
+      <c r="B26" t="n">
+        <v>939.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>44027.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>351</v>
+      </c>
+      <c r="B27" t="n">
+        <v>939.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>30170.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>356</v>
+      </c>
+      <c r="B28" t="n">
+        <v>939.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>38201.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>352</v>
+      </c>
+      <c r="B29" t="n">
+        <v>939.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>31425.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>357</v>
+      </c>
+      <c r="B30" t="n">
+        <v>939.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>41241.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>358</v>
+      </c>
+      <c r="B31" t="n">
+        <v>939.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29435.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>359</v>
+      </c>
+      <c r="B32" t="n">
+        <v>939.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>56463.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>360</v>
+      </c>
+      <c r="B33" t="n">
+        <v>939.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>61791.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>361</v>
+      </c>
+      <c r="B34" t="n">
+        <v>939.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>56633.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>362</v>
+      </c>
+      <c r="B35" t="n">
+        <v>939.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>31734.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2090.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>70670.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2090.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>521.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5810.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>39154.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5810.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>476.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4858.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>48716.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3173.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>46229.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3173.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>497.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -9261,6 +12071,527 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1351.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12564.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1351.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>548.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B5" t="n">
+        <v>870.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6959.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1181.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11654.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1181.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>461.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B5" t="n">
+        <v>769.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6994.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8588.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>25194.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8588.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>450.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B5" t="n">
+        <v>13096.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7845.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1560.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11458.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1560.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>552.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1185.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9005.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1554.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15964.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1554.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>595.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1289.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11233.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1289.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>521.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2101.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14513.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2018.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>24143.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2018.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>703.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2208.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>31925.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2208.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>478.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
@@ -9462,6 +12793,626 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5546.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>74850.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5546.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>506.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1109.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>69111.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3179.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>43050.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3179.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>479.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2311.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16512.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2311.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>757.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1686.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>16761.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3403.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>61378.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3403.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>475.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2071.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13284.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1086.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9212.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1086.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>481.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" t="n">
+        <v>578.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>67481.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1014.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8796.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1014.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>450.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>951.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8896.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>951.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>522.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2740.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>67812.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12423.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>519.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" t="n">
+        <v>625.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>67066.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9894.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>498.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>67056.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B6" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>67637.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B7" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>66858.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B8" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>67447.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1054.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9305.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1054.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>455.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -11455,6 +15406,637 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>922.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>18449.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>922.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>488.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" t="n">
+        <v>661.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>28590.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B6" t="n">
+        <v>661.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>27094.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B7" t="n">
+        <v>661.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20677.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B8" t="n">
+        <v>661.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20043.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>971.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9539.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>971.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>447.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" t="n">
+        <v>567.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>18014.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B6" t="n">
+        <v>567.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15786.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B7" t="n">
+        <v>567.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17150.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B8" t="n">
+        <v>567.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15747.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1346.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11700.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1346.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>516.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6965.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>45523.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1298.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>19886.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1298.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>467.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1069.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>68465.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1069.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>71615.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1069.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>68641.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1069.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>68271.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1713.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14309.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1713.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>543.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1098.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>37717.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1098.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>32764.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1098.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>26107.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1098.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>24078.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1512.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10982.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1512.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>495.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B5" t="n">
+        <v>967.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>36896.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" t="n">
+        <v>963.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10046.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D15"/>

--- a/WSI-PageLoadPerformance.xlsx
+++ b/WSI-PageLoadPerformance.xlsx
@@ -74,13 +74,23 @@
     <sheet name="30Nov2020 16.33.07(IST)-LOCAL" r:id="rId68" sheetId="67"/>
     <sheet name="08Dec2020 17.47.22(IST)-LOCAL" r:id="rId69" sheetId="68"/>
     <sheet name="08Dec2020 17.58.04(IST)-LOCAL" r:id="rId70" sheetId="69"/>
+    <sheet name="08Dec2020 20.56.08(IST)-LOCAL" r:id="rId71" sheetId="70"/>
+    <sheet name="08Dec2020 21.14.36(IST)-LOCAL" r:id="rId72" sheetId="71"/>
+    <sheet name="08Dec2020 21.25.20(IST)-LOCAL" r:id="rId73" sheetId="72"/>
+    <sheet name="08Dec2020 21.30.54(IST)-LOCAL" r:id="rId74" sheetId="73"/>
+    <sheet name="08Dec2020 21.35.45(IST)-LOCAL" r:id="rId75" sheetId="74"/>
+    <sheet name="29Jan2021 12.45.54(IST)-LOCAL" r:id="rId76" sheetId="75"/>
+    <sheet name="29Jan2021 12.48.59(IST)-LOCAL" r:id="rId77" sheetId="76"/>
+    <sheet name="29Jan2021 12.49.50(IST)-LOCAL" r:id="rId78" sheetId="77"/>
+    <sheet name="29Jan2021 12.50.40(IST)-LOCAL" r:id="rId79" sheetId="78"/>
+    <sheet name="29Jan2021 14.40.37(IST)-LOCAL" r:id="rId80" sheetId="79"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="381">
   <si>
     <t>DataType</t>
   </si>
@@ -1220,6 +1230,9 @@
   </si>
   <si>
     <t>Create Placeholder &gt; WE Lighting Fall 2020</t>
+  </si>
+  <si>
+    <t>Create Placeholder &gt; WE Furniture Fall 2020</t>
   </si>
 </sst>
 </file>
@@ -16037,6 +16050,725 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1361.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>41614.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1342.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>25324.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1434.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>28777.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1073.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11457.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1073.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>631.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" t="n">
+        <v>785.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>29882.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6" t="n">
+        <v>785.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>16928.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B7" t="n">
+        <v>785.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14794.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B8" t="n">
+        <v>785.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12803.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" t="n">
+        <v>785.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>14079.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10" t="n">
+        <v>785.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9946.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>359</v>
+      </c>
+      <c r="B11" t="n">
+        <v>785.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10262.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>360</v>
+      </c>
+      <c r="B12" t="n">
+        <v>785.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10596.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>361</v>
+      </c>
+      <c r="B13" t="n">
+        <v>785.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10732.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>362</v>
+      </c>
+      <c r="B14" t="n">
+        <v>785.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>10424.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B15" t="n">
+        <v>785.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>476.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16" t="n">
+        <v>814.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>11857.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>349</v>
+      </c>
+      <c r="B17" t="n">
+        <v>814.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>12052.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>350</v>
+      </c>
+      <c r="B18" t="n">
+        <v>814.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>11182.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>351</v>
+      </c>
+      <c r="B19" t="n">
+        <v>814.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>12293.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>352</v>
+      </c>
+      <c r="B20" t="n">
+        <v>814.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>14139.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>358</v>
+      </c>
+      <c r="B21" t="n">
+        <v>814.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>10909.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>359</v>
+      </c>
+      <c r="B22" t="n">
+        <v>814.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>10583.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>360</v>
+      </c>
+      <c r="B23" t="n">
+        <v>814.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>10697.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>361</v>
+      </c>
+      <c r="B24" t="n">
+        <v>814.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>11027.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>362</v>
+      </c>
+      <c r="B25" t="n">
+        <v>814.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>11373.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1506.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12013.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1506.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>722.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>18463.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>17717.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15506.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13415.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>13286.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11078.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>359</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11083.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>360</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10772.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>361</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11798.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>362</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11204.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>570.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D15"/>
